--- a/data/du_active.xlsx
+++ b/data/du_active.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Мероприятия" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Мероприятия" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT316"/>
+  <dimension ref="A1:DU316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,72 +992,77 @@
       </c>
       <c r="DJ1" t="inlineStr">
         <is>
+          <t>Зарядка (29.05.2022)</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
           <t>Своя игра
 (27.04.22)</t>
         </is>
       </c>
-      <c r="DK1" t="inlineStr">
+      <c r="DL1" t="inlineStr">
         <is>
           <t>Клубы ДУ</t>
         </is>
       </c>
-      <c r="DL1" t="inlineStr">
+      <c r="DM1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Сентябрь</t>
         </is>
       </c>
-      <c r="DM1" t="inlineStr">
+      <c r="DN1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Октябрь</t>
         </is>
       </c>
-      <c r="DN1" t="inlineStr">
+      <c r="DO1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Ноябрь</t>
         </is>
       </c>
-      <c r="DO1" t="inlineStr">
+      <c r="DP1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Декабрь</t>
         </is>
       </c>
-      <c r="DP1" t="inlineStr">
+      <c r="DQ1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Январь</t>
         </is>
       </c>
-      <c r="DQ1" t="inlineStr">
+      <c r="DR1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Февраль</t>
         </is>
       </c>
-      <c r="DR1" t="inlineStr">
+      <c r="DS1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Март</t>
         </is>
       </c>
-      <c r="DS1" t="inlineStr">
+      <c r="DT1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Апрель</t>
         </is>
       </c>
-      <c r="DT1" t="inlineStr">
+      <c r="DU1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
@@ -1210,6 +1215,7 @@
       <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="inlineStr"/>
       <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1224,14 +1230,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>22,40</t>
+          <t>23,40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -1352,6 +1358,7 @@
       <c r="DR3" t="inlineStr"/>
       <c r="DS3" t="inlineStr"/>
       <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1366,14 +1373,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>26,4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22,40</t>
+          <t>23,40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -1502,6 +1509,7 @@
       <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr"/>
       <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1516,14 +1524,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28,4</t>
+          <t>29,4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22,40</t>
+          <t>23,40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -1660,6 +1668,7 @@
       <c r="DR5" t="inlineStr"/>
       <c r="DS5" t="inlineStr"/>
       <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1670,14 +1679,14 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22,40</t>
+          <t>23,40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -1798,6 +1807,7 @@
       <c r="DR6" t="inlineStr"/>
       <c r="DS6" t="inlineStr"/>
       <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1936,6 +1946,7 @@
       <c r="DR7" t="inlineStr"/>
       <c r="DS7" t="inlineStr"/>
       <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2074,6 +2085,7 @@
       <c r="DR8" t="inlineStr"/>
       <c r="DS8" t="inlineStr"/>
       <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2212,6 +2224,7 @@
       <c r="DR9" t="inlineStr"/>
       <c r="DS9" t="inlineStr"/>
       <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2350,6 +2363,7 @@
       <c r="DR10" t="inlineStr"/>
       <c r="DS10" t="inlineStr"/>
       <c r="DT10" t="inlineStr"/>
+      <c r="DU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2360,14 +2374,14 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19,8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2488,6 +2502,7 @@
       <c r="DR11" t="inlineStr"/>
       <c r="DS11" t="inlineStr"/>
       <c r="DT11" t="inlineStr"/>
+      <c r="DU11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2498,14 +2513,14 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19,8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -2626,6 +2641,7 @@
       <c r="DR12" t="inlineStr"/>
       <c r="DS12" t="inlineStr"/>
       <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2640,14 +2656,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47,8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,80</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -2809,12 +2825,12 @@
       <c r="DG13" t="inlineStr"/>
       <c r="DH13" t="inlineStr"/>
       <c r="DI13" t="inlineStr"/>
-      <c r="DJ13" t="inlineStr">
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK13" t="inlineStr"/>
       <c r="DL13" t="inlineStr"/>
       <c r="DM13" t="inlineStr"/>
       <c r="DN13" t="inlineStr"/>
@@ -2824,6 +2840,7 @@
       <c r="DR13" t="inlineStr"/>
       <c r="DS13" t="inlineStr"/>
       <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2838,14 +2855,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41,8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -2983,12 +3000,12 @@
       </c>
       <c r="DH14" t="inlineStr"/>
       <c r="DI14" t="inlineStr"/>
-      <c r="DJ14" t="inlineStr">
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK14" t="inlineStr"/>
       <c r="DL14" t="inlineStr"/>
       <c r="DM14" t="inlineStr"/>
       <c r="DN14" t="inlineStr"/>
@@ -2998,6 +3015,7 @@
       <c r="DR14" t="inlineStr"/>
       <c r="DS14" t="inlineStr"/>
       <c r="DT14" t="inlineStr"/>
+      <c r="DU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3012,14 +3030,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>113,6</t>
+          <t>114,2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18,60</t>
+          <t>19,20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -3147,47 +3165,48 @@
       <c r="DI15" t="inlineStr"/>
       <c r="DJ15" t="inlineStr"/>
       <c r="DK15" t="inlineStr"/>
-      <c r="DL15" t="inlineStr">
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM15" t="inlineStr">
+      <c r="DN15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN15" t="inlineStr">
+      <c r="DO15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO15" t="inlineStr">
+      <c r="DP15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP15" t="inlineStr">
+      <c r="DQ15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ15" t="inlineStr">
+      <c r="DR15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR15" t="inlineStr">
+      <c r="DS15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS15" t="inlineStr">
+      <c r="DT15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT15" t="inlineStr">
+      <c r="DU15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -3206,14 +3225,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>59,6</t>
+          <t>60,2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18,60</t>
+          <t>19,20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -3329,31 +3348,32 @@
       <c r="DI16" t="inlineStr"/>
       <c r="DJ16" t="inlineStr"/>
       <c r="DK16" t="inlineStr"/>
-      <c r="DL16" t="inlineStr">
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM16" t="inlineStr">
+      <c r="DN16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN16" t="inlineStr">
+      <c r="DO16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO16" t="inlineStr">
+      <c r="DP16" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr"/>
       <c r="DR16" t="inlineStr"/>
       <c r="DS16" t="inlineStr"/>
       <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3368,14 +3388,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31,6</t>
+          <t>32,2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18,60</t>
+          <t>19,20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -3520,6 +3540,7 @@
       <c r="DR17" t="inlineStr"/>
       <c r="DS17" t="inlineStr"/>
       <c r="DT17" t="inlineStr"/>
+      <c r="DU17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3653,31 +3674,32 @@
       <c r="DI18" t="inlineStr"/>
       <c r="DJ18" t="inlineStr"/>
       <c r="DK18" t="inlineStr"/>
-      <c r="DL18" t="inlineStr">
+      <c r="DL18" t="inlineStr"/>
+      <c r="DM18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM18" t="inlineStr">
+      <c r="DN18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN18" t="inlineStr">
+      <c r="DO18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO18" t="inlineStr">
+      <c r="DP18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr"/>
       <c r="DR18" t="inlineStr"/>
       <c r="DS18" t="inlineStr"/>
       <c r="DT18" t="inlineStr"/>
+      <c r="DU18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3820,6 +3842,7 @@
       <c r="DR19" t="inlineStr"/>
       <c r="DS19" t="inlineStr"/>
       <c r="DT19" t="inlineStr"/>
+      <c r="DU19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3958,6 +3981,7 @@
       <c r="DR20" t="inlineStr"/>
       <c r="DS20" t="inlineStr"/>
       <c r="DT20" t="inlineStr"/>
+      <c r="DU20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3972,14 +3996,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12,60</t>
+          <t>12,80</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -4104,6 +4128,7 @@
       <c r="DR21" t="inlineStr"/>
       <c r="DS21" t="inlineStr"/>
       <c r="DT21" t="inlineStr"/>
+      <c r="DU21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4118,14 +4143,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>18,8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12,60</t>
+          <t>12,80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -4254,6 +4279,7 @@
       <c r="DR22" t="inlineStr"/>
       <c r="DS22" t="inlineStr"/>
       <c r="DT22" t="inlineStr"/>
+      <c r="DU22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4268,14 +4294,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16,6</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12,60</t>
+          <t>12,80</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -4408,6 +4434,7 @@
       <c r="DR23" t="inlineStr"/>
       <c r="DS23" t="inlineStr"/>
       <c r="DT23" t="inlineStr"/>
+      <c r="DU23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4422,14 +4449,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>15,8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12,60</t>
+          <t>12,80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -4554,6 +4581,7 @@
       <c r="DR24" t="inlineStr"/>
       <c r="DS24" t="inlineStr"/>
       <c r="DT24" t="inlineStr"/>
+      <c r="DU24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4687,47 +4715,48 @@
       <c r="DI25" t="inlineStr"/>
       <c r="DJ25" t="inlineStr"/>
       <c r="DK25" t="inlineStr"/>
-      <c r="DL25" t="inlineStr">
+      <c r="DL25" t="inlineStr"/>
+      <c r="DM25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM25" t="inlineStr">
+      <c r="DN25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN25" t="inlineStr">
+      <c r="DO25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO25" t="inlineStr">
+      <c r="DP25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP25" t="inlineStr">
+      <c r="DQ25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ25" t="inlineStr">
+      <c r="DR25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR25" t="inlineStr">
+      <c r="DS25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS25" t="inlineStr">
+      <c r="DT25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT25" t="inlineStr">
+      <c r="DU25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -4869,31 +4898,32 @@
       <c r="DI26" t="inlineStr"/>
       <c r="DJ26" t="inlineStr"/>
       <c r="DK26" t="inlineStr"/>
-      <c r="DL26" t="inlineStr">
+      <c r="DL26" t="inlineStr"/>
+      <c r="DM26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM26" t="inlineStr">
+      <c r="DN26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN26" t="inlineStr">
+      <c r="DO26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO26" t="inlineStr">
+      <c r="DP26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP26" t="inlineStr"/>
       <c r="DQ26" t="inlineStr"/>
       <c r="DR26" t="inlineStr"/>
       <c r="DS26" t="inlineStr"/>
       <c r="DT26" t="inlineStr"/>
+      <c r="DU26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5036,6 +5066,7 @@
       <c r="DR27" t="inlineStr"/>
       <c r="DS27" t="inlineStr"/>
       <c r="DT27" t="inlineStr"/>
+      <c r="DU27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5178,6 +5209,7 @@
       <c r="DR28" t="inlineStr"/>
       <c r="DS28" t="inlineStr"/>
       <c r="DT28" t="inlineStr"/>
+      <c r="DU28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5320,6 +5352,7 @@
       <c r="DR29" t="inlineStr"/>
       <c r="DS29" t="inlineStr"/>
       <c r="DT29" t="inlineStr"/>
+      <c r="DU29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5470,6 +5503,7 @@
       <c r="DR30" t="inlineStr"/>
       <c r="DS30" t="inlineStr"/>
       <c r="DT30" t="inlineStr"/>
+      <c r="DU30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5616,6 +5650,7 @@
       <c r="DR31" t="inlineStr"/>
       <c r="DS31" t="inlineStr"/>
       <c r="DT31" t="inlineStr"/>
+      <c r="DU31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5774,6 +5809,7 @@
       <c r="DR32" t="inlineStr"/>
       <c r="DS32" t="inlineStr"/>
       <c r="DT32" t="inlineStr"/>
+      <c r="DU32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5924,6 +5960,7 @@
       <c r="DR33" t="inlineStr"/>
       <c r="DS33" t="inlineStr"/>
       <c r="DT33" t="inlineStr"/>
+      <c r="DU33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6094,6 +6131,7 @@
       <c r="DR34" t="inlineStr"/>
       <c r="DS34" t="inlineStr"/>
       <c r="DT34" t="inlineStr"/>
+      <c r="DU34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6252,6 +6290,7 @@
       <c r="DR35" t="inlineStr"/>
       <c r="DS35" t="inlineStr"/>
       <c r="DT35" t="inlineStr"/>
+      <c r="DU35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6402,6 +6441,7 @@
       <c r="DR36" t="inlineStr"/>
       <c r="DS36" t="inlineStr"/>
       <c r="DT36" t="inlineStr"/>
+      <c r="DU36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6556,6 +6596,7 @@
       <c r="DR37" t="inlineStr"/>
       <c r="DS37" t="inlineStr"/>
       <c r="DT37" t="inlineStr"/>
+      <c r="DU37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6714,6 +6755,7 @@
       <c r="DR38" t="inlineStr"/>
       <c r="DS38" t="inlineStr"/>
       <c r="DT38" t="inlineStr"/>
+      <c r="DU38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6876,6 +6918,7 @@
       <c r="DR39" t="inlineStr"/>
       <c r="DS39" t="inlineStr"/>
       <c r="DT39" t="inlineStr"/>
+      <c r="DU39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7030,6 +7073,7 @@
       <c r="DR40" t="inlineStr"/>
       <c r="DS40" t="inlineStr"/>
       <c r="DT40" t="inlineStr"/>
+      <c r="DU40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7176,6 +7220,7 @@
       <c r="DR41" t="inlineStr"/>
       <c r="DS41" t="inlineStr"/>
       <c r="DT41" t="inlineStr"/>
+      <c r="DU41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7322,6 +7367,7 @@
       <c r="DR42" t="inlineStr"/>
       <c r="DS42" t="inlineStr"/>
       <c r="DT42" t="inlineStr"/>
+      <c r="DU42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7468,6 +7514,7 @@
       <c r="DR43" t="inlineStr"/>
       <c r="DS43" t="inlineStr"/>
       <c r="DT43" t="inlineStr"/>
+      <c r="DU43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7610,6 +7657,7 @@
       <c r="DR44" t="inlineStr"/>
       <c r="DS44" t="inlineStr"/>
       <c r="DT44" t="inlineStr"/>
+      <c r="DU44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7776,6 +7824,7 @@
       <c r="DR45" t="inlineStr"/>
       <c r="DS45" t="inlineStr"/>
       <c r="DT45" t="inlineStr"/>
+      <c r="DU45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7926,6 +7975,7 @@
       <c r="DR46" t="inlineStr"/>
       <c r="DS46" t="inlineStr"/>
       <c r="DT46" t="inlineStr"/>
+      <c r="DU46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8072,6 +8122,7 @@
       <c r="DR47" t="inlineStr"/>
       <c r="DS47" t="inlineStr"/>
       <c r="DT47" t="inlineStr"/>
+      <c r="DU47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8214,6 +8265,7 @@
       <c r="DR48" t="inlineStr"/>
       <c r="DS48" t="inlineStr"/>
       <c r="DT48" t="inlineStr"/>
+      <c r="DU48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8360,6 +8412,7 @@
       <c r="DR49" t="inlineStr"/>
       <c r="DS49" t="inlineStr"/>
       <c r="DT49" t="inlineStr"/>
+      <c r="DU49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8502,6 +8555,7 @@
       <c r="DR50" t="inlineStr"/>
       <c r="DS50" t="inlineStr"/>
       <c r="DT50" t="inlineStr"/>
+      <c r="DU50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8648,6 +8702,7 @@
       <c r="DR51" t="inlineStr"/>
       <c r="DS51" t="inlineStr"/>
       <c r="DT51" t="inlineStr"/>
+      <c r="DU51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8790,6 +8845,7 @@
       <c r="DR52" t="inlineStr"/>
       <c r="DS52" t="inlineStr"/>
       <c r="DT52" t="inlineStr"/>
+      <c r="DU52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8928,6 +8984,7 @@
       <c r="DR53" t="inlineStr"/>
       <c r="DS53" t="inlineStr"/>
       <c r="DT53" t="inlineStr"/>
+      <c r="DU53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9086,6 +9143,7 @@
       <c r="DR54" t="inlineStr"/>
       <c r="DS54" t="inlineStr"/>
       <c r="DT54" t="inlineStr"/>
+      <c r="DU54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9228,6 +9286,7 @@
       <c r="DR55" t="inlineStr"/>
       <c r="DS55" t="inlineStr"/>
       <c r="DT55" t="inlineStr"/>
+      <c r="DU55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9374,26 +9433,27 @@
       <c r="DJ56" t="inlineStr"/>
       <c r="DK56" t="inlineStr"/>
       <c r="DL56" t="inlineStr"/>
-      <c r="DM56" t="inlineStr">
+      <c r="DM56" t="inlineStr"/>
+      <c r="DN56" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="DN56" t="inlineStr">
+      <c r="DO56" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO56" t="inlineStr">
+      <c r="DP56" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP56" t="inlineStr"/>
       <c r="DQ56" t="inlineStr"/>
       <c r="DR56" t="inlineStr"/>
       <c r="DS56" t="inlineStr"/>
       <c r="DT56" t="inlineStr"/>
+      <c r="DU56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9536,6 +9596,7 @@
       <c r="DR57" t="inlineStr"/>
       <c r="DS57" t="inlineStr"/>
       <c r="DT57" t="inlineStr"/>
+      <c r="DU57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9678,6 +9739,7 @@
       <c r="DR58" t="inlineStr"/>
       <c r="DS58" t="inlineStr"/>
       <c r="DT58" t="inlineStr"/>
+      <c r="DU58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9816,6 +9878,7 @@
       <c r="DR59" t="inlineStr"/>
       <c r="DS59" t="inlineStr"/>
       <c r="DT59" t="inlineStr"/>
+      <c r="DU59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9958,6 +10021,7 @@
       <c r="DR60" t="inlineStr"/>
       <c r="DS60" t="inlineStr"/>
       <c r="DT60" t="inlineStr"/>
+      <c r="DU60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10108,6 +10172,7 @@
       <c r="DR61" t="inlineStr"/>
       <c r="DS61" t="inlineStr"/>
       <c r="DT61" t="inlineStr"/>
+      <c r="DU61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10250,6 +10315,7 @@
       <c r="DR62" t="inlineStr"/>
       <c r="DS62" t="inlineStr"/>
       <c r="DT62" t="inlineStr"/>
+      <c r="DU62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10392,6 +10458,7 @@
       <c r="DR63" t="inlineStr"/>
       <c r="DS63" t="inlineStr"/>
       <c r="DT63" t="inlineStr"/>
+      <c r="DU63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10534,6 +10601,7 @@
       <c r="DR64" t="inlineStr"/>
       <c r="DS64" t="inlineStr"/>
       <c r="DT64" t="inlineStr"/>
+      <c r="DU64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10676,6 +10744,7 @@
       <c r="DR65" t="inlineStr"/>
       <c r="DS65" t="inlineStr"/>
       <c r="DT65" t="inlineStr"/>
+      <c r="DU65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10818,6 +10887,7 @@
       <c r="DR66" t="inlineStr"/>
       <c r="DS66" t="inlineStr"/>
       <c r="DT66" t="inlineStr"/>
+      <c r="DU66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10960,6 +11030,7 @@
       <c r="DR67" t="inlineStr"/>
       <c r="DS67" t="inlineStr"/>
       <c r="DT67" t="inlineStr"/>
+      <c r="DU67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11106,6 +11177,7 @@
       <c r="DR68" t="inlineStr"/>
       <c r="DS68" t="inlineStr"/>
       <c r="DT68" t="inlineStr"/>
+      <c r="DU68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11252,6 +11324,7 @@
       <c r="DR69" t="inlineStr"/>
       <c r="DS69" t="inlineStr"/>
       <c r="DT69" t="inlineStr"/>
+      <c r="DU69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11398,6 +11471,7 @@
       <c r="DR70" t="inlineStr"/>
       <c r="DS70" t="inlineStr"/>
       <c r="DT70" t="inlineStr"/>
+      <c r="DU70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11535,35 +11609,36 @@
       <c r="DI71" t="inlineStr"/>
       <c r="DJ71" t="inlineStr"/>
       <c r="DK71" t="inlineStr"/>
-      <c r="DL71" t="inlineStr">
+      <c r="DL71" t="inlineStr"/>
+      <c r="DM71" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM71" t="inlineStr">
+      <c r="DN71" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN71" t="inlineStr">
+      <c r="DO71" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO71" t="inlineStr">
+      <c r="DP71" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP71" t="inlineStr">
+      <c r="DQ71" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ71" t="inlineStr"/>
       <c r="DR71" t="inlineStr"/>
       <c r="DS71" t="inlineStr"/>
       <c r="DT71" t="inlineStr"/>
+      <c r="DU71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11714,6 +11789,7 @@
       <c r="DR72" t="inlineStr"/>
       <c r="DS72" t="inlineStr"/>
       <c r="DT72" t="inlineStr"/>
+      <c r="DU72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11860,6 +11936,7 @@
       <c r="DR73" t="inlineStr"/>
       <c r="DS73" t="inlineStr"/>
       <c r="DT73" t="inlineStr"/>
+      <c r="DU73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12002,6 +12079,7 @@
       <c r="DR74" t="inlineStr"/>
       <c r="DS74" t="inlineStr"/>
       <c r="DT74" t="inlineStr"/>
+      <c r="DU74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12213,12 +12291,12 @@
         </is>
       </c>
       <c r="DI75" t="inlineStr"/>
-      <c r="DJ75" t="inlineStr">
+      <c r="DJ75" t="inlineStr"/>
+      <c r="DK75" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK75" t="inlineStr"/>
       <c r="DL75" t="inlineStr"/>
       <c r="DM75" t="inlineStr"/>
       <c r="DN75" t="inlineStr"/>
@@ -12228,6 +12306,7 @@
       <c r="DR75" t="inlineStr"/>
       <c r="DS75" t="inlineStr"/>
       <c r="DT75" t="inlineStr"/>
+      <c r="DU75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12418,6 +12497,7 @@
       <c r="DR76" t="inlineStr"/>
       <c r="DS76" t="inlineStr"/>
       <c r="DT76" t="inlineStr"/>
+      <c r="DU76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12629,12 +12709,12 @@
       <c r="DG77" t="inlineStr"/>
       <c r="DH77" t="inlineStr"/>
       <c r="DI77" t="inlineStr"/>
-      <c r="DJ77" t="inlineStr">
+      <c r="DJ77" t="inlineStr"/>
+      <c r="DK77" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK77" t="inlineStr"/>
       <c r="DL77" t="inlineStr"/>
       <c r="DM77" t="inlineStr"/>
       <c r="DN77" t="inlineStr"/>
@@ -12644,6 +12724,7 @@
       <c r="DR77" t="inlineStr"/>
       <c r="DS77" t="inlineStr"/>
       <c r="DT77" t="inlineStr"/>
+      <c r="DU77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12786,6 +12867,7 @@
       <c r="DR78" t="inlineStr"/>
       <c r="DS78" t="inlineStr"/>
       <c r="DT78" t="inlineStr"/>
+      <c r="DU78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12964,6 +13046,7 @@
       <c r="DR79" t="inlineStr"/>
       <c r="DS79" t="inlineStr"/>
       <c r="DT79" t="inlineStr"/>
+      <c r="DU79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13106,6 +13189,7 @@
       <c r="DR80" t="inlineStr"/>
       <c r="DS80" t="inlineStr"/>
       <c r="DT80" t="inlineStr"/>
+      <c r="DU80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13296,6 +13380,7 @@
       <c r="DR81" t="inlineStr"/>
       <c r="DS81" t="inlineStr"/>
       <c r="DT81" t="inlineStr"/>
+      <c r="DU81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13434,6 +13519,7 @@
       <c r="DR82" t="inlineStr"/>
       <c r="DS82" t="inlineStr"/>
       <c r="DT82" t="inlineStr"/>
+      <c r="DU82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13573,17 +13659,18 @@
       <c r="DK83" t="inlineStr"/>
       <c r="DL83" t="inlineStr"/>
       <c r="DM83" t="inlineStr"/>
-      <c r="DN83" t="inlineStr">
+      <c r="DN83" t="inlineStr"/>
+      <c r="DO83" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="DO83" t="inlineStr"/>
       <c r="DP83" t="inlineStr"/>
       <c r="DQ83" t="inlineStr"/>
       <c r="DR83" t="inlineStr"/>
       <c r="DS83" t="inlineStr"/>
       <c r="DT83" t="inlineStr"/>
+      <c r="DU83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13729,47 +13816,48 @@
       <c r="DI84" t="inlineStr"/>
       <c r="DJ84" t="inlineStr"/>
       <c r="DK84" t="inlineStr"/>
-      <c r="DL84" t="inlineStr">
+      <c r="DL84" t="inlineStr"/>
+      <c r="DM84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM84" t="inlineStr">
+      <c r="DN84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN84" t="inlineStr">
+      <c r="DO84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO84" t="inlineStr">
+      <c r="DP84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP84" t="inlineStr">
+      <c r="DQ84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ84" t="inlineStr">
+      <c r="DR84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR84" t="inlineStr">
+      <c r="DS84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS84" t="inlineStr">
+      <c r="DT84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT84" t="inlineStr">
+      <c r="DU84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -13924,6 +14012,7 @@
       <c r="DR85" t="inlineStr"/>
       <c r="DS85" t="inlineStr"/>
       <c r="DT85" t="inlineStr"/>
+      <c r="DU85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14070,6 +14159,7 @@
       <c r="DR86" t="inlineStr"/>
       <c r="DS86" t="inlineStr"/>
       <c r="DT86" t="inlineStr"/>
+      <c r="DU86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14212,6 +14302,7 @@
       <c r="DR87" t="inlineStr"/>
       <c r="DS87" t="inlineStr"/>
       <c r="DT87" t="inlineStr"/>
+      <c r="DU87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -14354,6 +14445,7 @@
       <c r="DR88" t="inlineStr"/>
       <c r="DS88" t="inlineStr"/>
       <c r="DT88" t="inlineStr"/>
+      <c r="DU88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14496,6 +14588,7 @@
       <c r="DR89" t="inlineStr"/>
       <c r="DS89" t="inlineStr"/>
       <c r="DT89" t="inlineStr"/>
+      <c r="DU89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -14650,6 +14743,7 @@
       <c r="DR90" t="inlineStr"/>
       <c r="DS90" t="inlineStr"/>
       <c r="DT90" t="inlineStr"/>
+      <c r="DU90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14792,6 +14886,7 @@
       <c r="DR91" t="inlineStr"/>
       <c r="DS91" t="inlineStr"/>
       <c r="DT91" t="inlineStr"/>
+      <c r="DU91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14934,6 +15029,7 @@
       <c r="DR92" t="inlineStr"/>
       <c r="DS92" t="inlineStr"/>
       <c r="DT92" t="inlineStr"/>
+      <c r="DU92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15080,6 +15176,7 @@
       <c r="DR93" t="inlineStr"/>
       <c r="DS93" t="inlineStr"/>
       <c r="DT93" t="inlineStr"/>
+      <c r="DU93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15242,22 +15339,23 @@
       <c r="DJ94" t="inlineStr"/>
       <c r="DK94" t="inlineStr"/>
       <c r="DL94" t="inlineStr"/>
-      <c r="DM94" t="inlineStr">
+      <c r="DM94" t="inlineStr"/>
+      <c r="DN94" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="DN94" t="inlineStr">
+      <c r="DO94" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO94" t="inlineStr"/>
       <c r="DP94" t="inlineStr"/>
       <c r="DQ94" t="inlineStr"/>
       <c r="DR94" t="inlineStr"/>
       <c r="DS94" t="inlineStr"/>
       <c r="DT94" t="inlineStr"/>
+      <c r="DU94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15400,6 +15498,7 @@
       <c r="DR95" t="inlineStr"/>
       <c r="DS95" t="inlineStr"/>
       <c r="DT95" t="inlineStr"/>
+      <c r="DU95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15538,6 +15637,7 @@
       <c r="DR96" t="inlineStr"/>
       <c r="DS96" t="inlineStr"/>
       <c r="DT96" t="inlineStr"/>
+      <c r="DU96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15678,12 +15778,13 @@
       <c r="DP97" t="inlineStr"/>
       <c r="DQ97" t="inlineStr"/>
       <c r="DR97" t="inlineStr"/>
-      <c r="DS97" t="inlineStr">
+      <c r="DS97" t="inlineStr"/>
+      <c r="DT97" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT97" t="inlineStr">
+      <c r="DU97" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -15830,6 +15931,7 @@
       <c r="DR98" t="inlineStr"/>
       <c r="DS98" t="inlineStr"/>
       <c r="DT98" t="inlineStr"/>
+      <c r="DU98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15963,23 +16065,24 @@
       <c r="DI99" t="inlineStr"/>
       <c r="DJ99" t="inlineStr"/>
       <c r="DK99" t="inlineStr"/>
-      <c r="DL99" t="inlineStr">
+      <c r="DL99" t="inlineStr"/>
+      <c r="DM99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM99" t="inlineStr">
+      <c r="DN99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN99" t="inlineStr"/>
       <c r="DO99" t="inlineStr"/>
       <c r="DP99" t="inlineStr"/>
       <c r="DQ99" t="inlineStr"/>
       <c r="DR99" t="inlineStr"/>
       <c r="DS99" t="inlineStr"/>
       <c r="DT99" t="inlineStr"/>
+      <c r="DU99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -16125,47 +16228,48 @@
       <c r="DI100" t="inlineStr"/>
       <c r="DJ100" t="inlineStr"/>
       <c r="DK100" t="inlineStr"/>
-      <c r="DL100" t="inlineStr">
+      <c r="DL100" t="inlineStr"/>
+      <c r="DM100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM100" t="inlineStr">
+      <c r="DN100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN100" t="inlineStr">
+      <c r="DO100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO100" t="inlineStr">
+      <c r="DP100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP100" t="inlineStr">
+      <c r="DQ100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ100" t="inlineStr">
+      <c r="DR100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR100" t="inlineStr">
+      <c r="DS100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS100" t="inlineStr">
+      <c r="DT100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT100" t="inlineStr">
+      <c r="DU100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -16316,18 +16420,19 @@
       <c r="DN101" t="inlineStr"/>
       <c r="DO101" t="inlineStr"/>
       <c r="DP101" t="inlineStr"/>
-      <c r="DQ101" t="inlineStr">
+      <c r="DQ101" t="inlineStr"/>
+      <c r="DR101" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="DR101" t="inlineStr">
+      <c r="DS101" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DS101" t="inlineStr"/>
       <c r="DT101" t="inlineStr"/>
+      <c r="DU101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -16478,6 +16583,7 @@
       <c r="DR102" t="inlineStr"/>
       <c r="DS102" t="inlineStr"/>
       <c r="DT102" t="inlineStr"/>
+      <c r="DU102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16640,6 +16746,7 @@
       <c r="DR103" t="inlineStr"/>
       <c r="DS103" t="inlineStr"/>
       <c r="DT103" t="inlineStr"/>
+      <c r="DU103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16802,6 +16909,7 @@
       <c r="DR104" t="inlineStr"/>
       <c r="DS104" t="inlineStr"/>
       <c r="DT104" t="inlineStr"/>
+      <c r="DU104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16944,6 +17052,7 @@
       <c r="DR105" t="inlineStr"/>
       <c r="DS105" t="inlineStr"/>
       <c r="DT105" t="inlineStr"/>
+      <c r="DU105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -17086,6 +17195,7 @@
       <c r="DR106" t="inlineStr"/>
       <c r="DS106" t="inlineStr"/>
       <c r="DT106" t="inlineStr"/>
+      <c r="DU106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -17228,6 +17338,7 @@
       <c r="DR107" t="inlineStr"/>
       <c r="DS107" t="inlineStr"/>
       <c r="DT107" t="inlineStr"/>
+      <c r="DU107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -17370,6 +17481,7 @@
       <c r="DR108" t="inlineStr"/>
       <c r="DS108" t="inlineStr"/>
       <c r="DT108" t="inlineStr"/>
+      <c r="DU108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -17516,6 +17628,7 @@
       <c r="DR109" t="inlineStr"/>
       <c r="DS109" t="inlineStr"/>
       <c r="DT109" t="inlineStr"/>
+      <c r="DU109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -17774,6 +17887,7 @@
       <c r="DR110" t="inlineStr"/>
       <c r="DS110" t="inlineStr"/>
       <c r="DT110" t="inlineStr"/>
+      <c r="DU110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17917,17 +18031,18 @@
       <c r="DK111" t="inlineStr"/>
       <c r="DL111" t="inlineStr"/>
       <c r="DM111" t="inlineStr"/>
-      <c r="DN111" t="inlineStr">
+      <c r="DN111" t="inlineStr"/>
+      <c r="DO111" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DO111" t="inlineStr"/>
       <c r="DP111" t="inlineStr"/>
       <c r="DQ111" t="inlineStr"/>
       <c r="DR111" t="inlineStr"/>
       <c r="DS111" t="inlineStr"/>
       <c r="DT111" t="inlineStr"/>
+      <c r="DU111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -18098,6 +18213,7 @@
       <c r="DR112" t="inlineStr"/>
       <c r="DS112" t="inlineStr"/>
       <c r="DT112" t="inlineStr"/>
+      <c r="DU112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -18256,6 +18372,7 @@
       <c r="DR113" t="inlineStr"/>
       <c r="DS113" t="inlineStr"/>
       <c r="DT113" t="inlineStr"/>
+      <c r="DU113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -18402,6 +18519,7 @@
       <c r="DR114" t="inlineStr"/>
       <c r="DS114" t="inlineStr"/>
       <c r="DT114" t="inlineStr"/>
+      <c r="DU114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -18548,6 +18666,7 @@
       <c r="DR115" t="inlineStr"/>
       <c r="DS115" t="inlineStr"/>
       <c r="DT115" t="inlineStr"/>
+      <c r="DU115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -18686,6 +18805,7 @@
       <c r="DR116" t="inlineStr"/>
       <c r="DS116" t="inlineStr"/>
       <c r="DT116" t="inlineStr"/>
+      <c r="DU116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -18824,6 +18944,7 @@
       <c r="DR117" t="inlineStr"/>
       <c r="DS117" t="inlineStr"/>
       <c r="DT117" t="inlineStr"/>
+      <c r="DU117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18966,6 +19087,7 @@
       <c r="DR118" t="inlineStr"/>
       <c r="DS118" t="inlineStr"/>
       <c r="DT118" t="inlineStr"/>
+      <c r="DU118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -19132,6 +19254,7 @@
       <c r="DR119" t="inlineStr"/>
       <c r="DS119" t="inlineStr"/>
       <c r="DT119" t="inlineStr"/>
+      <c r="DU119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -19286,6 +19409,7 @@
       <c r="DR120" t="inlineStr"/>
       <c r="DS120" t="inlineStr"/>
       <c r="DT120" t="inlineStr"/>
+      <c r="DU120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -19452,6 +19576,7 @@
       <c r="DR121" t="inlineStr"/>
       <c r="DS121" t="inlineStr"/>
       <c r="DT121" t="inlineStr"/>
+      <c r="DU121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -19610,6 +19735,7 @@
       <c r="DR122" t="inlineStr"/>
       <c r="DS122" t="inlineStr"/>
       <c r="DT122" t="inlineStr"/>
+      <c r="DU122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -19792,6 +19918,7 @@
       <c r="DR123" t="inlineStr"/>
       <c r="DS123" t="inlineStr"/>
       <c r="DT123" t="inlineStr"/>
+      <c r="DU123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -19938,6 +20065,7 @@
       <c r="DR124" t="inlineStr"/>
       <c r="DS124" t="inlineStr"/>
       <c r="DT124" t="inlineStr"/>
+      <c r="DU124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -20075,47 +20203,48 @@
       <c r="DI125" t="inlineStr"/>
       <c r="DJ125" t="inlineStr"/>
       <c r="DK125" t="inlineStr"/>
-      <c r="DL125" t="inlineStr">
+      <c r="DL125" t="inlineStr"/>
+      <c r="DM125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM125" t="inlineStr">
+      <c r="DN125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN125" t="inlineStr">
+      <c r="DO125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO125" t="inlineStr">
+      <c r="DP125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP125" t="inlineStr">
+      <c r="DQ125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ125" t="inlineStr">
+      <c r="DR125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR125" t="inlineStr">
+      <c r="DS125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS125" t="inlineStr">
+      <c r="DT125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT125" t="inlineStr">
+      <c r="DU125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -20274,6 +20403,7 @@
       <c r="DR126" t="inlineStr"/>
       <c r="DS126" t="inlineStr"/>
       <c r="DT126" t="inlineStr"/>
+      <c r="DU126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -20416,6 +20546,7 @@
       <c r="DR127" t="inlineStr"/>
       <c r="DS127" t="inlineStr"/>
       <c r="DT127" t="inlineStr"/>
+      <c r="DU127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -20558,6 +20689,7 @@
       <c r="DR128" t="inlineStr"/>
       <c r="DS128" t="inlineStr"/>
       <c r="DT128" t="inlineStr"/>
+      <c r="DU128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -20704,6 +20836,7 @@
       <c r="DR129" t="inlineStr"/>
       <c r="DS129" t="inlineStr"/>
       <c r="DT129" t="inlineStr"/>
+      <c r="DU129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -20841,35 +20974,36 @@
       <c r="DI130" t="inlineStr"/>
       <c r="DJ130" t="inlineStr"/>
       <c r="DK130" t="inlineStr"/>
-      <c r="DL130" t="inlineStr">
+      <c r="DL130" t="inlineStr"/>
+      <c r="DM130" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM130" t="inlineStr">
+      <c r="DN130" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN130" t="inlineStr">
+      <c r="DO130" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO130" t="inlineStr">
+      <c r="DP130" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP130" t="inlineStr">
+      <c r="DQ130" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ130" t="inlineStr"/>
       <c r="DR130" t="inlineStr"/>
       <c r="DS130" t="inlineStr"/>
       <c r="DT130" t="inlineStr"/>
+      <c r="DU130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -21012,6 +21146,7 @@
       <c r="DR131" t="inlineStr"/>
       <c r="DS131" t="inlineStr"/>
       <c r="DT131" t="inlineStr"/>
+      <c r="DU131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -21154,6 +21289,7 @@
       <c r="DR132" t="inlineStr"/>
       <c r="DS132" t="inlineStr"/>
       <c r="DT132" t="inlineStr"/>
+      <c r="DU132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -21304,6 +21440,7 @@
       <c r="DR133" t="inlineStr"/>
       <c r="DS133" t="inlineStr"/>
       <c r="DT133" t="inlineStr"/>
+      <c r="DU133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -21446,6 +21583,7 @@
       <c r="DR134" t="inlineStr"/>
       <c r="DS134" t="inlineStr"/>
       <c r="DT134" t="inlineStr"/>
+      <c r="DU134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21588,6 +21726,7 @@
       <c r="DR135" t="inlineStr"/>
       <c r="DS135" t="inlineStr"/>
       <c r="DT135" t="inlineStr"/>
+      <c r="DU135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -21730,6 +21869,7 @@
       <c r="DR136" t="inlineStr"/>
       <c r="DS136" t="inlineStr"/>
       <c r="DT136" t="inlineStr"/>
+      <c r="DU136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -21876,6 +22016,7 @@
       <c r="DR137" t="inlineStr"/>
       <c r="DS137" t="inlineStr"/>
       <c r="DT137" t="inlineStr"/>
+      <c r="DU137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -22074,6 +22215,7 @@
       <c r="DR138" t="inlineStr"/>
       <c r="DS138" t="inlineStr"/>
       <c r="DT138" t="inlineStr"/>
+      <c r="DU138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -22216,6 +22358,7 @@
       <c r="DR139" t="inlineStr"/>
       <c r="DS139" t="inlineStr"/>
       <c r="DT139" t="inlineStr"/>
+      <c r="DU139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -22365,47 +22508,48 @@
       <c r="DI140" t="inlineStr"/>
       <c r="DJ140" t="inlineStr"/>
       <c r="DK140" t="inlineStr"/>
-      <c r="DL140" t="inlineStr">
+      <c r="DL140" t="inlineStr"/>
+      <c r="DM140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM140" t="inlineStr">
+      <c r="DN140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN140" t="inlineStr">
+      <c r="DO140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO140" t="inlineStr">
+      <c r="DP140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP140" t="inlineStr">
+      <c r="DQ140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ140" t="inlineStr">
+      <c r="DR140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR140" t="inlineStr">
+      <c r="DS140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS140" t="inlineStr">
+      <c r="DT140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT140" t="inlineStr">
+      <c r="DU140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -22552,6 +22696,7 @@
       <c r="DR141" t="inlineStr"/>
       <c r="DS141" t="inlineStr"/>
       <c r="DT141" t="inlineStr"/>
+      <c r="DU141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -22694,6 +22839,7 @@
       <c r="DR142" t="inlineStr"/>
       <c r="DS142" t="inlineStr"/>
       <c r="DT142" t="inlineStr"/>
+      <c r="DU142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -22832,6 +22978,7 @@
       <c r="DR143" t="inlineStr"/>
       <c r="DS143" t="inlineStr"/>
       <c r="DT143" t="inlineStr"/>
+      <c r="DU143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -23006,6 +23153,7 @@
       <c r="DR144" t="inlineStr"/>
       <c r="DS144" t="inlineStr"/>
       <c r="DT144" t="inlineStr"/>
+      <c r="DU144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -23145,33 +23293,34 @@
       <c r="DG145" t="inlineStr"/>
       <c r="DH145" t="inlineStr"/>
       <c r="DI145" t="inlineStr"/>
-      <c r="DJ145" t="inlineStr">
+      <c r="DJ145" t="inlineStr"/>
+      <c r="DK145" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK145" t="inlineStr"/>
       <c r="DL145" t="inlineStr"/>
       <c r="DM145" t="inlineStr"/>
       <c r="DN145" t="inlineStr"/>
       <c r="DO145" t="inlineStr"/>
       <c r="DP145" t="inlineStr"/>
-      <c r="DQ145" t="inlineStr">
+      <c r="DQ145" t="inlineStr"/>
+      <c r="DR145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR145" t="inlineStr">
+      <c r="DS145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS145" t="inlineStr">
+      <c r="DT145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT145" t="inlineStr">
+      <c r="DU145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -23326,6 +23475,7 @@
       <c r="DR146" t="inlineStr"/>
       <c r="DS146" t="inlineStr"/>
       <c r="DT146" t="inlineStr"/>
+      <c r="DU146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -23468,6 +23618,7 @@
       <c r="DR147" t="inlineStr"/>
       <c r="DS147" t="inlineStr"/>
       <c r="DT147" t="inlineStr"/>
+      <c r="DU147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -23610,6 +23761,7 @@
       <c r="DR148" t="inlineStr"/>
       <c r="DS148" t="inlineStr"/>
       <c r="DT148" t="inlineStr"/>
+      <c r="DU148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -23773,12 +23925,12 @@
       <c r="DG149" t="inlineStr"/>
       <c r="DH149" t="inlineStr"/>
       <c r="DI149" t="inlineStr"/>
-      <c r="DJ149" t="inlineStr">
+      <c r="DJ149" t="inlineStr"/>
+      <c r="DK149" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK149" t="inlineStr"/>
       <c r="DL149" t="inlineStr"/>
       <c r="DM149" t="inlineStr"/>
       <c r="DN149" t="inlineStr"/>
@@ -23788,6 +23940,7 @@
       <c r="DR149" t="inlineStr"/>
       <c r="DS149" t="inlineStr"/>
       <c r="DT149" t="inlineStr"/>
+      <c r="DU149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -23938,6 +24091,7 @@
       <c r="DR150" t="inlineStr"/>
       <c r="DS150" t="inlineStr"/>
       <c r="DT150" t="inlineStr"/>
+      <c r="DU150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -24080,6 +24234,7 @@
       <c r="DR151" t="inlineStr"/>
       <c r="DS151" t="inlineStr"/>
       <c r="DT151" t="inlineStr"/>
+      <c r="DU151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -24222,6 +24377,7 @@
       <c r="DR152" t="inlineStr"/>
       <c r="DS152" t="inlineStr"/>
       <c r="DT152" t="inlineStr"/>
+      <c r="DU152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -24368,6 +24524,7 @@
       <c r="DR153" t="inlineStr"/>
       <c r="DS153" t="inlineStr"/>
       <c r="DT153" t="inlineStr"/>
+      <c r="DU153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -24510,6 +24667,7 @@
       <c r="DR154" t="inlineStr"/>
       <c r="DS154" t="inlineStr"/>
       <c r="DT154" t="inlineStr"/>
+      <c r="DU154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -24656,6 +24814,7 @@
       <c r="DR155" t="inlineStr"/>
       <c r="DS155" t="inlineStr"/>
       <c r="DT155" t="inlineStr"/>
+      <c r="DU155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -24798,6 +24957,7 @@
       <c r="DR156" t="inlineStr"/>
       <c r="DS156" t="inlineStr"/>
       <c r="DT156" t="inlineStr"/>
+      <c r="DU156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -24940,6 +25100,7 @@
       <c r="DR157" t="inlineStr"/>
       <c r="DS157" t="inlineStr"/>
       <c r="DT157" t="inlineStr"/>
+      <c r="DU157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -25082,6 +25243,7 @@
       <c r="DR158" t="inlineStr"/>
       <c r="DS158" t="inlineStr"/>
       <c r="DT158" t="inlineStr"/>
+      <c r="DU158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -25224,6 +25386,7 @@
       <c r="DR159" t="inlineStr"/>
       <c r="DS159" t="inlineStr"/>
       <c r="DT159" t="inlineStr"/>
+      <c r="DU159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -25366,6 +25529,7 @@
       <c r="DR160" t="inlineStr"/>
       <c r="DS160" t="inlineStr"/>
       <c r="DT160" t="inlineStr"/>
+      <c r="DU160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -25508,6 +25672,7 @@
       <c r="DR161" t="inlineStr"/>
       <c r="DS161" t="inlineStr"/>
       <c r="DT161" t="inlineStr"/>
+      <c r="DU161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -25646,6 +25811,7 @@
       <c r="DR162" t="inlineStr"/>
       <c r="DS162" t="inlineStr"/>
       <c r="DT162" t="inlineStr"/>
+      <c r="DU162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -25788,6 +25954,7 @@
       <c r="DR163" t="inlineStr"/>
       <c r="DS163" t="inlineStr"/>
       <c r="DT163" t="inlineStr"/>
+      <c r="DU163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -25930,6 +26097,7 @@
       <c r="DR164" t="inlineStr"/>
       <c r="DS164" t="inlineStr"/>
       <c r="DT164" t="inlineStr"/>
+      <c r="DU164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -26068,6 +26236,7 @@
       <c r="DR165" t="inlineStr"/>
       <c r="DS165" t="inlineStr"/>
       <c r="DT165" t="inlineStr"/>
+      <c r="DU165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -26206,6 +26375,7 @@
       <c r="DR166" t="inlineStr"/>
       <c r="DS166" t="inlineStr"/>
       <c r="DT166" t="inlineStr"/>
+      <c r="DU166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -26448,6 +26618,7 @@
       <c r="DR167" t="inlineStr"/>
       <c r="DS167" t="inlineStr"/>
       <c r="DT167" t="inlineStr"/>
+      <c r="DU167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -26594,6 +26765,7 @@
       <c r="DR168" t="inlineStr"/>
       <c r="DS168" t="inlineStr"/>
       <c r="DT168" t="inlineStr"/>
+      <c r="DU168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -26732,6 +26904,7 @@
       <c r="DR169" t="inlineStr"/>
       <c r="DS169" t="inlineStr"/>
       <c r="DT169" t="inlineStr"/>
+      <c r="DU169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -26950,6 +27123,7 @@
       <c r="DR170" t="inlineStr"/>
       <c r="DS170" t="inlineStr"/>
       <c r="DT170" t="inlineStr"/>
+      <c r="DU170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -27086,12 +27260,12 @@
       <c r="DH171" t="inlineStr"/>
       <c r="DI171" t="inlineStr"/>
       <c r="DJ171" t="inlineStr"/>
-      <c r="DK171" t="inlineStr">
+      <c r="DK171" t="inlineStr"/>
+      <c r="DL171" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DL171" t="inlineStr"/>
       <c r="DM171" t="inlineStr"/>
       <c r="DN171" t="inlineStr"/>
       <c r="DO171" t="inlineStr"/>
@@ -27100,6 +27274,7 @@
       <c r="DR171" t="inlineStr"/>
       <c r="DS171" t="inlineStr"/>
       <c r="DT171" t="inlineStr"/>
+      <c r="DU171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -27236,12 +27411,12 @@
       <c r="DH172" t="inlineStr"/>
       <c r="DI172" t="inlineStr"/>
       <c r="DJ172" t="inlineStr"/>
-      <c r="DK172" t="inlineStr">
+      <c r="DK172" t="inlineStr"/>
+      <c r="DL172" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DL172" t="inlineStr"/>
       <c r="DM172" t="inlineStr"/>
       <c r="DN172" t="inlineStr"/>
       <c r="DO172" t="inlineStr"/>
@@ -27250,6 +27425,7 @@
       <c r="DR172" t="inlineStr"/>
       <c r="DS172" t="inlineStr"/>
       <c r="DT172" t="inlineStr"/>
+      <c r="DU172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -27405,12 +27581,12 @@
       </c>
       <c r="DH173" t="inlineStr"/>
       <c r="DI173" t="inlineStr"/>
-      <c r="DJ173" t="inlineStr">
+      <c r="DJ173" t="inlineStr"/>
+      <c r="DK173" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK173" t="inlineStr"/>
       <c r="DL173" t="inlineStr"/>
       <c r="DM173" t="inlineStr"/>
       <c r="DN173" t="inlineStr"/>
@@ -27420,6 +27596,7 @@
       <c r="DR173" t="inlineStr"/>
       <c r="DS173" t="inlineStr"/>
       <c r="DT173" t="inlineStr"/>
+      <c r="DU173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -27552,12 +27729,12 @@
       <c r="DH174" t="inlineStr"/>
       <c r="DI174" t="inlineStr"/>
       <c r="DJ174" t="inlineStr"/>
-      <c r="DK174" t="inlineStr">
+      <c r="DK174" t="inlineStr"/>
+      <c r="DL174" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="DL174" t="inlineStr"/>
       <c r="DM174" t="inlineStr"/>
       <c r="DN174" t="inlineStr"/>
       <c r="DO174" t="inlineStr"/>
@@ -27566,6 +27743,7 @@
       <c r="DR174" t="inlineStr"/>
       <c r="DS174" t="inlineStr"/>
       <c r="DT174" t="inlineStr"/>
+      <c r="DU174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -27713,12 +27891,12 @@
       <c r="DG175" t="inlineStr"/>
       <c r="DH175" t="inlineStr"/>
       <c r="DI175" t="inlineStr"/>
-      <c r="DJ175" t="inlineStr">
+      <c r="DJ175" t="inlineStr"/>
+      <c r="DK175" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK175" t="inlineStr"/>
       <c r="DL175" t="inlineStr"/>
       <c r="DM175" t="inlineStr"/>
       <c r="DN175" t="inlineStr"/>
@@ -27728,6 +27906,7 @@
       <c r="DR175" t="inlineStr"/>
       <c r="DS175" t="inlineStr"/>
       <c r="DT175" t="inlineStr"/>
+      <c r="DU175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -27874,6 +28053,7 @@
       <c r="DR176" t="inlineStr"/>
       <c r="DS176" t="inlineStr"/>
       <c r="DT176" t="inlineStr"/>
+      <c r="DU176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -28040,6 +28220,7 @@
       <c r="DR177" t="inlineStr"/>
       <c r="DS177" t="inlineStr"/>
       <c r="DT177" t="inlineStr"/>
+      <c r="DU177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -28182,6 +28363,7 @@
       <c r="DR178" t="inlineStr"/>
       <c r="DS178" t="inlineStr"/>
       <c r="DT178" t="inlineStr"/>
+      <c r="DU178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -28336,6 +28518,7 @@
       <c r="DR179" t="inlineStr"/>
       <c r="DS179" t="inlineStr"/>
       <c r="DT179" t="inlineStr"/>
+      <c r="DU179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -28486,6 +28669,7 @@
       <c r="DR180" t="inlineStr"/>
       <c r="DS180" t="inlineStr"/>
       <c r="DT180" t="inlineStr"/>
+      <c r="DU180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -28640,6 +28824,7 @@
       <c r="DR181" t="inlineStr"/>
       <c r="DS181" t="inlineStr"/>
       <c r="DT181" t="inlineStr"/>
+      <c r="DU181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -28780,12 +28965,12 @@
       <c r="DH182" t="inlineStr"/>
       <c r="DI182" t="inlineStr"/>
       <c r="DJ182" t="inlineStr"/>
-      <c r="DK182" t="inlineStr">
+      <c r="DK182" t="inlineStr"/>
+      <c r="DL182" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="DL182" t="inlineStr"/>
       <c r="DM182" t="inlineStr"/>
       <c r="DN182" t="inlineStr"/>
       <c r="DO182" t="inlineStr"/>
@@ -28794,6 +28979,7 @@
       <c r="DR182" t="inlineStr"/>
       <c r="DS182" t="inlineStr"/>
       <c r="DT182" t="inlineStr"/>
+      <c r="DU182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -28932,6 +29118,7 @@
       <c r="DR183" t="inlineStr"/>
       <c r="DS183" t="inlineStr"/>
       <c r="DT183" t="inlineStr"/>
+      <c r="DU183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -29082,6 +29269,7 @@
       <c r="DR184" t="inlineStr"/>
       <c r="DS184" t="inlineStr"/>
       <c r="DT184" t="inlineStr"/>
+      <c r="DU184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -29228,6 +29416,7 @@
       <c r="DR185" t="inlineStr"/>
       <c r="DS185" t="inlineStr"/>
       <c r="DT185" t="inlineStr"/>
+      <c r="DU185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -29378,6 +29567,7 @@
       <c r="DR186" t="inlineStr"/>
       <c r="DS186" t="inlineStr"/>
       <c r="DT186" t="inlineStr"/>
+      <c r="DU186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -29532,6 +29722,7 @@
       <c r="DR187" t="inlineStr"/>
       <c r="DS187" t="inlineStr"/>
       <c r="DT187" t="inlineStr"/>
+      <c r="DU187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -29674,6 +29865,7 @@
       <c r="DR188" t="inlineStr"/>
       <c r="DS188" t="inlineStr"/>
       <c r="DT188" t="inlineStr"/>
+      <c r="DU188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -29816,6 +30008,7 @@
       <c r="DR189" t="inlineStr"/>
       <c r="DS189" t="inlineStr"/>
       <c r="DT189" t="inlineStr"/>
+      <c r="DU189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -29958,6 +30151,7 @@
       <c r="DR190" t="inlineStr"/>
       <c r="DS190" t="inlineStr"/>
       <c r="DT190" t="inlineStr"/>
+      <c r="DU190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -30104,6 +30298,7 @@
       <c r="DR191" t="inlineStr"/>
       <c r="DS191" t="inlineStr"/>
       <c r="DT191" t="inlineStr"/>
+      <c r="DU191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -30258,6 +30453,7 @@
       <c r="DR192" t="inlineStr"/>
       <c r="DS192" t="inlineStr"/>
       <c r="DT192" t="inlineStr"/>
+      <c r="DU192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -30400,6 +30596,7 @@
       <c r="DR193" t="inlineStr"/>
       <c r="DS193" t="inlineStr"/>
       <c r="DT193" t="inlineStr"/>
+      <c r="DU193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -30570,6 +30767,7 @@
       <c r="DR194" t="inlineStr"/>
       <c r="DS194" t="inlineStr"/>
       <c r="DT194" t="inlineStr"/>
+      <c r="DU194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -30720,6 +30918,7 @@
       <c r="DR195" t="inlineStr"/>
       <c r="DS195" t="inlineStr"/>
       <c r="DT195" t="inlineStr"/>
+      <c r="DU195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -30886,6 +31085,7 @@
       <c r="DR196" t="inlineStr"/>
       <c r="DS196" t="inlineStr"/>
       <c r="DT196" t="inlineStr"/>
+      <c r="DU196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -31040,6 +31240,7 @@
       <c r="DR197" t="inlineStr"/>
       <c r="DS197" t="inlineStr"/>
       <c r="DT197" t="inlineStr"/>
+      <c r="DU197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -31182,6 +31383,7 @@
       <c r="DR198" t="inlineStr"/>
       <c r="DS198" t="inlineStr"/>
       <c r="DT198" t="inlineStr"/>
+      <c r="DU198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -31356,6 +31558,7 @@
       <c r="DR199" t="inlineStr"/>
       <c r="DS199" t="inlineStr"/>
       <c r="DT199" t="inlineStr"/>
+      <c r="DU199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -31515,37 +31718,38 @@
       <c r="DG200" t="inlineStr"/>
       <c r="DH200" t="inlineStr"/>
       <c r="DI200" t="inlineStr"/>
-      <c r="DJ200" t="inlineStr">
+      <c r="DJ200" t="inlineStr"/>
+      <c r="DK200" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK200" t="inlineStr"/>
-      <c r="DL200" t="inlineStr">
+      <c r="DL200" t="inlineStr"/>
+      <c r="DM200" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM200" t="inlineStr">
+      <c r="DN200" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DN200" t="inlineStr">
+      <c r="DO200" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO200" t="inlineStr">
+      <c r="DP200" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DP200" t="inlineStr"/>
       <c r="DQ200" t="inlineStr"/>
       <c r="DR200" t="inlineStr"/>
       <c r="DS200" t="inlineStr"/>
       <c r="DT200" t="inlineStr"/>
+      <c r="DU200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -31752,6 +31956,7 @@
       <c r="DR201" t="inlineStr"/>
       <c r="DS201" t="inlineStr"/>
       <c r="DT201" t="inlineStr"/>
+      <c r="DU201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -31897,31 +32102,32 @@
       <c r="DI202" t="inlineStr"/>
       <c r="DJ202" t="inlineStr"/>
       <c r="DK202" t="inlineStr"/>
-      <c r="DL202" t="inlineStr">
+      <c r="DL202" t="inlineStr"/>
+      <c r="DM202" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM202" t="inlineStr">
+      <c r="DN202" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DN202" t="inlineStr">
+      <c r="DO202" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO202" t="inlineStr">
+      <c r="DP202" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="DP202" t="inlineStr"/>
       <c r="DQ202" t="inlineStr"/>
       <c r="DR202" t="inlineStr"/>
       <c r="DS202" t="inlineStr"/>
       <c r="DT202" t="inlineStr"/>
+      <c r="DU202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -32068,6 +32274,7 @@
       <c r="DR203" t="inlineStr"/>
       <c r="DS203" t="inlineStr"/>
       <c r="DT203" t="inlineStr"/>
+      <c r="DU203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -32214,6 +32421,7 @@
       <c r="DR204" t="inlineStr"/>
       <c r="DS204" t="inlineStr"/>
       <c r="DT204" t="inlineStr"/>
+      <c r="DU204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -32354,12 +32562,12 @@
       <c r="DH205" t="inlineStr"/>
       <c r="DI205" t="inlineStr"/>
       <c r="DJ205" t="inlineStr"/>
-      <c r="DK205" t="inlineStr">
+      <c r="DK205" t="inlineStr"/>
+      <c r="DL205" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DL205" t="inlineStr"/>
       <c r="DM205" t="inlineStr"/>
       <c r="DN205" t="inlineStr"/>
       <c r="DO205" t="inlineStr"/>
@@ -32368,6 +32576,7 @@
       <c r="DR205" t="inlineStr"/>
       <c r="DS205" t="inlineStr"/>
       <c r="DT205" t="inlineStr"/>
+      <c r="DU205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -32522,6 +32731,7 @@
       <c r="DR206" t="inlineStr"/>
       <c r="DS206" t="inlineStr"/>
       <c r="DT206" t="inlineStr"/>
+      <c r="DU206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -32664,6 +32874,7 @@
       <c r="DR207" t="inlineStr"/>
       <c r="DS207" t="inlineStr"/>
       <c r="DT207" t="inlineStr"/>
+      <c r="DU207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -32806,6 +33017,7 @@
       <c r="DR208" t="inlineStr"/>
       <c r="DS208" t="inlineStr"/>
       <c r="DT208" t="inlineStr"/>
+      <c r="DU208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -32944,6 +33156,7 @@
       <c r="DR209" t="inlineStr"/>
       <c r="DS209" t="inlineStr"/>
       <c r="DT209" t="inlineStr"/>
+      <c r="DU209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -33086,6 +33299,7 @@
       <c r="DR210" t="inlineStr"/>
       <c r="DS210" t="inlineStr"/>
       <c r="DT210" t="inlineStr"/>
+      <c r="DU210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -33232,6 +33446,7 @@
       <c r="DR211" t="inlineStr"/>
       <c r="DS211" t="inlineStr"/>
       <c r="DT211" t="inlineStr"/>
+      <c r="DU211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -33374,6 +33589,7 @@
       <c r="DR212" t="inlineStr"/>
       <c r="DS212" t="inlineStr"/>
       <c r="DT212" t="inlineStr"/>
+      <c r="DU212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -33516,6 +33732,7 @@
       <c r="DR213" t="inlineStr"/>
       <c r="DS213" t="inlineStr"/>
       <c r="DT213" t="inlineStr"/>
+      <c r="DU213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -33662,6 +33879,7 @@
       <c r="DR214" t="inlineStr"/>
       <c r="DS214" t="inlineStr"/>
       <c r="DT214" t="inlineStr"/>
+      <c r="DU214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -33804,6 +34022,7 @@
       <c r="DR215" t="inlineStr"/>
       <c r="DS215" t="inlineStr"/>
       <c r="DT215" t="inlineStr"/>
+      <c r="DU215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -33946,6 +34165,7 @@
       <c r="DR216" t="inlineStr"/>
       <c r="DS216" t="inlineStr"/>
       <c r="DT216" t="inlineStr"/>
+      <c r="DU216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -34088,6 +34308,7 @@
       <c r="DR217" t="inlineStr"/>
       <c r="DS217" t="inlineStr"/>
       <c r="DT217" t="inlineStr"/>
+      <c r="DU217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -34230,6 +34451,7 @@
       <c r="DR218" t="inlineStr"/>
       <c r="DS218" t="inlineStr"/>
       <c r="DT218" t="inlineStr"/>
+      <c r="DU218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -34372,6 +34594,7 @@
       <c r="DR219" t="inlineStr"/>
       <c r="DS219" t="inlineStr"/>
       <c r="DT219" t="inlineStr"/>
+      <c r="DU219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -34518,6 +34741,7 @@
       <c r="DR220" t="inlineStr"/>
       <c r="DS220" t="inlineStr"/>
       <c r="DT220" t="inlineStr"/>
+      <c r="DU220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -34660,6 +34884,7 @@
       <c r="DR221" t="inlineStr"/>
       <c r="DS221" t="inlineStr"/>
       <c r="DT221" t="inlineStr"/>
+      <c r="DU221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -34806,6 +35031,7 @@
       <c r="DR222" t="inlineStr"/>
       <c r="DS222" t="inlineStr"/>
       <c r="DT222" t="inlineStr"/>
+      <c r="DU222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -34961,12 +35187,12 @@
       <c r="DG223" t="inlineStr"/>
       <c r="DH223" t="inlineStr"/>
       <c r="DI223" t="inlineStr"/>
-      <c r="DJ223" t="inlineStr">
+      <c r="DJ223" t="inlineStr"/>
+      <c r="DK223" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="DK223" t="inlineStr"/>
       <c r="DL223" t="inlineStr"/>
       <c r="DM223" t="inlineStr"/>
       <c r="DN223" t="inlineStr"/>
@@ -34976,6 +35202,7 @@
       <c r="DR223" t="inlineStr"/>
       <c r="DS223" t="inlineStr"/>
       <c r="DT223" t="inlineStr"/>
+      <c r="DU223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -35114,6 +35341,7 @@
       <c r="DR224" t="inlineStr"/>
       <c r="DS224" t="inlineStr"/>
       <c r="DT224" t="inlineStr"/>
+      <c r="DU224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -35252,6 +35480,7 @@
       <c r="DR225" t="inlineStr"/>
       <c r="DS225" t="inlineStr"/>
       <c r="DT225" t="inlineStr"/>
+      <c r="DU225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -35390,6 +35619,7 @@
       <c r="DR226" t="inlineStr"/>
       <c r="DS226" t="inlineStr"/>
       <c r="DT226" t="inlineStr"/>
+      <c r="DU226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -35528,6 +35758,7 @@
       <c r="DR227" t="inlineStr"/>
       <c r="DS227" t="inlineStr"/>
       <c r="DT227" t="inlineStr"/>
+      <c r="DU227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -35666,6 +35897,7 @@
       <c r="DR228" t="inlineStr"/>
       <c r="DS228" t="inlineStr"/>
       <c r="DT228" t="inlineStr"/>
+      <c r="DU228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -35816,6 +36048,7 @@
       <c r="DR229" t="inlineStr"/>
       <c r="DS229" t="inlineStr"/>
       <c r="DT229" t="inlineStr"/>
+      <c r="DU229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -35958,6 +36191,7 @@
       <c r="DR230" t="inlineStr"/>
       <c r="DS230" t="inlineStr"/>
       <c r="DT230" t="inlineStr"/>
+      <c r="DU230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -36100,6 +36334,7 @@
       <c r="DR231" t="inlineStr"/>
       <c r="DS231" t="inlineStr"/>
       <c r="DT231" t="inlineStr"/>
+      <c r="DU231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -36242,6 +36477,7 @@
       <c r="DR232" t="inlineStr"/>
       <c r="DS232" t="inlineStr"/>
       <c r="DT232" t="inlineStr"/>
+      <c r="DU232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -36384,6 +36620,7 @@
       <c r="DR233" t="inlineStr"/>
       <c r="DS233" t="inlineStr"/>
       <c r="DT233" t="inlineStr"/>
+      <c r="DU233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -36526,6 +36763,7 @@
       <c r="DR234" t="inlineStr"/>
       <c r="DS234" t="inlineStr"/>
       <c r="DT234" t="inlineStr"/>
+      <c r="DU234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -36668,6 +36906,7 @@
       <c r="DR235" t="inlineStr"/>
       <c r="DS235" t="inlineStr"/>
       <c r="DT235" t="inlineStr"/>
+      <c r="DU235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -36810,6 +37049,7 @@
       <c r="DR236" t="inlineStr"/>
       <c r="DS236" t="inlineStr"/>
       <c r="DT236" t="inlineStr"/>
+      <c r="DU236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -36972,6 +37212,7 @@
       <c r="DR237" t="inlineStr"/>
       <c r="DS237" t="inlineStr"/>
       <c r="DT237" t="inlineStr"/>
+      <c r="DU237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -37134,6 +37375,7 @@
       <c r="DR238" t="inlineStr"/>
       <c r="DS238" t="inlineStr"/>
       <c r="DT238" t="inlineStr"/>
+      <c r="DU238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -37284,6 +37526,7 @@
       <c r="DR239" t="inlineStr"/>
       <c r="DS239" t="inlineStr"/>
       <c r="DT239" t="inlineStr"/>
+      <c r="DU239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -37426,6 +37669,7 @@
       <c r="DR240" t="inlineStr"/>
       <c r="DS240" t="inlineStr"/>
       <c r="DT240" t="inlineStr"/>
+      <c r="DU240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -37564,6 +37808,7 @@
       <c r="DR241" t="inlineStr"/>
       <c r="DS241" t="inlineStr"/>
       <c r="DT241" t="inlineStr"/>
+      <c r="DU241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -37702,6 +37947,7 @@
       <c r="DR242" t="inlineStr"/>
       <c r="DS242" t="inlineStr"/>
       <c r="DT242" t="inlineStr"/>
+      <c r="DU242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -37840,6 +38086,7 @@
       <c r="DR243" t="inlineStr"/>
       <c r="DS243" t="inlineStr"/>
       <c r="DT243" t="inlineStr"/>
+      <c r="DU243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -37986,6 +38233,7 @@
       <c r="DR244" t="inlineStr"/>
       <c r="DS244" t="inlineStr"/>
       <c r="DT244" t="inlineStr"/>
+      <c r="DU244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -38127,47 +38375,48 @@
       <c r="DI245" t="inlineStr"/>
       <c r="DJ245" t="inlineStr"/>
       <c r="DK245" t="inlineStr"/>
-      <c r="DL245" t="inlineStr">
+      <c r="DL245" t="inlineStr"/>
+      <c r="DM245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DM245" t="inlineStr">
+      <c r="DN245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DN245" t="inlineStr">
+      <c r="DO245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO245" t="inlineStr">
+      <c r="DP245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DP245" t="inlineStr">
+      <c r="DQ245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DQ245" t="inlineStr">
+      <c r="DR245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DR245" t="inlineStr">
+      <c r="DS245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DS245" t="inlineStr">
+      <c r="DT245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DT245" t="inlineStr">
+      <c r="DU245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -38314,6 +38563,7 @@
       <c r="DR246" t="inlineStr"/>
       <c r="DS246" t="inlineStr"/>
       <c r="DT246" t="inlineStr"/>
+      <c r="DU246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -38456,6 +38706,7 @@
       <c r="DR247" t="inlineStr"/>
       <c r="DS247" t="inlineStr"/>
       <c r="DT247" t="inlineStr"/>
+      <c r="DU247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -38598,6 +38849,7 @@
       <c r="DR248" t="inlineStr"/>
       <c r="DS248" t="inlineStr"/>
       <c r="DT248" t="inlineStr"/>
+      <c r="DU248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -38740,6 +38992,7 @@
       <c r="DR249" t="inlineStr"/>
       <c r="DS249" t="inlineStr"/>
       <c r="DT249" t="inlineStr"/>
+      <c r="DU249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -38882,6 +39135,7 @@
       <c r="DR250" t="inlineStr"/>
       <c r="DS250" t="inlineStr"/>
       <c r="DT250" t="inlineStr"/>
+      <c r="DU250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -39024,6 +39278,7 @@
       <c r="DR251" t="inlineStr"/>
       <c r="DS251" t="inlineStr"/>
       <c r="DT251" t="inlineStr"/>
+      <c r="DU251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -39174,6 +39429,7 @@
       <c r="DR252" t="inlineStr"/>
       <c r="DS252" t="inlineStr"/>
       <c r="DT252" t="inlineStr"/>
+      <c r="DU252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -39316,6 +39572,7 @@
       <c r="DR253" t="inlineStr"/>
       <c r="DS253" t="inlineStr"/>
       <c r="DT253" t="inlineStr"/>
+      <c r="DU253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -39330,7 +39587,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>28,6</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
@@ -39471,7 +39728,11 @@
       <c r="DG254" t="inlineStr"/>
       <c r="DH254" t="inlineStr"/>
       <c r="DI254" t="inlineStr"/>
-      <c r="DJ254" t="inlineStr"/>
+      <c r="DJ254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DK254" t="inlineStr"/>
       <c r="DL254" t="inlineStr"/>
       <c r="DM254" t="inlineStr"/>
@@ -39482,6 +39743,7 @@
       <c r="DR254" t="inlineStr"/>
       <c r="DS254" t="inlineStr"/>
       <c r="DT254" t="inlineStr"/>
+      <c r="DU254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -39661,12 +39923,12 @@
       <c r="DG255" t="inlineStr"/>
       <c r="DH255" t="inlineStr"/>
       <c r="DI255" t="inlineStr"/>
-      <c r="DJ255" t="inlineStr">
+      <c r="DJ255" t="inlineStr"/>
+      <c r="DK255" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK255" t="inlineStr"/>
       <c r="DL255" t="inlineStr"/>
       <c r="DM255" t="inlineStr"/>
       <c r="DN255" t="inlineStr"/>
@@ -39676,6 +39938,7 @@
       <c r="DR255" t="inlineStr"/>
       <c r="DS255" t="inlineStr"/>
       <c r="DT255" t="inlineStr"/>
+      <c r="DU255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -39938,6 +40201,7 @@
       <c r="DR256" t="inlineStr"/>
       <c r="DS256" t="inlineStr"/>
       <c r="DT256" t="inlineStr"/>
+      <c r="DU256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -40096,6 +40360,7 @@
       <c r="DR257" t="inlineStr"/>
       <c r="DS257" t="inlineStr"/>
       <c r="DT257" t="inlineStr"/>
+      <c r="DU257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -40250,6 +40515,7 @@
       <c r="DR258" t="inlineStr"/>
       <c r="DS258" t="inlineStr"/>
       <c r="DT258" t="inlineStr"/>
+      <c r="DU258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -40392,6 +40658,7 @@
       <c r="DR259" t="inlineStr"/>
       <c r="DS259" t="inlineStr"/>
       <c r="DT259" t="inlineStr"/>
+      <c r="DU259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -40538,6 +40805,7 @@
       <c r="DR260" t="inlineStr"/>
       <c r="DS260" t="inlineStr"/>
       <c r="DT260" t="inlineStr"/>
+      <c r="DU260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -40680,6 +40948,7 @@
       <c r="DR261" t="inlineStr"/>
       <c r="DS261" t="inlineStr"/>
       <c r="DT261" t="inlineStr"/>
+      <c r="DU261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -40818,6 +41087,7 @@
       <c r="DR262" t="inlineStr"/>
       <c r="DS262" t="inlineStr"/>
       <c r="DT262" t="inlineStr"/>
+      <c r="DU262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -40960,6 +41230,7 @@
       <c r="DR263" t="inlineStr"/>
       <c r="DS263" t="inlineStr"/>
       <c r="DT263" t="inlineStr"/>
+      <c r="DU263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -40974,7 +41245,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>88,2</t>
+          <t>90,2</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -41215,7 +41486,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="DJ264" t="inlineStr"/>
+      <c r="DJ264" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DK264" t="inlineStr"/>
       <c r="DL264" t="inlineStr"/>
       <c r="DM264" t="inlineStr"/>
@@ -41226,6 +41501,7 @@
       <c r="DR264" t="inlineStr"/>
       <c r="DS264" t="inlineStr"/>
       <c r="DT264" t="inlineStr"/>
+      <c r="DU264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -41364,6 +41640,7 @@
       <c r="DR265" t="inlineStr"/>
       <c r="DS265" t="inlineStr"/>
       <c r="DT265" t="inlineStr"/>
+      <c r="DU265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -41502,6 +41779,7 @@
       <c r="DR266" t="inlineStr"/>
       <c r="DS266" t="inlineStr"/>
       <c r="DT266" t="inlineStr"/>
+      <c r="DU266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -41640,6 +41918,7 @@
       <c r="DR267" t="inlineStr"/>
       <c r="DS267" t="inlineStr"/>
       <c r="DT267" t="inlineStr"/>
+      <c r="DU267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -41778,6 +42057,7 @@
       <c r="DR268" t="inlineStr"/>
       <c r="DS268" t="inlineStr"/>
       <c r="DT268" t="inlineStr"/>
+      <c r="DU268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -41916,6 +42196,7 @@
       <c r="DR269" t="inlineStr"/>
       <c r="DS269" t="inlineStr"/>
       <c r="DT269" t="inlineStr"/>
+      <c r="DU269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -42054,6 +42335,7 @@
       <c r="DR270" t="inlineStr"/>
       <c r="DS270" t="inlineStr"/>
       <c r="DT270" t="inlineStr"/>
+      <c r="DU270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -42192,6 +42474,7 @@
       <c r="DR271" t="inlineStr"/>
       <c r="DS271" t="inlineStr"/>
       <c r="DT271" t="inlineStr"/>
+      <c r="DU271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -42330,6 +42613,7 @@
       <c r="DR272" t="inlineStr"/>
       <c r="DS272" t="inlineStr"/>
       <c r="DT272" t="inlineStr"/>
+      <c r="DU272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -42508,6 +42792,7 @@
       <c r="DR273" t="inlineStr"/>
       <c r="DS273" t="inlineStr"/>
       <c r="DT273" t="inlineStr"/>
+      <c r="DU273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -42662,6 +42947,7 @@
       <c r="DR274" t="inlineStr"/>
       <c r="DS274" t="inlineStr"/>
       <c r="DT274" t="inlineStr"/>
+      <c r="DU274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -42814,12 +43100,12 @@
       <c r="DH275" t="inlineStr"/>
       <c r="DI275" t="inlineStr"/>
       <c r="DJ275" t="inlineStr"/>
-      <c r="DK275" t="inlineStr">
+      <c r="DK275" t="inlineStr"/>
+      <c r="DL275" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="DL275" t="inlineStr"/>
       <c r="DM275" t="inlineStr"/>
       <c r="DN275" t="inlineStr"/>
       <c r="DO275" t="inlineStr"/>
@@ -42828,6 +43114,7 @@
       <c r="DR275" t="inlineStr"/>
       <c r="DS275" t="inlineStr"/>
       <c r="DT275" t="inlineStr"/>
+      <c r="DU275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -42970,6 +43257,7 @@
       <c r="DR276" t="inlineStr"/>
       <c r="DS276" t="inlineStr"/>
       <c r="DT276" t="inlineStr"/>
+      <c r="DU276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -43116,6 +43404,7 @@
       <c r="DR277" t="inlineStr"/>
       <c r="DS277" t="inlineStr"/>
       <c r="DT277" t="inlineStr"/>
+      <c r="DU277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -43295,12 +43584,12 @@
       <c r="DG278" t="inlineStr"/>
       <c r="DH278" t="inlineStr"/>
       <c r="DI278" t="inlineStr"/>
-      <c r="DJ278" t="inlineStr">
+      <c r="DJ278" t="inlineStr"/>
+      <c r="DK278" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="DK278" t="inlineStr"/>
       <c r="DL278" t="inlineStr"/>
       <c r="DM278" t="inlineStr"/>
       <c r="DN278" t="inlineStr"/>
@@ -43310,6 +43599,7 @@
       <c r="DR278" t="inlineStr"/>
       <c r="DS278" t="inlineStr"/>
       <c r="DT278" t="inlineStr"/>
+      <c r="DU278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -43456,6 +43746,7 @@
       <c r="DR279" t="inlineStr"/>
       <c r="DS279" t="inlineStr"/>
       <c r="DT279" t="inlineStr"/>
+      <c r="DU279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -43622,6 +43913,7 @@
       <c r="DR280" t="inlineStr"/>
       <c r="DS280" t="inlineStr"/>
       <c r="DT280" t="inlineStr"/>
+      <c r="DU280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -43788,6 +44080,7 @@
       <c r="DR281" t="inlineStr"/>
       <c r="DS281" t="inlineStr"/>
       <c r="DT281" t="inlineStr"/>
+      <c r="DU281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -43930,6 +44223,7 @@
       <c r="DR282" t="inlineStr"/>
       <c r="DS282" t="inlineStr"/>
       <c r="DT282" t="inlineStr"/>
+      <c r="DU282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -44096,6 +44390,7 @@
       <c r="DR283" t="inlineStr"/>
       <c r="DS283" t="inlineStr"/>
       <c r="DT283" t="inlineStr"/>
+      <c r="DU283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -44238,6 +44533,7 @@
       <c r="DR284" t="inlineStr"/>
       <c r="DS284" t="inlineStr"/>
       <c r="DT284" t="inlineStr"/>
+      <c r="DU284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -44410,12 +44706,12 @@
       <c r="DH285" t="inlineStr"/>
       <c r="DI285" t="inlineStr"/>
       <c r="DJ285" t="inlineStr"/>
-      <c r="DK285" t="inlineStr">
+      <c r="DK285" t="inlineStr"/>
+      <c r="DL285" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="DL285" t="inlineStr"/>
       <c r="DM285" t="inlineStr"/>
       <c r="DN285" t="inlineStr"/>
       <c r="DO285" t="inlineStr"/>
@@ -44424,6 +44720,7 @@
       <c r="DR285" t="inlineStr"/>
       <c r="DS285" t="inlineStr"/>
       <c r="DT285" t="inlineStr"/>
+      <c r="DU285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -44566,6 +44863,7 @@
       <c r="DR286" t="inlineStr"/>
       <c r="DS286" t="inlineStr"/>
       <c r="DT286" t="inlineStr"/>
+      <c r="DU286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -44708,6 +45006,7 @@
       <c r="DR287" t="inlineStr"/>
       <c r="DS287" t="inlineStr"/>
       <c r="DT287" t="inlineStr"/>
+      <c r="DU287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -44907,12 +45206,12 @@
       <c r="DG288" t="inlineStr"/>
       <c r="DH288" t="inlineStr"/>
       <c r="DI288" t="inlineStr"/>
-      <c r="DJ288" t="inlineStr">
+      <c r="DJ288" t="inlineStr"/>
+      <c r="DK288" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK288" t="inlineStr"/>
       <c r="DL288" t="inlineStr"/>
       <c r="DM288" t="inlineStr"/>
       <c r="DN288" t="inlineStr"/>
@@ -44922,6 +45221,7 @@
       <c r="DR288" t="inlineStr"/>
       <c r="DS288" t="inlineStr"/>
       <c r="DT288" t="inlineStr"/>
+      <c r="DU288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -45060,6 +45360,7 @@
       <c r="DR289" t="inlineStr"/>
       <c r="DS289" t="inlineStr"/>
       <c r="DT289" t="inlineStr"/>
+      <c r="DU289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -45238,6 +45539,7 @@
       <c r="DR290" t="inlineStr"/>
       <c r="DS290" t="inlineStr"/>
       <c r="DT290" t="inlineStr"/>
+      <c r="DU290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -45424,6 +45726,7 @@
       <c r="DR291" t="inlineStr"/>
       <c r="DS291" t="inlineStr"/>
       <c r="DT291" t="inlineStr"/>
+      <c r="DU291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -45634,6 +45937,7 @@
       <c r="DR292" t="inlineStr"/>
       <c r="DS292" t="inlineStr"/>
       <c r="DT292" t="inlineStr"/>
+      <c r="DU292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -45832,6 +46136,7 @@
       <c r="DR293" t="inlineStr"/>
       <c r="DS293" t="inlineStr"/>
       <c r="DT293" t="inlineStr"/>
+      <c r="DU293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -46070,6 +46375,7 @@
       <c r="DR294" t="inlineStr"/>
       <c r="DS294" t="inlineStr"/>
       <c r="DT294" t="inlineStr"/>
+      <c r="DU294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -46328,6 +46634,7 @@
       <c r="DR295" t="inlineStr"/>
       <c r="DS295" t="inlineStr"/>
       <c r="DT295" t="inlineStr"/>
+      <c r="DU295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -46546,6 +46853,7 @@
       <c r="DR296" t="inlineStr"/>
       <c r="DS296" t="inlineStr"/>
       <c r="DT296" t="inlineStr"/>
+      <c r="DU296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -46709,12 +47017,12 @@
       <c r="DG297" t="inlineStr"/>
       <c r="DH297" t="inlineStr"/>
       <c r="DI297" t="inlineStr"/>
-      <c r="DJ297" t="inlineStr">
+      <c r="DJ297" t="inlineStr"/>
+      <c r="DK297" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="DK297" t="inlineStr"/>
       <c r="DL297" t="inlineStr"/>
       <c r="DM297" t="inlineStr"/>
       <c r="DN297" t="inlineStr"/>
@@ -46724,6 +47032,7 @@
       <c r="DR297" t="inlineStr"/>
       <c r="DS297" t="inlineStr"/>
       <c r="DT297" t="inlineStr"/>
+      <c r="DU297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -46866,6 +47175,7 @@
       <c r="DR298" t="inlineStr"/>
       <c r="DS298" t="inlineStr"/>
       <c r="DT298" t="inlineStr"/>
+      <c r="DU298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -47008,6 +47318,7 @@
       <c r="DR299" t="inlineStr"/>
       <c r="DS299" t="inlineStr"/>
       <c r="DT299" t="inlineStr"/>
+      <c r="DU299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -47150,6 +47461,7 @@
       <c r="DR300" t="inlineStr"/>
       <c r="DS300" t="inlineStr"/>
       <c r="DT300" t="inlineStr"/>
+      <c r="DU300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -47304,6 +47616,7 @@
       <c r="DR301" t="inlineStr"/>
       <c r="DS301" t="inlineStr"/>
       <c r="DT301" t="inlineStr"/>
+      <c r="DU301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -47482,6 +47795,7 @@
       <c r="DR302" t="inlineStr"/>
       <c r="DS302" t="inlineStr"/>
       <c r="DT302" t="inlineStr"/>
+      <c r="DU302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -47624,6 +47938,7 @@
       <c r="DR303" t="inlineStr"/>
       <c r="DS303" t="inlineStr"/>
       <c r="DT303" t="inlineStr"/>
+      <c r="DU303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -47766,6 +48081,7 @@
       <c r="DR304" t="inlineStr"/>
       <c r="DS304" t="inlineStr"/>
       <c r="DT304" t="inlineStr"/>
+      <c r="DU304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -47960,6 +48276,7 @@
       <c r="DR305" t="inlineStr"/>
       <c r="DS305" t="inlineStr"/>
       <c r="DT305" t="inlineStr"/>
+      <c r="DU305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -48102,6 +48419,7 @@
       <c r="DR306" t="inlineStr"/>
       <c r="DS306" t="inlineStr"/>
       <c r="DT306" t="inlineStr"/>
+      <c r="DU306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -48234,12 +48552,12 @@
       <c r="DH307" t="inlineStr"/>
       <c r="DI307" t="inlineStr"/>
       <c r="DJ307" t="inlineStr"/>
-      <c r="DK307" t="inlineStr">
+      <c r="DK307" t="inlineStr"/>
+      <c r="DL307" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="DL307" t="inlineStr"/>
       <c r="DM307" t="inlineStr"/>
       <c r="DN307" t="inlineStr"/>
       <c r="DO307" t="inlineStr"/>
@@ -48248,6 +48566,7 @@
       <c r="DR307" t="inlineStr"/>
       <c r="DS307" t="inlineStr"/>
       <c r="DT307" t="inlineStr"/>
+      <c r="DU307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -48386,6 +48705,7 @@
       <c r="DR308" t="inlineStr"/>
       <c r="DS308" t="inlineStr"/>
       <c r="DT308" t="inlineStr"/>
+      <c r="DU308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -48524,6 +48844,7 @@
       <c r="DR309" t="inlineStr"/>
       <c r="DS309" t="inlineStr"/>
       <c r="DT309" t="inlineStr"/>
+      <c r="DU309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -48670,6 +48991,7 @@
       <c r="DR310" t="inlineStr"/>
       <c r="DS310" t="inlineStr"/>
       <c r="DT310" t="inlineStr"/>
+      <c r="DU310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -48816,6 +49138,7 @@
       <c r="DR311" t="inlineStr"/>
       <c r="DS311" t="inlineStr"/>
       <c r="DT311" t="inlineStr"/>
+      <c r="DU311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -48954,6 +49277,7 @@
       <c r="DR312" t="inlineStr"/>
       <c r="DS312" t="inlineStr"/>
       <c r="DT312" t="inlineStr"/>
+      <c r="DU312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -49116,6 +49440,7 @@
       <c r="DR313" t="inlineStr"/>
       <c r="DS313" t="inlineStr"/>
       <c r="DT313" t="inlineStr"/>
+      <c r="DU313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -49282,6 +49607,7 @@
       <c r="DR314" t="inlineStr"/>
       <c r="DS314" t="inlineStr"/>
       <c r="DT314" t="inlineStr"/>
+      <c r="DU314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -49484,6 +49810,7 @@
       <c r="DR315" t="inlineStr"/>
       <c r="DS315" t="inlineStr"/>
       <c r="DT315" t="inlineStr"/>
+      <c r="DU315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -49651,29 +49978,30 @@
       <c r="DG316" t="inlineStr"/>
       <c r="DH316" t="inlineStr"/>
       <c r="DI316" t="inlineStr"/>
-      <c r="DJ316" t="inlineStr">
+      <c r="DJ316" t="inlineStr"/>
+      <c r="DK316" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DK316" t="inlineStr">
+      <c r="DL316" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DL316" t="inlineStr"/>
       <c r="DM316" t="inlineStr"/>
-      <c r="DN316" t="inlineStr">
+      <c r="DN316" t="inlineStr"/>
+      <c r="DO316" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="DO316" t="inlineStr"/>
       <c r="DP316" t="inlineStr"/>
       <c r="DQ316" t="inlineStr"/>
       <c r="DR316" t="inlineStr"/>
       <c r="DS316" t="inlineStr"/>
       <c r="DT316" t="inlineStr"/>
+      <c r="DU316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/du_active.xlsx
+++ b/data/du_active.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ316"/>
+  <dimension ref="A1:EQ316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,120 +1017,157 @@
       </c>
       <c r="DO1" t="inlineStr">
         <is>
+          <t>лекция в 4 доме (13.05)</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
           <t>Турнир FIFA (13.05.2022)</t>
         </is>
       </c>
-      <c r="DP1" t="inlineStr">
+      <c r="DQ1" t="inlineStr">
         <is>
           <t>Дженга (14.05.2022)</t>
         </is>
       </c>
-      <c r="DQ1" t="inlineStr">
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">презентация проекта iВолга (17.05) </t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>презентация волонтерской программы (18.05)</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
         <is>
           <t>Угадай мелодию (20.05.2022)</t>
         </is>
       </c>
-      <c r="DR1" t="inlineStr">
+      <c r="DU1" t="inlineStr">
         <is>
           <t>Школа 21
 (20.05.22)</t>
         </is>
       </c>
-      <c r="DS1" t="inlineStr">
+      <c r="DV1" t="inlineStr">
         <is>
           <t>Просмотр фильма (21.05.2022)</t>
         </is>
       </c>
-      <c r="DT1" t="inlineStr">
+      <c r="DW1" t="inlineStr">
         <is>
           <t>Твистер (24.05.2022)</t>
         </is>
       </c>
-      <c r="DU1" t="inlineStr">
+      <c r="DX1" t="inlineStr">
         <is>
           <t>Крокодил (25.05.2022)</t>
         </is>
       </c>
-      <c r="DV1" t="inlineStr">
+      <c r="DY1" t="inlineStr">
         <is>
           <t>Зарядка (29.05.2022)</t>
         </is>
       </c>
-      <c r="DW1" t="inlineStr">
+      <c r="DZ1" t="inlineStr">
         <is>
           <t>Своя игра
 (27.04.22)</t>
         </is>
       </c>
-      <c r="DX1" t="inlineStr">
+      <c r="EA1" t="inlineStr">
         <is>
           <t>Гитарник (28.05.2022)</t>
         </is>
       </c>
-      <c r="DY1" t="inlineStr"/>
-      <c r="DZ1" t="inlineStr"/>
-      <c r="EA1" t="inlineStr">
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Видео-лекторий, посвященный профилактике курения среди молодежи
+ (31.05)
+</t>
+        </is>
+      </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>Презентация проекта Liga Forum (31.05.2022)</t>
+        </is>
+      </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>Кинопоказ ко дню России  (10.06.2022)</t>
+        </is>
+      </c>
+      <c r="EE1" t="inlineStr">
+        <is>
+          <t>помощь студсовету (14.06)</t>
+        </is>
+      </c>
+      <c r="EF1" t="inlineStr"/>
+      <c r="EG1" t="inlineStr"/>
+      <c r="EH1" t="inlineStr">
         <is>
           <t>Клубы ДУ</t>
         </is>
       </c>
-      <c r="EB1" t="inlineStr">
+      <c r="EI1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Сентябрь</t>
         </is>
       </c>
-      <c r="EC1" t="inlineStr">
+      <c r="EJ1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Октябрь</t>
         </is>
       </c>
-      <c r="ED1" t="inlineStr">
+      <c r="EK1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Ноябрь</t>
         </is>
       </c>
-      <c r="EE1" t="inlineStr">
+      <c r="EL1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Декабрь</t>
         </is>
       </c>
-      <c r="EF1" t="inlineStr">
+      <c r="EM1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Январь</t>
         </is>
       </c>
-      <c r="EG1" t="inlineStr">
+      <c r="EN1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Февраль</t>
         </is>
       </c>
-      <c r="EH1" t="inlineStr">
+      <c r="EO1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Март</t>
         </is>
       </c>
-      <c r="EI1" t="inlineStr">
+      <c r="EP1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
 Апрель</t>
         </is>
       </c>
-      <c r="EJ1" t="inlineStr">
+      <c r="EQ1" t="inlineStr">
         <is>
           <t>Студ совет
 Студ актив
@@ -1299,6 +1336,13 @@
       <c r="EH2" t="inlineStr"/>
       <c r="EI2" t="inlineStr"/>
       <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1457,6 +1501,13 @@
       <c r="EH3" t="inlineStr"/>
       <c r="EI3" t="inlineStr"/>
       <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1623,6 +1674,13 @@
       <c r="EH4" t="inlineStr"/>
       <c r="EI4" t="inlineStr"/>
       <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1797,6 +1855,13 @@
       <c r="EH5" t="inlineStr"/>
       <c r="EI5" t="inlineStr"/>
       <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1951,6 +2016,13 @@
       <c r="EH6" t="inlineStr"/>
       <c r="EI6" t="inlineStr"/>
       <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2105,6 +2177,13 @@
       <c r="EH7" t="inlineStr"/>
       <c r="EI7" t="inlineStr"/>
       <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
+      <c r="EP7" t="inlineStr"/>
+      <c r="EQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2259,6 +2338,13 @@
       <c r="EH8" t="inlineStr"/>
       <c r="EI8" t="inlineStr"/>
       <c r="EJ8" t="inlineStr"/>
+      <c r="EK8" t="inlineStr"/>
+      <c r="EL8" t="inlineStr"/>
+      <c r="EM8" t="inlineStr"/>
+      <c r="EN8" t="inlineStr"/>
+      <c r="EO8" t="inlineStr"/>
+      <c r="EP8" t="inlineStr"/>
+      <c r="EQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2413,6 +2499,13 @@
       <c r="EH9" t="inlineStr"/>
       <c r="EI9" t="inlineStr"/>
       <c r="EJ9" t="inlineStr"/>
+      <c r="EK9" t="inlineStr"/>
+      <c r="EL9" t="inlineStr"/>
+      <c r="EM9" t="inlineStr"/>
+      <c r="EN9" t="inlineStr"/>
+      <c r="EO9" t="inlineStr"/>
+      <c r="EP9" t="inlineStr"/>
+      <c r="EQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2567,6 +2660,13 @@
       <c r="EH10" t="inlineStr"/>
       <c r="EI10" t="inlineStr"/>
       <c r="EJ10" t="inlineStr"/>
+      <c r="EK10" t="inlineStr"/>
+      <c r="EL10" t="inlineStr"/>
+      <c r="EM10" t="inlineStr"/>
+      <c r="EN10" t="inlineStr"/>
+      <c r="EO10" t="inlineStr"/>
+      <c r="EP10" t="inlineStr"/>
+      <c r="EQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2721,6 +2821,13 @@
       <c r="EH11" t="inlineStr"/>
       <c r="EI11" t="inlineStr"/>
       <c r="EJ11" t="inlineStr"/>
+      <c r="EK11" t="inlineStr"/>
+      <c r="EL11" t="inlineStr"/>
+      <c r="EM11" t="inlineStr"/>
+      <c r="EN11" t="inlineStr"/>
+      <c r="EO11" t="inlineStr"/>
+      <c r="EP11" t="inlineStr"/>
+      <c r="EQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2875,6 +2982,13 @@
       <c r="EH12" t="inlineStr"/>
       <c r="EI12" t="inlineStr"/>
       <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr"/>
+      <c r="EO12" t="inlineStr"/>
+      <c r="EP12" t="inlineStr"/>
+      <c r="EQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3083,14 +3197,14 @@
       <c r="DT13" t="inlineStr"/>
       <c r="DU13" t="inlineStr"/>
       <c r="DV13" t="inlineStr"/>
-      <c r="DW13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW13" t="inlineStr"/>
       <c r="DX13" t="inlineStr"/>
       <c r="DY13" t="inlineStr"/>
-      <c r="DZ13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA13" t="inlineStr"/>
       <c r="EB13" t="inlineStr"/>
       <c r="EC13" t="inlineStr"/>
@@ -3101,6 +3215,13 @@
       <c r="EH13" t="inlineStr"/>
       <c r="EI13" t="inlineStr"/>
       <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3277,14 +3398,14 @@
       <c r="DT14" t="inlineStr"/>
       <c r="DU14" t="inlineStr"/>
       <c r="DV14" t="inlineStr"/>
-      <c r="DW14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW14" t="inlineStr"/>
       <c r="DX14" t="inlineStr"/>
       <c r="DY14" t="inlineStr"/>
-      <c r="DZ14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA14" t="inlineStr"/>
       <c r="EB14" t="inlineStr"/>
       <c r="EC14" t="inlineStr"/>
@@ -3295,6 +3416,13 @@
       <c r="EH14" t="inlineStr"/>
       <c r="EI14" t="inlineStr"/>
       <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr"/>
+      <c r="EL14" t="inlineStr"/>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr"/>
+      <c r="EO14" t="inlineStr"/>
+      <c r="EP14" t="inlineStr"/>
+      <c r="EQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3460,47 +3588,54 @@
       <c r="DY15" t="inlineStr"/>
       <c r="DZ15" t="inlineStr"/>
       <c r="EA15" t="inlineStr"/>
-      <c r="EB15" t="inlineStr">
+      <c r="EB15" t="inlineStr"/>
+      <c r="EC15" t="inlineStr"/>
+      <c r="ED15" t="inlineStr"/>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr"/>
+      <c r="EH15" t="inlineStr"/>
+      <c r="EI15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC15" t="inlineStr">
+      <c r="EJ15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED15" t="inlineStr">
+      <c r="EK15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE15" t="inlineStr">
+      <c r="EL15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF15" t="inlineStr">
+      <c r="EM15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG15" t="inlineStr">
+      <c r="EN15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH15" t="inlineStr">
+      <c r="EO15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI15" t="inlineStr">
+      <c r="EP15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ15" t="inlineStr">
+      <c r="EQ15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -3652,61 +3787,68 @@
       <c r="DO16" t="inlineStr"/>
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr"/>
-      <c r="DR16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="DR16" t="inlineStr"/>
       <c r="DS16" t="inlineStr"/>
       <c r="DT16" t="inlineStr"/>
-      <c r="DU16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DV16" t="inlineStr"/>
       <c r="DW16" t="inlineStr"/>
       <c r="DX16" t="inlineStr"/>
       <c r="DY16" t="inlineStr"/>
       <c r="DZ16" t="inlineStr"/>
       <c r="EA16" t="inlineStr"/>
-      <c r="EB16" t="inlineStr">
+      <c r="EB16" t="inlineStr"/>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC16" t="inlineStr">
+      <c r="EJ16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED16" t="inlineStr">
+      <c r="EK16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE16" t="inlineStr">
+      <c r="EL16" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="EF16" t="inlineStr">
+      <c r="EM16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG16" t="inlineStr">
+      <c r="EN16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH16" t="inlineStr">
+      <c r="EO16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EI16" t="inlineStr">
+      <c r="EP16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EJ16" t="inlineStr">
+      <c r="EQ16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -3884,20 +4026,20 @@
       <c r="DM17" t="inlineStr"/>
       <c r="DN17" t="inlineStr"/>
       <c r="DO17" t="inlineStr"/>
-      <c r="DP17" t="inlineStr">
+      <c r="DP17" t="inlineStr"/>
+      <c r="DQ17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DQ17" t="inlineStr"/>
-      <c r="DR17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="DR17" t="inlineStr"/>
       <c r="DS17" t="inlineStr"/>
       <c r="DT17" t="inlineStr"/>
-      <c r="DU17" t="inlineStr"/>
+      <c r="DU17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DV17" t="inlineStr"/>
       <c r="DW17" t="inlineStr"/>
       <c r="DX17" t="inlineStr"/>
@@ -3913,6 +4055,13 @@
       <c r="EH17" t="inlineStr"/>
       <c r="EI17" t="inlineStr"/>
       <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr"/>
+      <c r="EP17" t="inlineStr"/>
+      <c r="EQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4053,12 +4202,12 @@
       <c r="DL18" t="inlineStr"/>
       <c r="DM18" t="inlineStr"/>
       <c r="DN18" t="inlineStr"/>
-      <c r="DO18" t="inlineStr">
+      <c r="DO18" t="inlineStr"/>
+      <c r="DP18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr"/>
       <c r="DR18" t="inlineStr"/>
       <c r="DS18" t="inlineStr"/>
@@ -4070,47 +4219,54 @@
       <c r="DY18" t="inlineStr"/>
       <c r="DZ18" t="inlineStr"/>
       <c r="EA18" t="inlineStr"/>
-      <c r="EB18" t="inlineStr">
+      <c r="EB18" t="inlineStr"/>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC18" t="inlineStr">
+      <c r="EJ18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED18" t="inlineStr">
+      <c r="EK18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE18" t="inlineStr">
+      <c r="EL18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF18" t="inlineStr">
+      <c r="EM18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG18" t="inlineStr">
+      <c r="EN18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH18" t="inlineStr">
+      <c r="EO18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI18" t="inlineStr">
+      <c r="EP18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ18" t="inlineStr">
+      <c r="EQ18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -4273,6 +4429,13 @@
       <c r="EH19" t="inlineStr"/>
       <c r="EI19" t="inlineStr"/>
       <c r="EJ19" t="inlineStr"/>
+      <c r="EK19" t="inlineStr"/>
+      <c r="EL19" t="inlineStr"/>
+      <c r="EM19" t="inlineStr"/>
+      <c r="EN19" t="inlineStr"/>
+      <c r="EO19" t="inlineStr"/>
+      <c r="EP19" t="inlineStr"/>
+      <c r="EQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4427,6 +4590,13 @@
       <c r="EH20" t="inlineStr"/>
       <c r="EI20" t="inlineStr"/>
       <c r="EJ20" t="inlineStr"/>
+      <c r="EK20" t="inlineStr"/>
+      <c r="EL20" t="inlineStr"/>
+      <c r="EM20" t="inlineStr"/>
+      <c r="EN20" t="inlineStr"/>
+      <c r="EO20" t="inlineStr"/>
+      <c r="EP20" t="inlineStr"/>
+      <c r="EQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4593,6 +4763,13 @@
       <c r="EH21" t="inlineStr"/>
       <c r="EI21" t="inlineStr"/>
       <c r="EJ21" t="inlineStr"/>
+      <c r="EK21" t="inlineStr"/>
+      <c r="EL21" t="inlineStr"/>
+      <c r="EM21" t="inlineStr"/>
+      <c r="EN21" t="inlineStr"/>
+      <c r="EO21" t="inlineStr"/>
+      <c r="EP21" t="inlineStr"/>
+      <c r="EQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4759,6 +4936,13 @@
       <c r="EH22" t="inlineStr"/>
       <c r="EI22" t="inlineStr"/>
       <c r="EJ22" t="inlineStr"/>
+      <c r="EK22" t="inlineStr"/>
+      <c r="EL22" t="inlineStr"/>
+      <c r="EM22" t="inlineStr"/>
+      <c r="EN22" t="inlineStr"/>
+      <c r="EO22" t="inlineStr"/>
+      <c r="EP22" t="inlineStr"/>
+      <c r="EQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4929,6 +5113,13 @@
       <c r="EH23" t="inlineStr"/>
       <c r="EI23" t="inlineStr"/>
       <c r="EJ23" t="inlineStr"/>
+      <c r="EK23" t="inlineStr"/>
+      <c r="EL23" t="inlineStr"/>
+      <c r="EM23" t="inlineStr"/>
+      <c r="EN23" t="inlineStr"/>
+      <c r="EO23" t="inlineStr"/>
+      <c r="EP23" t="inlineStr"/>
+      <c r="EQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5095,6 +5286,13 @@
       <c r="EH24" t="inlineStr"/>
       <c r="EI24" t="inlineStr"/>
       <c r="EJ24" t="inlineStr"/>
+      <c r="EK24" t="inlineStr"/>
+      <c r="EL24" t="inlineStr"/>
+      <c r="EM24" t="inlineStr"/>
+      <c r="EN24" t="inlineStr"/>
+      <c r="EO24" t="inlineStr"/>
+      <c r="EP24" t="inlineStr"/>
+      <c r="EQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5244,47 +5442,54 @@
       <c r="DY25" t="inlineStr"/>
       <c r="DZ25" t="inlineStr"/>
       <c r="EA25" t="inlineStr"/>
-      <c r="EB25" t="inlineStr">
+      <c r="EB25" t="inlineStr"/>
+      <c r="EC25" t="inlineStr"/>
+      <c r="ED25" t="inlineStr"/>
+      <c r="EE25" t="inlineStr"/>
+      <c r="EF25" t="inlineStr"/>
+      <c r="EG25" t="inlineStr"/>
+      <c r="EH25" t="inlineStr"/>
+      <c r="EI25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC25" t="inlineStr">
+      <c r="EJ25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED25" t="inlineStr">
+      <c r="EK25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE25" t="inlineStr">
+      <c r="EL25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF25" t="inlineStr">
+      <c r="EM25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG25" t="inlineStr">
+      <c r="EN25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH25" t="inlineStr">
+      <c r="EO25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI25" t="inlineStr">
+      <c r="EP25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ25" t="inlineStr">
+      <c r="EQ25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -5446,47 +5651,54 @@
       <c r="DY26" t="inlineStr"/>
       <c r="DZ26" t="inlineStr"/>
       <c r="EA26" t="inlineStr"/>
-      <c r="EB26" t="inlineStr">
+      <c r="EB26" t="inlineStr"/>
+      <c r="EC26" t="inlineStr"/>
+      <c r="ED26" t="inlineStr"/>
+      <c r="EE26" t="inlineStr"/>
+      <c r="EF26" t="inlineStr"/>
+      <c r="EG26" t="inlineStr"/>
+      <c r="EH26" t="inlineStr"/>
+      <c r="EI26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC26" t="inlineStr">
+      <c r="EJ26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED26" t="inlineStr">
+      <c r="EK26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE26" t="inlineStr">
+      <c r="EL26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF26" t="inlineStr">
+      <c r="EM26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG26" t="inlineStr">
+      <c r="EN26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH26" t="inlineStr">
+      <c r="EO26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI26" t="inlineStr">
+      <c r="EP26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ26" t="inlineStr">
+      <c r="EQ26" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -5649,6 +5861,13 @@
       <c r="EH27" t="inlineStr"/>
       <c r="EI27" t="inlineStr"/>
       <c r="EJ27" t="inlineStr"/>
+      <c r="EK27" t="inlineStr"/>
+      <c r="EL27" t="inlineStr"/>
+      <c r="EM27" t="inlineStr"/>
+      <c r="EN27" t="inlineStr"/>
+      <c r="EO27" t="inlineStr"/>
+      <c r="EP27" t="inlineStr"/>
+      <c r="EQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5807,6 +6026,13 @@
       <c r="EH28" t="inlineStr"/>
       <c r="EI28" t="inlineStr"/>
       <c r="EJ28" t="inlineStr"/>
+      <c r="EK28" t="inlineStr"/>
+      <c r="EL28" t="inlineStr"/>
+      <c r="EM28" t="inlineStr"/>
+      <c r="EN28" t="inlineStr"/>
+      <c r="EO28" t="inlineStr"/>
+      <c r="EP28" t="inlineStr"/>
+      <c r="EQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5965,6 +6191,13 @@
       <c r="EH29" t="inlineStr"/>
       <c r="EI29" t="inlineStr"/>
       <c r="EJ29" t="inlineStr"/>
+      <c r="EK29" t="inlineStr"/>
+      <c r="EL29" t="inlineStr"/>
+      <c r="EM29" t="inlineStr"/>
+      <c r="EN29" t="inlineStr"/>
+      <c r="EO29" t="inlineStr"/>
+      <c r="EP29" t="inlineStr"/>
+      <c r="EQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6131,6 +6364,13 @@
       <c r="EH30" t="inlineStr"/>
       <c r="EI30" t="inlineStr"/>
       <c r="EJ30" t="inlineStr"/>
+      <c r="EK30" t="inlineStr"/>
+      <c r="EL30" t="inlineStr"/>
+      <c r="EM30" t="inlineStr"/>
+      <c r="EN30" t="inlineStr"/>
+      <c r="EO30" t="inlineStr"/>
+      <c r="EP30" t="inlineStr"/>
+      <c r="EQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6293,6 +6533,13 @@
       <c r="EH31" t="inlineStr"/>
       <c r="EI31" t="inlineStr"/>
       <c r="EJ31" t="inlineStr"/>
+      <c r="EK31" t="inlineStr"/>
+      <c r="EL31" t="inlineStr"/>
+      <c r="EM31" t="inlineStr"/>
+      <c r="EN31" t="inlineStr"/>
+      <c r="EO31" t="inlineStr"/>
+      <c r="EP31" t="inlineStr"/>
+      <c r="EQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6467,6 +6714,13 @@
       <c r="EH32" t="inlineStr"/>
       <c r="EI32" t="inlineStr"/>
       <c r="EJ32" t="inlineStr"/>
+      <c r="EK32" t="inlineStr"/>
+      <c r="EL32" t="inlineStr"/>
+      <c r="EM32" t="inlineStr"/>
+      <c r="EN32" t="inlineStr"/>
+      <c r="EO32" t="inlineStr"/>
+      <c r="EP32" t="inlineStr"/>
+      <c r="EQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6633,6 +6887,13 @@
       <c r="EH33" t="inlineStr"/>
       <c r="EI33" t="inlineStr"/>
       <c r="EJ33" t="inlineStr"/>
+      <c r="EK33" t="inlineStr"/>
+      <c r="EL33" t="inlineStr"/>
+      <c r="EM33" t="inlineStr"/>
+      <c r="EN33" t="inlineStr"/>
+      <c r="EO33" t="inlineStr"/>
+      <c r="EP33" t="inlineStr"/>
+      <c r="EQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6822,7 +7083,14 @@
       <c r="EG34" t="inlineStr"/>
       <c r="EH34" t="inlineStr"/>
       <c r="EI34" t="inlineStr"/>
-      <c r="EJ34" t="inlineStr">
+      <c r="EJ34" t="inlineStr"/>
+      <c r="EK34" t="inlineStr"/>
+      <c r="EL34" t="inlineStr"/>
+      <c r="EM34" t="inlineStr"/>
+      <c r="EN34" t="inlineStr"/>
+      <c r="EO34" t="inlineStr"/>
+      <c r="EP34" t="inlineStr"/>
+      <c r="EQ34" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -6841,7 +7109,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -6982,7 +7250,11 @@
       <c r="DO35" t="inlineStr"/>
       <c r="DP35" t="inlineStr"/>
       <c r="DQ35" t="inlineStr"/>
-      <c r="DR35" t="inlineStr"/>
+      <c r="DR35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DS35" t="inlineStr"/>
       <c r="DT35" t="inlineStr"/>
       <c r="DU35" t="inlineStr"/>
@@ -7001,6 +7273,13 @@
       <c r="EH35" t="inlineStr"/>
       <c r="EI35" t="inlineStr"/>
       <c r="EJ35" t="inlineStr"/>
+      <c r="EK35" t="inlineStr"/>
+      <c r="EL35" t="inlineStr"/>
+      <c r="EM35" t="inlineStr"/>
+      <c r="EN35" t="inlineStr"/>
+      <c r="EO35" t="inlineStr"/>
+      <c r="EP35" t="inlineStr"/>
+      <c r="EQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7015,7 +7294,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -7148,7 +7427,11 @@
       <c r="DO36" t="inlineStr"/>
       <c r="DP36" t="inlineStr"/>
       <c r="DQ36" t="inlineStr"/>
-      <c r="DR36" t="inlineStr"/>
+      <c r="DR36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DS36" t="inlineStr"/>
       <c r="DT36" t="inlineStr"/>
       <c r="DU36" t="inlineStr"/>
@@ -7167,6 +7450,13 @@
       <c r="EH36" t="inlineStr"/>
       <c r="EI36" t="inlineStr"/>
       <c r="EJ36" t="inlineStr"/>
+      <c r="EK36" t="inlineStr"/>
+      <c r="EL36" t="inlineStr"/>
+      <c r="EM36" t="inlineStr"/>
+      <c r="EN36" t="inlineStr"/>
+      <c r="EO36" t="inlineStr"/>
+      <c r="EP36" t="inlineStr"/>
+      <c r="EQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7181,7 +7471,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -7318,7 +7608,11 @@
       <c r="DO37" t="inlineStr"/>
       <c r="DP37" t="inlineStr"/>
       <c r="DQ37" t="inlineStr"/>
-      <c r="DR37" t="inlineStr"/>
+      <c r="DR37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DS37" t="inlineStr"/>
       <c r="DT37" t="inlineStr"/>
       <c r="DU37" t="inlineStr"/>
@@ -7337,6 +7631,13 @@
       <c r="EH37" t="inlineStr"/>
       <c r="EI37" t="inlineStr"/>
       <c r="EJ37" t="inlineStr"/>
+      <c r="EK37" t="inlineStr"/>
+      <c r="EL37" t="inlineStr"/>
+      <c r="EM37" t="inlineStr"/>
+      <c r="EN37" t="inlineStr"/>
+      <c r="EO37" t="inlineStr"/>
+      <c r="EP37" t="inlineStr"/>
+      <c r="EQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7511,6 +7812,13 @@
       <c r="EH38" t="inlineStr"/>
       <c r="EI38" t="inlineStr"/>
       <c r="EJ38" t="inlineStr"/>
+      <c r="EK38" t="inlineStr"/>
+      <c r="EL38" t="inlineStr"/>
+      <c r="EM38" t="inlineStr"/>
+      <c r="EN38" t="inlineStr"/>
+      <c r="EO38" t="inlineStr"/>
+      <c r="EP38" t="inlineStr"/>
+      <c r="EQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7689,6 +7997,13 @@
       <c r="EH39" t="inlineStr"/>
       <c r="EI39" t="inlineStr"/>
       <c r="EJ39" t="inlineStr"/>
+      <c r="EK39" t="inlineStr"/>
+      <c r="EL39" t="inlineStr"/>
+      <c r="EM39" t="inlineStr"/>
+      <c r="EN39" t="inlineStr"/>
+      <c r="EO39" t="inlineStr"/>
+      <c r="EP39" t="inlineStr"/>
+      <c r="EQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7859,6 +8174,13 @@
       <c r="EH40" t="inlineStr"/>
       <c r="EI40" t="inlineStr"/>
       <c r="EJ40" t="inlineStr"/>
+      <c r="EK40" t="inlineStr"/>
+      <c r="EL40" t="inlineStr"/>
+      <c r="EM40" t="inlineStr"/>
+      <c r="EN40" t="inlineStr"/>
+      <c r="EO40" t="inlineStr"/>
+      <c r="EP40" t="inlineStr"/>
+      <c r="EQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8021,6 +8343,13 @@
       <c r="EH41" t="inlineStr"/>
       <c r="EI41" t="inlineStr"/>
       <c r="EJ41" t="inlineStr"/>
+      <c r="EK41" t="inlineStr"/>
+      <c r="EL41" t="inlineStr"/>
+      <c r="EM41" t="inlineStr"/>
+      <c r="EN41" t="inlineStr"/>
+      <c r="EO41" t="inlineStr"/>
+      <c r="EP41" t="inlineStr"/>
+      <c r="EQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8035,14 +8364,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>27,4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>26,40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -8183,6 +8512,13 @@
       <c r="EH42" t="inlineStr"/>
       <c r="EI42" t="inlineStr"/>
       <c r="EJ42" t="inlineStr"/>
+      <c r="EK42" t="inlineStr"/>
+      <c r="EL42" t="inlineStr"/>
+      <c r="EM42" t="inlineStr"/>
+      <c r="EN42" t="inlineStr"/>
+      <c r="EO42" t="inlineStr"/>
+      <c r="EP42" t="inlineStr"/>
+      <c r="EQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8197,14 +8533,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>24,4</t>
+          <t>27,4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>26,40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -8345,6 +8681,13 @@
       <c r="EH43" t="inlineStr"/>
       <c r="EI43" t="inlineStr"/>
       <c r="EJ43" t="inlineStr"/>
+      <c r="EK43" t="inlineStr"/>
+      <c r="EL43" t="inlineStr"/>
+      <c r="EM43" t="inlineStr"/>
+      <c r="EN43" t="inlineStr"/>
+      <c r="EO43" t="inlineStr"/>
+      <c r="EP43" t="inlineStr"/>
+      <c r="EQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8359,14 +8702,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23,4</t>
+          <t>26,4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>26,40</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -8503,6 +8846,13 @@
       <c r="EH44" t="inlineStr"/>
       <c r="EI44" t="inlineStr"/>
       <c r="EJ44" t="inlineStr"/>
+      <c r="EK44" t="inlineStr"/>
+      <c r="EL44" t="inlineStr"/>
+      <c r="EM44" t="inlineStr"/>
+      <c r="EN44" t="inlineStr"/>
+      <c r="EO44" t="inlineStr"/>
+      <c r="EP44" t="inlineStr"/>
+      <c r="EQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8517,14 +8867,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>34,4</t>
+          <t>37,4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>26,40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -8685,6 +9035,13 @@
       <c r="EH45" t="inlineStr"/>
       <c r="EI45" t="inlineStr"/>
       <c r="EJ45" t="inlineStr"/>
+      <c r="EK45" t="inlineStr"/>
+      <c r="EL45" t="inlineStr"/>
+      <c r="EM45" t="inlineStr"/>
+      <c r="EN45" t="inlineStr"/>
+      <c r="EO45" t="inlineStr"/>
+      <c r="EP45" t="inlineStr"/>
+      <c r="EQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8851,6 +9208,13 @@
       <c r="EH46" t="inlineStr"/>
       <c r="EI46" t="inlineStr"/>
       <c r="EJ46" t="inlineStr"/>
+      <c r="EK46" t="inlineStr"/>
+      <c r="EL46" t="inlineStr"/>
+      <c r="EM46" t="inlineStr"/>
+      <c r="EN46" t="inlineStr"/>
+      <c r="EO46" t="inlineStr"/>
+      <c r="EP46" t="inlineStr"/>
+      <c r="EQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9013,6 +9377,13 @@
       <c r="EH47" t="inlineStr"/>
       <c r="EI47" t="inlineStr"/>
       <c r="EJ47" t="inlineStr"/>
+      <c r="EK47" t="inlineStr"/>
+      <c r="EL47" t="inlineStr"/>
+      <c r="EM47" t="inlineStr"/>
+      <c r="EN47" t="inlineStr"/>
+      <c r="EO47" t="inlineStr"/>
+      <c r="EP47" t="inlineStr"/>
+      <c r="EQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9171,6 +9542,13 @@
       <c r="EH48" t="inlineStr"/>
       <c r="EI48" t="inlineStr"/>
       <c r="EJ48" t="inlineStr"/>
+      <c r="EK48" t="inlineStr"/>
+      <c r="EL48" t="inlineStr"/>
+      <c r="EM48" t="inlineStr"/>
+      <c r="EN48" t="inlineStr"/>
+      <c r="EO48" t="inlineStr"/>
+      <c r="EP48" t="inlineStr"/>
+      <c r="EQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9333,6 +9711,13 @@
       <c r="EH49" t="inlineStr"/>
       <c r="EI49" t="inlineStr"/>
       <c r="EJ49" t="inlineStr"/>
+      <c r="EK49" t="inlineStr"/>
+      <c r="EL49" t="inlineStr"/>
+      <c r="EM49" t="inlineStr"/>
+      <c r="EN49" t="inlineStr"/>
+      <c r="EO49" t="inlineStr"/>
+      <c r="EP49" t="inlineStr"/>
+      <c r="EQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9491,6 +9876,13 @@
       <c r="EH50" t="inlineStr"/>
       <c r="EI50" t="inlineStr"/>
       <c r="EJ50" t="inlineStr"/>
+      <c r="EK50" t="inlineStr"/>
+      <c r="EL50" t="inlineStr"/>
+      <c r="EM50" t="inlineStr"/>
+      <c r="EN50" t="inlineStr"/>
+      <c r="EO50" t="inlineStr"/>
+      <c r="EP50" t="inlineStr"/>
+      <c r="EQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9640,14 +10032,14 @@
       <c r="DU51" t="inlineStr"/>
       <c r="DV51" t="inlineStr"/>
       <c r="DW51" t="inlineStr"/>
-      <c r="DX51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="DX51" t="inlineStr"/>
       <c r="DY51" t="inlineStr"/>
       <c r="DZ51" t="inlineStr"/>
-      <c r="EA51" t="inlineStr"/>
+      <c r="EA51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="EB51" t="inlineStr"/>
       <c r="EC51" t="inlineStr"/>
       <c r="ED51" t="inlineStr"/>
@@ -9657,6 +10049,13 @@
       <c r="EH51" t="inlineStr"/>
       <c r="EI51" t="inlineStr"/>
       <c r="EJ51" t="inlineStr"/>
+      <c r="EK51" t="inlineStr"/>
+      <c r="EL51" t="inlineStr"/>
+      <c r="EM51" t="inlineStr"/>
+      <c r="EN51" t="inlineStr"/>
+      <c r="EO51" t="inlineStr"/>
+      <c r="EP51" t="inlineStr"/>
+      <c r="EQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9815,6 +10214,13 @@
       <c r="EH52" t="inlineStr"/>
       <c r="EI52" t="inlineStr"/>
       <c r="EJ52" t="inlineStr"/>
+      <c r="EK52" t="inlineStr"/>
+      <c r="EL52" t="inlineStr"/>
+      <c r="EM52" t="inlineStr"/>
+      <c r="EN52" t="inlineStr"/>
+      <c r="EO52" t="inlineStr"/>
+      <c r="EP52" t="inlineStr"/>
+      <c r="EQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9969,6 +10375,13 @@
       <c r="EH53" t="inlineStr"/>
       <c r="EI53" t="inlineStr"/>
       <c r="EJ53" t="inlineStr"/>
+      <c r="EK53" t="inlineStr"/>
+      <c r="EL53" t="inlineStr"/>
+      <c r="EM53" t="inlineStr"/>
+      <c r="EN53" t="inlineStr"/>
+      <c r="EO53" t="inlineStr"/>
+      <c r="EP53" t="inlineStr"/>
+      <c r="EQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10143,6 +10556,13 @@
       <c r="EH54" t="inlineStr"/>
       <c r="EI54" t="inlineStr"/>
       <c r="EJ54" t="inlineStr"/>
+      <c r="EK54" t="inlineStr"/>
+      <c r="EL54" t="inlineStr"/>
+      <c r="EM54" t="inlineStr"/>
+      <c r="EN54" t="inlineStr"/>
+      <c r="EO54" t="inlineStr"/>
+      <c r="EP54" t="inlineStr"/>
+      <c r="EQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10301,6 +10721,13 @@
       <c r="EH55" t="inlineStr"/>
       <c r="EI55" t="inlineStr"/>
       <c r="EJ55" t="inlineStr"/>
+      <c r="EK55" t="inlineStr"/>
+      <c r="EL55" t="inlineStr"/>
+      <c r="EM55" t="inlineStr"/>
+      <c r="EN55" t="inlineStr"/>
+      <c r="EO55" t="inlineStr"/>
+      <c r="EP55" t="inlineStr"/>
+      <c r="EQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10315,7 +10742,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>57,2</t>
+          <t>105,2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -10463,26 +10890,53 @@
       <c r="DZ56" t="inlineStr"/>
       <c r="EA56" t="inlineStr"/>
       <c r="EB56" t="inlineStr"/>
-      <c r="EC56" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="ED56" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EE56" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="EC56" t="inlineStr"/>
+      <c r="ED56" t="inlineStr"/>
+      <c r="EE56" t="inlineStr"/>
       <c r="EF56" t="inlineStr"/>
       <c r="EG56" t="inlineStr"/>
       <c r="EH56" t="inlineStr"/>
       <c r="EI56" t="inlineStr"/>
-      <c r="EJ56" t="inlineStr"/>
+      <c r="EJ56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="EK56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EL56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EM56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EN56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EO56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EP56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="EQ56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10641,6 +11095,13 @@
       <c r="EH57" t="inlineStr"/>
       <c r="EI57" t="inlineStr"/>
       <c r="EJ57" t="inlineStr"/>
+      <c r="EK57" t="inlineStr"/>
+      <c r="EL57" t="inlineStr"/>
+      <c r="EM57" t="inlineStr"/>
+      <c r="EN57" t="inlineStr"/>
+      <c r="EO57" t="inlineStr"/>
+      <c r="EP57" t="inlineStr"/>
+      <c r="EQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10799,6 +11260,13 @@
       <c r="EH58" t="inlineStr"/>
       <c r="EI58" t="inlineStr"/>
       <c r="EJ58" t="inlineStr"/>
+      <c r="EK58" t="inlineStr"/>
+      <c r="EL58" t="inlineStr"/>
+      <c r="EM58" t="inlineStr"/>
+      <c r="EN58" t="inlineStr"/>
+      <c r="EO58" t="inlineStr"/>
+      <c r="EP58" t="inlineStr"/>
+      <c r="EQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10953,6 +11421,13 @@
       <c r="EH59" t="inlineStr"/>
       <c r="EI59" t="inlineStr"/>
       <c r="EJ59" t="inlineStr"/>
+      <c r="EK59" t="inlineStr"/>
+      <c r="EL59" t="inlineStr"/>
+      <c r="EM59" t="inlineStr"/>
+      <c r="EN59" t="inlineStr"/>
+      <c r="EO59" t="inlineStr"/>
+      <c r="EP59" t="inlineStr"/>
+      <c r="EQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11092,14 +11567,14 @@
       <c r="DO60" t="inlineStr"/>
       <c r="DP60" t="inlineStr"/>
       <c r="DQ60" t="inlineStr"/>
-      <c r="DR60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DR60" t="inlineStr"/>
       <c r="DS60" t="inlineStr"/>
       <c r="DT60" t="inlineStr"/>
-      <c r="DU60" t="inlineStr"/>
+      <c r="DU60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="DV60" t="inlineStr"/>
       <c r="DW60" t="inlineStr"/>
       <c r="DX60" t="inlineStr"/>
@@ -11115,6 +11590,13 @@
       <c r="EH60" t="inlineStr"/>
       <c r="EI60" t="inlineStr"/>
       <c r="EJ60" t="inlineStr"/>
+      <c r="EK60" t="inlineStr"/>
+      <c r="EL60" t="inlineStr"/>
+      <c r="EM60" t="inlineStr"/>
+      <c r="EN60" t="inlineStr"/>
+      <c r="EO60" t="inlineStr"/>
+      <c r="EP60" t="inlineStr"/>
+      <c r="EQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11281,6 +11763,13 @@
       <c r="EH61" t="inlineStr"/>
       <c r="EI61" t="inlineStr"/>
       <c r="EJ61" t="inlineStr"/>
+      <c r="EK61" t="inlineStr"/>
+      <c r="EL61" t="inlineStr"/>
+      <c r="EM61" t="inlineStr"/>
+      <c r="EN61" t="inlineStr"/>
+      <c r="EO61" t="inlineStr"/>
+      <c r="EP61" t="inlineStr"/>
+      <c r="EQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11439,6 +11928,13 @@
       <c r="EH62" t="inlineStr"/>
       <c r="EI62" t="inlineStr"/>
       <c r="EJ62" t="inlineStr"/>
+      <c r="EK62" t="inlineStr"/>
+      <c r="EL62" t="inlineStr"/>
+      <c r="EM62" t="inlineStr"/>
+      <c r="EN62" t="inlineStr"/>
+      <c r="EO62" t="inlineStr"/>
+      <c r="EP62" t="inlineStr"/>
+      <c r="EQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11597,6 +12093,13 @@
       <c r="EH63" t="inlineStr"/>
       <c r="EI63" t="inlineStr"/>
       <c r="EJ63" t="inlineStr"/>
+      <c r="EK63" t="inlineStr"/>
+      <c r="EL63" t="inlineStr"/>
+      <c r="EM63" t="inlineStr"/>
+      <c r="EN63" t="inlineStr"/>
+      <c r="EO63" t="inlineStr"/>
+      <c r="EP63" t="inlineStr"/>
+      <c r="EQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11755,6 +12258,13 @@
       <c r="EH64" t="inlineStr"/>
       <c r="EI64" t="inlineStr"/>
       <c r="EJ64" t="inlineStr"/>
+      <c r="EK64" t="inlineStr"/>
+      <c r="EL64" t="inlineStr"/>
+      <c r="EM64" t="inlineStr"/>
+      <c r="EN64" t="inlineStr"/>
+      <c r="EO64" t="inlineStr"/>
+      <c r="EP64" t="inlineStr"/>
+      <c r="EQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11913,6 +12423,13 @@
       <c r="EH65" t="inlineStr"/>
       <c r="EI65" t="inlineStr"/>
       <c r="EJ65" t="inlineStr"/>
+      <c r="EK65" t="inlineStr"/>
+      <c r="EL65" t="inlineStr"/>
+      <c r="EM65" t="inlineStr"/>
+      <c r="EN65" t="inlineStr"/>
+      <c r="EO65" t="inlineStr"/>
+      <c r="EP65" t="inlineStr"/>
+      <c r="EQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12071,6 +12588,13 @@
       <c r="EH66" t="inlineStr"/>
       <c r="EI66" t="inlineStr"/>
       <c r="EJ66" t="inlineStr"/>
+      <c r="EK66" t="inlineStr"/>
+      <c r="EL66" t="inlineStr"/>
+      <c r="EM66" t="inlineStr"/>
+      <c r="EN66" t="inlineStr"/>
+      <c r="EO66" t="inlineStr"/>
+      <c r="EP66" t="inlineStr"/>
+      <c r="EQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12229,6 +12753,13 @@
       <c r="EH67" t="inlineStr"/>
       <c r="EI67" t="inlineStr"/>
       <c r="EJ67" t="inlineStr"/>
+      <c r="EK67" t="inlineStr"/>
+      <c r="EL67" t="inlineStr"/>
+      <c r="EM67" t="inlineStr"/>
+      <c r="EN67" t="inlineStr"/>
+      <c r="EO67" t="inlineStr"/>
+      <c r="EP67" t="inlineStr"/>
+      <c r="EQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12391,6 +12922,13 @@
       <c r="EH68" t="inlineStr"/>
       <c r="EI68" t="inlineStr"/>
       <c r="EJ68" t="inlineStr"/>
+      <c r="EK68" t="inlineStr"/>
+      <c r="EL68" t="inlineStr"/>
+      <c r="EM68" t="inlineStr"/>
+      <c r="EN68" t="inlineStr"/>
+      <c r="EO68" t="inlineStr"/>
+      <c r="EP68" t="inlineStr"/>
+      <c r="EQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12553,6 +13091,13 @@
       <c r="EH69" t="inlineStr"/>
       <c r="EI69" t="inlineStr"/>
       <c r="EJ69" t="inlineStr"/>
+      <c r="EK69" t="inlineStr"/>
+      <c r="EL69" t="inlineStr"/>
+      <c r="EM69" t="inlineStr"/>
+      <c r="EN69" t="inlineStr"/>
+      <c r="EO69" t="inlineStr"/>
+      <c r="EP69" t="inlineStr"/>
+      <c r="EQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12715,6 +13260,13 @@
       <c r="EH70" t="inlineStr"/>
       <c r="EI70" t="inlineStr"/>
       <c r="EJ70" t="inlineStr"/>
+      <c r="EK70" t="inlineStr"/>
+      <c r="EL70" t="inlineStr"/>
+      <c r="EM70" t="inlineStr"/>
+      <c r="EN70" t="inlineStr"/>
+      <c r="EO70" t="inlineStr"/>
+      <c r="EP70" t="inlineStr"/>
+      <c r="EQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12868,35 +13420,42 @@
       <c r="DY71" t="inlineStr"/>
       <c r="DZ71" t="inlineStr"/>
       <c r="EA71" t="inlineStr"/>
-      <c r="EB71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EC71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="ED71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EE71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EF71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="EB71" t="inlineStr"/>
+      <c r="EC71" t="inlineStr"/>
+      <c r="ED71" t="inlineStr"/>
+      <c r="EE71" t="inlineStr"/>
+      <c r="EF71" t="inlineStr"/>
       <c r="EG71" t="inlineStr"/>
       <c r="EH71" t="inlineStr"/>
-      <c r="EI71" t="inlineStr"/>
-      <c r="EJ71" t="inlineStr"/>
+      <c r="EI71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EJ71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EK71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EL71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EM71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EN71" t="inlineStr"/>
+      <c r="EO71" t="inlineStr"/>
+      <c r="EP71" t="inlineStr"/>
+      <c r="EQ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13063,6 +13622,13 @@
       <c r="EH72" t="inlineStr"/>
       <c r="EI72" t="inlineStr"/>
       <c r="EJ72" t="inlineStr"/>
+      <c r="EK72" t="inlineStr"/>
+      <c r="EL72" t="inlineStr"/>
+      <c r="EM72" t="inlineStr"/>
+      <c r="EN72" t="inlineStr"/>
+      <c r="EO72" t="inlineStr"/>
+      <c r="EP72" t="inlineStr"/>
+      <c r="EQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13225,6 +13791,13 @@
       <c r="EH73" t="inlineStr"/>
       <c r="EI73" t="inlineStr"/>
       <c r="EJ73" t="inlineStr"/>
+      <c r="EK73" t="inlineStr"/>
+      <c r="EL73" t="inlineStr"/>
+      <c r="EM73" t="inlineStr"/>
+      <c r="EN73" t="inlineStr"/>
+      <c r="EO73" t="inlineStr"/>
+      <c r="EP73" t="inlineStr"/>
+      <c r="EQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13383,6 +13956,13 @@
       <c r="EH74" t="inlineStr"/>
       <c r="EI74" t="inlineStr"/>
       <c r="EJ74" t="inlineStr"/>
+      <c r="EK74" t="inlineStr"/>
+      <c r="EL74" t="inlineStr"/>
+      <c r="EM74" t="inlineStr"/>
+      <c r="EN74" t="inlineStr"/>
+      <c r="EO74" t="inlineStr"/>
+      <c r="EP74" t="inlineStr"/>
+      <c r="EQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13397,7 +13977,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>76,7</t>
+          <t>80,7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -13600,11 +14180,7 @@
       </c>
       <c r="DN75" t="inlineStr"/>
       <c r="DO75" t="inlineStr"/>
-      <c r="DP75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DP75" t="inlineStr"/>
       <c r="DQ75" t="inlineStr">
         <is>
           <t>2</t>
@@ -13612,31 +14188,54 @@
       </c>
       <c r="DR75" t="inlineStr"/>
       <c r="DS75" t="inlineStr"/>
-      <c r="DT75" t="inlineStr"/>
-      <c r="DU75" t="inlineStr">
+      <c r="DT75" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
+      <c r="DU75" t="inlineStr"/>
       <c r="DV75" t="inlineStr"/>
-      <c r="DW75" t="inlineStr">
+      <c r="DW75" t="inlineStr"/>
+      <c r="DX75" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DX75" t="inlineStr"/>
       <c r="DY75" t="inlineStr"/>
-      <c r="DZ75" t="inlineStr"/>
+      <c r="DZ75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA75" t="inlineStr"/>
-      <c r="EB75" t="inlineStr"/>
+      <c r="EB75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EC75" t="inlineStr"/>
-      <c r="ED75" t="inlineStr"/>
-      <c r="EE75" t="inlineStr"/>
+      <c r="ED75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EE75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EF75" t="inlineStr"/>
       <c r="EG75" t="inlineStr"/>
       <c r="EH75" t="inlineStr"/>
       <c r="EI75" t="inlineStr"/>
       <c r="EJ75" t="inlineStr"/>
+      <c r="EK75" t="inlineStr"/>
+      <c r="EL75" t="inlineStr"/>
+      <c r="EM75" t="inlineStr"/>
+      <c r="EN75" t="inlineStr"/>
+      <c r="EO75" t="inlineStr"/>
+      <c r="EP75" t="inlineStr"/>
+      <c r="EQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13843,6 +14442,13 @@
       <c r="EH76" t="inlineStr"/>
       <c r="EI76" t="inlineStr"/>
       <c r="EJ76" t="inlineStr"/>
+      <c r="EK76" t="inlineStr"/>
+      <c r="EL76" t="inlineStr"/>
+      <c r="EM76" t="inlineStr"/>
+      <c r="EN76" t="inlineStr"/>
+      <c r="EO76" t="inlineStr"/>
+      <c r="EP76" t="inlineStr"/>
+      <c r="EQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14069,32 +14675,32 @@
       <c r="DN77" t="inlineStr"/>
       <c r="DO77" t="inlineStr"/>
       <c r="DP77" t="inlineStr"/>
-      <c r="DQ77" t="inlineStr">
+      <c r="DQ77" t="inlineStr"/>
+      <c r="DR77" t="inlineStr"/>
+      <c r="DS77" t="inlineStr"/>
+      <c r="DT77" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DR77" t="inlineStr">
+      <c r="DU77" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DS77" t="inlineStr"/>
-      <c r="DT77" t="inlineStr"/>
-      <c r="DU77" t="inlineStr">
+      <c r="DV77" t="inlineStr"/>
+      <c r="DW77" t="inlineStr"/>
+      <c r="DX77" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DV77" t="inlineStr"/>
-      <c r="DW77" t="inlineStr">
+      <c r="DY77" t="inlineStr"/>
+      <c r="DZ77" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DX77" t="inlineStr"/>
-      <c r="DY77" t="inlineStr"/>
-      <c r="DZ77" t="inlineStr"/>
       <c r="EA77" t="inlineStr"/>
       <c r="EB77" t="inlineStr"/>
       <c r="EC77" t="inlineStr"/>
@@ -14105,6 +14711,13 @@
       <c r="EH77" t="inlineStr"/>
       <c r="EI77" t="inlineStr"/>
       <c r="EJ77" t="inlineStr"/>
+      <c r="EK77" t="inlineStr"/>
+      <c r="EL77" t="inlineStr"/>
+      <c r="EM77" t="inlineStr"/>
+      <c r="EN77" t="inlineStr"/>
+      <c r="EO77" t="inlineStr"/>
+      <c r="EP77" t="inlineStr"/>
+      <c r="EQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14263,6 +14876,13 @@
       <c r="EH78" t="inlineStr"/>
       <c r="EI78" t="inlineStr"/>
       <c r="EJ78" t="inlineStr"/>
+      <c r="EK78" t="inlineStr"/>
+      <c r="EL78" t="inlineStr"/>
+      <c r="EM78" t="inlineStr"/>
+      <c r="EN78" t="inlineStr"/>
+      <c r="EO78" t="inlineStr"/>
+      <c r="EP78" t="inlineStr"/>
+      <c r="EQ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14457,6 +15077,13 @@
       <c r="EH79" t="inlineStr"/>
       <c r="EI79" t="inlineStr"/>
       <c r="EJ79" t="inlineStr"/>
+      <c r="EK79" t="inlineStr"/>
+      <c r="EL79" t="inlineStr"/>
+      <c r="EM79" t="inlineStr"/>
+      <c r="EN79" t="inlineStr"/>
+      <c r="EO79" t="inlineStr"/>
+      <c r="EP79" t="inlineStr"/>
+      <c r="EQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14615,6 +15242,13 @@
       <c r="EH80" t="inlineStr"/>
       <c r="EI80" t="inlineStr"/>
       <c r="EJ80" t="inlineStr"/>
+      <c r="EK80" t="inlineStr"/>
+      <c r="EL80" t="inlineStr"/>
+      <c r="EM80" t="inlineStr"/>
+      <c r="EN80" t="inlineStr"/>
+      <c r="EO80" t="inlineStr"/>
+      <c r="EP80" t="inlineStr"/>
+      <c r="EQ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14796,20 +15430,20 @@
       <c r="DM81" t="inlineStr"/>
       <c r="DN81" t="inlineStr"/>
       <c r="DO81" t="inlineStr"/>
-      <c r="DP81" t="inlineStr">
+      <c r="DP81" t="inlineStr"/>
+      <c r="DQ81" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="DQ81" t="inlineStr"/>
-      <c r="DR81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DR81" t="inlineStr"/>
       <c r="DS81" t="inlineStr"/>
       <c r="DT81" t="inlineStr"/>
-      <c r="DU81" t="inlineStr"/>
+      <c r="DU81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DV81" t="inlineStr"/>
       <c r="DW81" t="inlineStr"/>
       <c r="DX81" t="inlineStr"/>
@@ -14825,6 +15459,13 @@
       <c r="EH81" t="inlineStr"/>
       <c r="EI81" t="inlineStr"/>
       <c r="EJ81" t="inlineStr"/>
+      <c r="EK81" t="inlineStr"/>
+      <c r="EL81" t="inlineStr"/>
+      <c r="EM81" t="inlineStr"/>
+      <c r="EN81" t="inlineStr"/>
+      <c r="EO81" t="inlineStr"/>
+      <c r="EP81" t="inlineStr"/>
+      <c r="EQ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14979,6 +15620,13 @@
       <c r="EH82" t="inlineStr"/>
       <c r="EI82" t="inlineStr"/>
       <c r="EJ82" t="inlineStr"/>
+      <c r="EK82" t="inlineStr"/>
+      <c r="EL82" t="inlineStr"/>
+      <c r="EM82" t="inlineStr"/>
+      <c r="EN82" t="inlineStr"/>
+      <c r="EO82" t="inlineStr"/>
+      <c r="EP82" t="inlineStr"/>
+      <c r="EQ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15119,12 +15767,12 @@
       <c r="DL83" t="inlineStr"/>
       <c r="DM83" t="inlineStr"/>
       <c r="DN83" t="inlineStr"/>
-      <c r="DO83" t="inlineStr">
+      <c r="DO83" t="inlineStr"/>
+      <c r="DP83" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DP83" t="inlineStr"/>
       <c r="DQ83" t="inlineStr"/>
       <c r="DR83" t="inlineStr"/>
       <c r="DS83" t="inlineStr"/>
@@ -15138,17 +15786,24 @@
       <c r="EA83" t="inlineStr"/>
       <c r="EB83" t="inlineStr"/>
       <c r="EC83" t="inlineStr"/>
-      <c r="ED83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="ED83" t="inlineStr"/>
       <c r="EE83" t="inlineStr"/>
       <c r="EF83" t="inlineStr"/>
       <c r="EG83" t="inlineStr"/>
       <c r="EH83" t="inlineStr"/>
       <c r="EI83" t="inlineStr"/>
-      <c r="EJ83" t="inlineStr">
+      <c r="EJ83" t="inlineStr"/>
+      <c r="EK83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="EL83" t="inlineStr"/>
+      <c r="EM83" t="inlineStr"/>
+      <c r="EN83" t="inlineStr"/>
+      <c r="EO83" t="inlineStr"/>
+      <c r="EP83" t="inlineStr"/>
+      <c r="EQ83" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -15314,47 +15969,54 @@
       <c r="DY84" t="inlineStr"/>
       <c r="DZ84" t="inlineStr"/>
       <c r="EA84" t="inlineStr"/>
-      <c r="EB84" t="inlineStr">
+      <c r="EB84" t="inlineStr"/>
+      <c r="EC84" t="inlineStr"/>
+      <c r="ED84" t="inlineStr"/>
+      <c r="EE84" t="inlineStr"/>
+      <c r="EF84" t="inlineStr"/>
+      <c r="EG84" t="inlineStr"/>
+      <c r="EH84" t="inlineStr"/>
+      <c r="EI84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC84" t="inlineStr">
+      <c r="EJ84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED84" t="inlineStr">
+      <c r="EK84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE84" t="inlineStr">
+      <c r="EL84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF84" t="inlineStr">
+      <c r="EM84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG84" t="inlineStr">
+      <c r="EN84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH84" t="inlineStr">
+      <c r="EO84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI84" t="inlineStr">
+      <c r="EP84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ84" t="inlineStr">
+      <c r="EQ84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -15512,14 +16174,14 @@
       <c r="DU85" t="inlineStr"/>
       <c r="DV85" t="inlineStr"/>
       <c r="DW85" t="inlineStr"/>
-      <c r="DX85" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DX85" t="inlineStr"/>
       <c r="DY85" t="inlineStr"/>
       <c r="DZ85" t="inlineStr"/>
-      <c r="EA85" t="inlineStr"/>
+      <c r="EA85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB85" t="inlineStr"/>
       <c r="EC85" t="inlineStr"/>
       <c r="ED85" t="inlineStr"/>
@@ -15529,6 +16191,13 @@
       <c r="EH85" t="inlineStr"/>
       <c r="EI85" t="inlineStr"/>
       <c r="EJ85" t="inlineStr"/>
+      <c r="EK85" t="inlineStr"/>
+      <c r="EL85" t="inlineStr"/>
+      <c r="EM85" t="inlineStr"/>
+      <c r="EN85" t="inlineStr"/>
+      <c r="EO85" t="inlineStr"/>
+      <c r="EP85" t="inlineStr"/>
+      <c r="EQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15691,6 +16360,13 @@
       <c r="EH86" t="inlineStr"/>
       <c r="EI86" t="inlineStr"/>
       <c r="EJ86" t="inlineStr"/>
+      <c r="EK86" t="inlineStr"/>
+      <c r="EL86" t="inlineStr"/>
+      <c r="EM86" t="inlineStr"/>
+      <c r="EN86" t="inlineStr"/>
+      <c r="EO86" t="inlineStr"/>
+      <c r="EP86" t="inlineStr"/>
+      <c r="EQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15849,6 +16525,13 @@
       <c r="EH87" t="inlineStr"/>
       <c r="EI87" t="inlineStr"/>
       <c r="EJ87" t="inlineStr"/>
+      <c r="EK87" t="inlineStr"/>
+      <c r="EL87" t="inlineStr"/>
+      <c r="EM87" t="inlineStr"/>
+      <c r="EN87" t="inlineStr"/>
+      <c r="EO87" t="inlineStr"/>
+      <c r="EP87" t="inlineStr"/>
+      <c r="EQ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16007,6 +16690,13 @@
       <c r="EH88" t="inlineStr"/>
       <c r="EI88" t="inlineStr"/>
       <c r="EJ88" t="inlineStr"/>
+      <c r="EK88" t="inlineStr"/>
+      <c r="EL88" t="inlineStr"/>
+      <c r="EM88" t="inlineStr"/>
+      <c r="EN88" t="inlineStr"/>
+      <c r="EO88" t="inlineStr"/>
+      <c r="EP88" t="inlineStr"/>
+      <c r="EQ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -16165,6 +16855,13 @@
       <c r="EH89" t="inlineStr"/>
       <c r="EI89" t="inlineStr"/>
       <c r="EJ89" t="inlineStr"/>
+      <c r="EK89" t="inlineStr"/>
+      <c r="EL89" t="inlineStr"/>
+      <c r="EM89" t="inlineStr"/>
+      <c r="EN89" t="inlineStr"/>
+      <c r="EO89" t="inlineStr"/>
+      <c r="EP89" t="inlineStr"/>
+      <c r="EQ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -16335,6 +17032,13 @@
       <c r="EH90" t="inlineStr"/>
       <c r="EI90" t="inlineStr"/>
       <c r="EJ90" t="inlineStr"/>
+      <c r="EK90" t="inlineStr"/>
+      <c r="EL90" t="inlineStr"/>
+      <c r="EM90" t="inlineStr"/>
+      <c r="EN90" t="inlineStr"/>
+      <c r="EO90" t="inlineStr"/>
+      <c r="EP90" t="inlineStr"/>
+      <c r="EQ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -16493,6 +17197,13 @@
       <c r="EH91" t="inlineStr"/>
       <c r="EI91" t="inlineStr"/>
       <c r="EJ91" t="inlineStr"/>
+      <c r="EK91" t="inlineStr"/>
+      <c r="EL91" t="inlineStr"/>
+      <c r="EM91" t="inlineStr"/>
+      <c r="EN91" t="inlineStr"/>
+      <c r="EO91" t="inlineStr"/>
+      <c r="EP91" t="inlineStr"/>
+      <c r="EQ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -16651,6 +17362,13 @@
       <c r="EH92" t="inlineStr"/>
       <c r="EI92" t="inlineStr"/>
       <c r="EJ92" t="inlineStr"/>
+      <c r="EK92" t="inlineStr"/>
+      <c r="EL92" t="inlineStr"/>
+      <c r="EM92" t="inlineStr"/>
+      <c r="EN92" t="inlineStr"/>
+      <c r="EO92" t="inlineStr"/>
+      <c r="EP92" t="inlineStr"/>
+      <c r="EQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16813,6 +17531,13 @@
       <c r="EH93" t="inlineStr"/>
       <c r="EI93" t="inlineStr"/>
       <c r="EJ93" t="inlineStr"/>
+      <c r="EK93" t="inlineStr"/>
+      <c r="EL93" t="inlineStr"/>
+      <c r="EM93" t="inlineStr"/>
+      <c r="EN93" t="inlineStr"/>
+      <c r="EO93" t="inlineStr"/>
+      <c r="EP93" t="inlineStr"/>
+      <c r="EQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -16991,22 +17716,29 @@
       <c r="DZ94" t="inlineStr"/>
       <c r="EA94" t="inlineStr"/>
       <c r="EB94" t="inlineStr"/>
-      <c r="EC94" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="ED94" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="EC94" t="inlineStr"/>
+      <c r="ED94" t="inlineStr"/>
       <c r="EE94" t="inlineStr"/>
       <c r="EF94" t="inlineStr"/>
       <c r="EG94" t="inlineStr"/>
       <c r="EH94" t="inlineStr"/>
       <c r="EI94" t="inlineStr"/>
-      <c r="EJ94" t="inlineStr"/>
+      <c r="EJ94" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="EK94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EL94" t="inlineStr"/>
+      <c r="EM94" t="inlineStr"/>
+      <c r="EN94" t="inlineStr"/>
+      <c r="EO94" t="inlineStr"/>
+      <c r="EP94" t="inlineStr"/>
+      <c r="EQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -17165,6 +17897,13 @@
       <c r="EH95" t="inlineStr"/>
       <c r="EI95" t="inlineStr"/>
       <c r="EJ95" t="inlineStr"/>
+      <c r="EK95" t="inlineStr"/>
+      <c r="EL95" t="inlineStr"/>
+      <c r="EM95" t="inlineStr"/>
+      <c r="EN95" t="inlineStr"/>
+      <c r="EO95" t="inlineStr"/>
+      <c r="EP95" t="inlineStr"/>
+      <c r="EQ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -17319,6 +18058,13 @@
       <c r="EH96" t="inlineStr"/>
       <c r="EI96" t="inlineStr"/>
       <c r="EJ96" t="inlineStr"/>
+      <c r="EK96" t="inlineStr"/>
+      <c r="EL96" t="inlineStr"/>
+      <c r="EM96" t="inlineStr"/>
+      <c r="EN96" t="inlineStr"/>
+      <c r="EO96" t="inlineStr"/>
+      <c r="EP96" t="inlineStr"/>
+      <c r="EQ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -17475,12 +18221,19 @@
       <c r="EF97" t="inlineStr"/>
       <c r="EG97" t="inlineStr"/>
       <c r="EH97" t="inlineStr"/>
-      <c r="EI97" t="inlineStr">
+      <c r="EI97" t="inlineStr"/>
+      <c r="EJ97" t="inlineStr"/>
+      <c r="EK97" t="inlineStr"/>
+      <c r="EL97" t="inlineStr"/>
+      <c r="EM97" t="inlineStr"/>
+      <c r="EN97" t="inlineStr"/>
+      <c r="EO97" t="inlineStr"/>
+      <c r="EP97" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ97" t="inlineStr">
+      <c r="EQ97" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -17643,6 +18396,13 @@
       <c r="EH98" t="inlineStr"/>
       <c r="EI98" t="inlineStr"/>
       <c r="EJ98" t="inlineStr"/>
+      <c r="EK98" t="inlineStr"/>
+      <c r="EL98" t="inlineStr"/>
+      <c r="EM98" t="inlineStr"/>
+      <c r="EN98" t="inlineStr"/>
+      <c r="EO98" t="inlineStr"/>
+      <c r="EP98" t="inlineStr"/>
+      <c r="EQ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -17792,47 +18552,54 @@
       <c r="DY99" t="inlineStr"/>
       <c r="DZ99" t="inlineStr"/>
       <c r="EA99" t="inlineStr"/>
-      <c r="EB99" t="inlineStr">
+      <c r="EB99" t="inlineStr"/>
+      <c r="EC99" t="inlineStr"/>
+      <c r="ED99" t="inlineStr"/>
+      <c r="EE99" t="inlineStr"/>
+      <c r="EF99" t="inlineStr"/>
+      <c r="EG99" t="inlineStr"/>
+      <c r="EH99" t="inlineStr"/>
+      <c r="EI99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC99" t="inlineStr">
+      <c r="EJ99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED99" t="inlineStr">
+      <c r="EK99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE99" t="inlineStr">
+      <c r="EL99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF99" t="inlineStr">
+      <c r="EM99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG99" t="inlineStr">
+      <c r="EN99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH99" t="inlineStr">
+      <c r="EO99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI99" t="inlineStr">
+      <c r="EP99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ99" t="inlineStr">
+      <c r="EQ99" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -17998,47 +18765,54 @@
       <c r="DY100" t="inlineStr"/>
       <c r="DZ100" t="inlineStr"/>
       <c r="EA100" t="inlineStr"/>
-      <c r="EB100" t="inlineStr">
+      <c r="EB100" t="inlineStr"/>
+      <c r="EC100" t="inlineStr"/>
+      <c r="ED100" t="inlineStr"/>
+      <c r="EE100" t="inlineStr"/>
+      <c r="EF100" t="inlineStr"/>
+      <c r="EG100" t="inlineStr"/>
+      <c r="EH100" t="inlineStr"/>
+      <c r="EI100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC100" t="inlineStr">
+      <c r="EJ100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED100" t="inlineStr">
+      <c r="EK100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE100" t="inlineStr">
+      <c r="EL100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF100" t="inlineStr">
+      <c r="EM100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG100" t="inlineStr">
+      <c r="EN100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH100" t="inlineStr">
+      <c r="EO100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI100" t="inlineStr">
+      <c r="EP100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ100" t="inlineStr">
+      <c r="EQ100" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -18205,18 +18979,25 @@
       <c r="ED101" t="inlineStr"/>
       <c r="EE101" t="inlineStr"/>
       <c r="EF101" t="inlineStr"/>
-      <c r="EG101" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="EH101" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="EG101" t="inlineStr"/>
+      <c r="EH101" t="inlineStr"/>
       <c r="EI101" t="inlineStr"/>
       <c r="EJ101" t="inlineStr"/>
+      <c r="EK101" t="inlineStr"/>
+      <c r="EL101" t="inlineStr"/>
+      <c r="EM101" t="inlineStr"/>
+      <c r="EN101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="EO101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="EP101" t="inlineStr"/>
+      <c r="EQ101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -18387,6 +19168,13 @@
       <c r="EH102" t="inlineStr"/>
       <c r="EI102" t="inlineStr"/>
       <c r="EJ102" t="inlineStr"/>
+      <c r="EK102" t="inlineStr"/>
+      <c r="EL102" t="inlineStr"/>
+      <c r="EM102" t="inlineStr"/>
+      <c r="EN102" t="inlineStr"/>
+      <c r="EO102" t="inlineStr"/>
+      <c r="EP102" t="inlineStr"/>
+      <c r="EQ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -18565,6 +19353,13 @@
       <c r="EH103" t="inlineStr"/>
       <c r="EI103" t="inlineStr"/>
       <c r="EJ103" t="inlineStr"/>
+      <c r="EK103" t="inlineStr"/>
+      <c r="EL103" t="inlineStr"/>
+      <c r="EM103" t="inlineStr"/>
+      <c r="EN103" t="inlineStr"/>
+      <c r="EO103" t="inlineStr"/>
+      <c r="EP103" t="inlineStr"/>
+      <c r="EQ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -18730,14 +19525,14 @@
       <c r="DU104" t="inlineStr"/>
       <c r="DV104" t="inlineStr"/>
       <c r="DW104" t="inlineStr"/>
-      <c r="DX104" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DX104" t="inlineStr"/>
       <c r="DY104" t="inlineStr"/>
       <c r="DZ104" t="inlineStr"/>
-      <c r="EA104" t="inlineStr"/>
+      <c r="EA104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="EB104" t="inlineStr"/>
       <c r="EC104" t="inlineStr"/>
       <c r="ED104" t="inlineStr"/>
@@ -18747,6 +19542,13 @@
       <c r="EH104" t="inlineStr"/>
       <c r="EI104" t="inlineStr"/>
       <c r="EJ104" t="inlineStr"/>
+      <c r="EK104" t="inlineStr"/>
+      <c r="EL104" t="inlineStr"/>
+      <c r="EM104" t="inlineStr"/>
+      <c r="EN104" t="inlineStr"/>
+      <c r="EO104" t="inlineStr"/>
+      <c r="EP104" t="inlineStr"/>
+      <c r="EQ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -18905,6 +19707,13 @@
       <c r="EH105" t="inlineStr"/>
       <c r="EI105" t="inlineStr"/>
       <c r="EJ105" t="inlineStr"/>
+      <c r="EK105" t="inlineStr"/>
+      <c r="EL105" t="inlineStr"/>
+      <c r="EM105" t="inlineStr"/>
+      <c r="EN105" t="inlineStr"/>
+      <c r="EO105" t="inlineStr"/>
+      <c r="EP105" t="inlineStr"/>
+      <c r="EQ105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -19063,6 +19872,13 @@
       <c r="EH106" t="inlineStr"/>
       <c r="EI106" t="inlineStr"/>
       <c r="EJ106" t="inlineStr"/>
+      <c r="EK106" t="inlineStr"/>
+      <c r="EL106" t="inlineStr"/>
+      <c r="EM106" t="inlineStr"/>
+      <c r="EN106" t="inlineStr"/>
+      <c r="EO106" t="inlineStr"/>
+      <c r="EP106" t="inlineStr"/>
+      <c r="EQ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -19221,6 +20037,13 @@
       <c r="EH107" t="inlineStr"/>
       <c r="EI107" t="inlineStr"/>
       <c r="EJ107" t="inlineStr"/>
+      <c r="EK107" t="inlineStr"/>
+      <c r="EL107" t="inlineStr"/>
+      <c r="EM107" t="inlineStr"/>
+      <c r="EN107" t="inlineStr"/>
+      <c r="EO107" t="inlineStr"/>
+      <c r="EP107" t="inlineStr"/>
+      <c r="EQ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -19379,6 +20202,13 @@
       <c r="EH108" t="inlineStr"/>
       <c r="EI108" t="inlineStr"/>
       <c r="EJ108" t="inlineStr"/>
+      <c r="EK108" t="inlineStr"/>
+      <c r="EL108" t="inlineStr"/>
+      <c r="EM108" t="inlineStr"/>
+      <c r="EN108" t="inlineStr"/>
+      <c r="EO108" t="inlineStr"/>
+      <c r="EP108" t="inlineStr"/>
+      <c r="EQ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -19541,6 +20371,13 @@
       <c r="EH109" t="inlineStr"/>
       <c r="EI109" t="inlineStr"/>
       <c r="EJ109" t="inlineStr"/>
+      <c r="EK109" t="inlineStr"/>
+      <c r="EL109" t="inlineStr"/>
+      <c r="EM109" t="inlineStr"/>
+      <c r="EN109" t="inlineStr"/>
+      <c r="EO109" t="inlineStr"/>
+      <c r="EP109" t="inlineStr"/>
+      <c r="EQ109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -19555,7 +20392,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>77,6</t>
+          <t>78,6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -19794,30 +20631,30 @@
       </c>
       <c r="DN110" t="inlineStr"/>
       <c r="DO110" t="inlineStr"/>
-      <c r="DP110" t="inlineStr">
+      <c r="DP110" t="inlineStr"/>
+      <c r="DQ110" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DQ110" t="inlineStr">
+      <c r="DR110" t="inlineStr"/>
+      <c r="DS110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DT110" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DR110" t="inlineStr"/>
-      <c r="DS110" t="inlineStr"/>
-      <c r="DT110" t="inlineStr">
+      <c r="DU110" t="inlineStr"/>
+      <c r="DV110" t="inlineStr"/>
+      <c r="DW110" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DU110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="DV110" t="inlineStr"/>
-      <c r="DW110" t="inlineStr"/>
       <c r="DX110" t="inlineStr">
         <is>
           <t>2</t>
@@ -19825,7 +20662,11 @@
       </c>
       <c r="DY110" t="inlineStr"/>
       <c r="DZ110" t="inlineStr"/>
-      <c r="EA110" t="inlineStr"/>
+      <c r="EA110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB110" t="inlineStr"/>
       <c r="EC110" t="inlineStr"/>
       <c r="ED110" t="inlineStr"/>
@@ -19835,6 +20676,13 @@
       <c r="EH110" t="inlineStr"/>
       <c r="EI110" t="inlineStr"/>
       <c r="EJ110" t="inlineStr"/>
+      <c r="EK110" t="inlineStr"/>
+      <c r="EL110" t="inlineStr"/>
+      <c r="EM110" t="inlineStr"/>
+      <c r="EN110" t="inlineStr"/>
+      <c r="EO110" t="inlineStr"/>
+      <c r="EP110" t="inlineStr"/>
+      <c r="EQ110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -19994,17 +20842,24 @@
       <c r="EA111" t="inlineStr"/>
       <c r="EB111" t="inlineStr"/>
       <c r="EC111" t="inlineStr"/>
-      <c r="ED111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="ED111" t="inlineStr"/>
       <c r="EE111" t="inlineStr"/>
       <c r="EF111" t="inlineStr"/>
       <c r="EG111" t="inlineStr"/>
       <c r="EH111" t="inlineStr"/>
       <c r="EI111" t="inlineStr"/>
-      <c r="EJ111" t="inlineStr">
+      <c r="EJ111" t="inlineStr"/>
+      <c r="EK111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL111" t="inlineStr"/>
+      <c r="EM111" t="inlineStr"/>
+      <c r="EN111" t="inlineStr"/>
+      <c r="EO111" t="inlineStr"/>
+      <c r="EP111" t="inlineStr"/>
+      <c r="EQ111" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -20175,25 +21030,25 @@
       <c r="DN112" t="inlineStr"/>
       <c r="DO112" t="inlineStr"/>
       <c r="DP112" t="inlineStr"/>
-      <c r="DQ112" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DQ112" t="inlineStr"/>
       <c r="DR112" t="inlineStr"/>
       <c r="DS112" t="inlineStr"/>
-      <c r="DT112" t="inlineStr"/>
+      <c r="DT112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="DU112" t="inlineStr"/>
       <c r="DV112" t="inlineStr"/>
       <c r="DW112" t="inlineStr"/>
-      <c r="DX112" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DX112" t="inlineStr"/>
       <c r="DY112" t="inlineStr"/>
       <c r="DZ112" t="inlineStr"/>
-      <c r="EA112" t="inlineStr"/>
+      <c r="EA112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="EB112" t="inlineStr"/>
       <c r="EC112" t="inlineStr"/>
       <c r="ED112" t="inlineStr"/>
@@ -20203,6 +21058,13 @@
       <c r="EH112" t="inlineStr"/>
       <c r="EI112" t="inlineStr"/>
       <c r="EJ112" t="inlineStr"/>
+      <c r="EK112" t="inlineStr"/>
+      <c r="EL112" t="inlineStr"/>
+      <c r="EM112" t="inlineStr"/>
+      <c r="EN112" t="inlineStr"/>
+      <c r="EO112" t="inlineStr"/>
+      <c r="EP112" t="inlineStr"/>
+      <c r="EQ112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -20381,6 +21243,13 @@
       <c r="EH113" t="inlineStr"/>
       <c r="EI113" t="inlineStr"/>
       <c r="EJ113" t="inlineStr"/>
+      <c r="EK113" t="inlineStr"/>
+      <c r="EL113" t="inlineStr"/>
+      <c r="EM113" t="inlineStr"/>
+      <c r="EN113" t="inlineStr"/>
+      <c r="EO113" t="inlineStr"/>
+      <c r="EP113" t="inlineStr"/>
+      <c r="EQ113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -20543,6 +21412,13 @@
       <c r="EH114" t="inlineStr"/>
       <c r="EI114" t="inlineStr"/>
       <c r="EJ114" t="inlineStr"/>
+      <c r="EK114" t="inlineStr"/>
+      <c r="EL114" t="inlineStr"/>
+      <c r="EM114" t="inlineStr"/>
+      <c r="EN114" t="inlineStr"/>
+      <c r="EO114" t="inlineStr"/>
+      <c r="EP114" t="inlineStr"/>
+      <c r="EQ114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -20705,6 +21581,13 @@
       <c r="EH115" t="inlineStr"/>
       <c r="EI115" t="inlineStr"/>
       <c r="EJ115" t="inlineStr"/>
+      <c r="EK115" t="inlineStr"/>
+      <c r="EL115" t="inlineStr"/>
+      <c r="EM115" t="inlineStr"/>
+      <c r="EN115" t="inlineStr"/>
+      <c r="EO115" t="inlineStr"/>
+      <c r="EP115" t="inlineStr"/>
+      <c r="EQ115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -20859,6 +21742,13 @@
       <c r="EH116" t="inlineStr"/>
       <c r="EI116" t="inlineStr"/>
       <c r="EJ116" t="inlineStr"/>
+      <c r="EK116" t="inlineStr"/>
+      <c r="EL116" t="inlineStr"/>
+      <c r="EM116" t="inlineStr"/>
+      <c r="EN116" t="inlineStr"/>
+      <c r="EO116" t="inlineStr"/>
+      <c r="EP116" t="inlineStr"/>
+      <c r="EQ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -21013,6 +21903,13 @@
       <c r="EH117" t="inlineStr"/>
       <c r="EI117" t="inlineStr"/>
       <c r="EJ117" t="inlineStr"/>
+      <c r="EK117" t="inlineStr"/>
+      <c r="EL117" t="inlineStr"/>
+      <c r="EM117" t="inlineStr"/>
+      <c r="EN117" t="inlineStr"/>
+      <c r="EO117" t="inlineStr"/>
+      <c r="EP117" t="inlineStr"/>
+      <c r="EQ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -21171,6 +22068,13 @@
       <c r="EH118" t="inlineStr"/>
       <c r="EI118" t="inlineStr"/>
       <c r="EJ118" t="inlineStr"/>
+      <c r="EK118" t="inlineStr"/>
+      <c r="EL118" t="inlineStr"/>
+      <c r="EM118" t="inlineStr"/>
+      <c r="EN118" t="inlineStr"/>
+      <c r="EO118" t="inlineStr"/>
+      <c r="EP118" t="inlineStr"/>
+      <c r="EQ118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -21361,6 +22265,13 @@
       <c r="EH119" t="inlineStr"/>
       <c r="EI119" t="inlineStr"/>
       <c r="EJ119" t="inlineStr"/>
+      <c r="EK119" t="inlineStr"/>
+      <c r="EL119" t="inlineStr"/>
+      <c r="EM119" t="inlineStr"/>
+      <c r="EN119" t="inlineStr"/>
+      <c r="EO119" t="inlineStr"/>
+      <c r="EP119" t="inlineStr"/>
+      <c r="EQ119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -21535,6 +22446,13 @@
       <c r="EH120" t="inlineStr"/>
       <c r="EI120" t="inlineStr"/>
       <c r="EJ120" t="inlineStr"/>
+      <c r="EK120" t="inlineStr"/>
+      <c r="EL120" t="inlineStr"/>
+      <c r="EM120" t="inlineStr"/>
+      <c r="EN120" t="inlineStr"/>
+      <c r="EO120" t="inlineStr"/>
+      <c r="EP120" t="inlineStr"/>
+      <c r="EQ120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -21549,7 +22467,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>55,6</t>
+          <t>57,6</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -21711,14 +22629,14 @@
       <c r="DP121" t="inlineStr"/>
       <c r="DQ121" t="inlineStr"/>
       <c r="DR121" t="inlineStr"/>
-      <c r="DS121" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DS121" t="inlineStr"/>
       <c r="DT121" t="inlineStr"/>
       <c r="DU121" t="inlineStr"/>
-      <c r="DV121" t="inlineStr"/>
+      <c r="DV121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="DW121" t="inlineStr"/>
       <c r="DX121" t="inlineStr"/>
       <c r="DY121" t="inlineStr"/>
@@ -21727,12 +22645,23 @@
       <c r="EB121" t="inlineStr"/>
       <c r="EC121" t="inlineStr"/>
       <c r="ED121" t="inlineStr"/>
-      <c r="EE121" t="inlineStr"/>
+      <c r="EE121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EF121" t="inlineStr"/>
       <c r="EG121" t="inlineStr"/>
       <c r="EH121" t="inlineStr"/>
       <c r="EI121" t="inlineStr"/>
       <c r="EJ121" t="inlineStr"/>
+      <c r="EK121" t="inlineStr"/>
+      <c r="EL121" t="inlineStr"/>
+      <c r="EM121" t="inlineStr"/>
+      <c r="EN121" t="inlineStr"/>
+      <c r="EO121" t="inlineStr"/>
+      <c r="EP121" t="inlineStr"/>
+      <c r="EQ121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -21911,6 +22840,13 @@
       <c r="EH122" t="inlineStr"/>
       <c r="EI122" t="inlineStr"/>
       <c r="EJ122" t="inlineStr"/>
+      <c r="EK122" t="inlineStr"/>
+      <c r="EL122" t="inlineStr"/>
+      <c r="EM122" t="inlineStr"/>
+      <c r="EN122" t="inlineStr"/>
+      <c r="EO122" t="inlineStr"/>
+      <c r="EP122" t="inlineStr"/>
+      <c r="EQ122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -22090,14 +23026,14 @@
       <c r="DO123" t="inlineStr"/>
       <c r="DP123" t="inlineStr"/>
       <c r="DQ123" t="inlineStr"/>
-      <c r="DR123" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DR123" t="inlineStr"/>
       <c r="DS123" t="inlineStr"/>
       <c r="DT123" t="inlineStr"/>
-      <c r="DU123" t="inlineStr"/>
+      <c r="DU123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="DV123" t="inlineStr"/>
       <c r="DW123" t="inlineStr"/>
       <c r="DX123" t="inlineStr"/>
@@ -22113,6 +23049,13 @@
       <c r="EH123" t="inlineStr"/>
       <c r="EI123" t="inlineStr"/>
       <c r="EJ123" t="inlineStr"/>
+      <c r="EK123" t="inlineStr"/>
+      <c r="EL123" t="inlineStr"/>
+      <c r="EM123" t="inlineStr"/>
+      <c r="EN123" t="inlineStr"/>
+      <c r="EO123" t="inlineStr"/>
+      <c r="EP123" t="inlineStr"/>
+      <c r="EQ123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -22275,6 +23218,13 @@
       <c r="EH124" t="inlineStr"/>
       <c r="EI124" t="inlineStr"/>
       <c r="EJ124" t="inlineStr"/>
+      <c r="EK124" t="inlineStr"/>
+      <c r="EL124" t="inlineStr"/>
+      <c r="EM124" t="inlineStr"/>
+      <c r="EN124" t="inlineStr"/>
+      <c r="EO124" t="inlineStr"/>
+      <c r="EP124" t="inlineStr"/>
+      <c r="EQ124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -22428,47 +23378,54 @@
       <c r="DY125" t="inlineStr"/>
       <c r="DZ125" t="inlineStr"/>
       <c r="EA125" t="inlineStr"/>
-      <c r="EB125" t="inlineStr">
+      <c r="EB125" t="inlineStr"/>
+      <c r="EC125" t="inlineStr"/>
+      <c r="ED125" t="inlineStr"/>
+      <c r="EE125" t="inlineStr"/>
+      <c r="EF125" t="inlineStr"/>
+      <c r="EG125" t="inlineStr"/>
+      <c r="EH125" t="inlineStr"/>
+      <c r="EI125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC125" t="inlineStr">
+      <c r="EJ125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED125" t="inlineStr">
+      <c r="EK125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE125" t="inlineStr">
+      <c r="EL125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF125" t="inlineStr">
+      <c r="EM125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG125" t="inlineStr">
+      <c r="EN125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH125" t="inlineStr">
+      <c r="EO125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI125" t="inlineStr">
+      <c r="EP125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ125" t="inlineStr">
+      <c r="EQ125" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -22647,6 +23604,13 @@
       <c r="EH126" t="inlineStr"/>
       <c r="EI126" t="inlineStr"/>
       <c r="EJ126" t="inlineStr"/>
+      <c r="EK126" t="inlineStr"/>
+      <c r="EL126" t="inlineStr"/>
+      <c r="EM126" t="inlineStr"/>
+      <c r="EN126" t="inlineStr"/>
+      <c r="EO126" t="inlineStr"/>
+      <c r="EP126" t="inlineStr"/>
+      <c r="EQ126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -22805,6 +23769,13 @@
       <c r="EH127" t="inlineStr"/>
       <c r="EI127" t="inlineStr"/>
       <c r="EJ127" t="inlineStr"/>
+      <c r="EK127" t="inlineStr"/>
+      <c r="EL127" t="inlineStr"/>
+      <c r="EM127" t="inlineStr"/>
+      <c r="EN127" t="inlineStr"/>
+      <c r="EO127" t="inlineStr"/>
+      <c r="EP127" t="inlineStr"/>
+      <c r="EQ127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -22963,6 +23934,13 @@
       <c r="EH128" t="inlineStr"/>
       <c r="EI128" t="inlineStr"/>
       <c r="EJ128" t="inlineStr"/>
+      <c r="EK128" t="inlineStr"/>
+      <c r="EL128" t="inlineStr"/>
+      <c r="EM128" t="inlineStr"/>
+      <c r="EN128" t="inlineStr"/>
+      <c r="EO128" t="inlineStr"/>
+      <c r="EP128" t="inlineStr"/>
+      <c r="EQ128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -23125,6 +24103,13 @@
       <c r="EH129" t="inlineStr"/>
       <c r="EI129" t="inlineStr"/>
       <c r="EJ129" t="inlineStr"/>
+      <c r="EK129" t="inlineStr"/>
+      <c r="EL129" t="inlineStr"/>
+      <c r="EM129" t="inlineStr"/>
+      <c r="EN129" t="inlineStr"/>
+      <c r="EO129" t="inlineStr"/>
+      <c r="EP129" t="inlineStr"/>
+      <c r="EQ129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -23278,35 +24263,42 @@
       <c r="DY130" t="inlineStr"/>
       <c r="DZ130" t="inlineStr"/>
       <c r="EA130" t="inlineStr"/>
-      <c r="EB130" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EC130" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="ED130" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EE130" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EF130" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="EB130" t="inlineStr"/>
+      <c r="EC130" t="inlineStr"/>
+      <c r="ED130" t="inlineStr"/>
+      <c r="EE130" t="inlineStr"/>
+      <c r="EF130" t="inlineStr"/>
       <c r="EG130" t="inlineStr"/>
       <c r="EH130" t="inlineStr"/>
-      <c r="EI130" t="inlineStr"/>
-      <c r="EJ130" t="inlineStr"/>
+      <c r="EI130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EJ130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EK130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EL130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EM130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EN130" t="inlineStr"/>
+      <c r="EO130" t="inlineStr"/>
+      <c r="EP130" t="inlineStr"/>
+      <c r="EQ130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -23465,6 +24457,13 @@
       <c r="EH131" t="inlineStr"/>
       <c r="EI131" t="inlineStr"/>
       <c r="EJ131" t="inlineStr"/>
+      <c r="EK131" t="inlineStr"/>
+      <c r="EL131" t="inlineStr"/>
+      <c r="EM131" t="inlineStr"/>
+      <c r="EN131" t="inlineStr"/>
+      <c r="EO131" t="inlineStr"/>
+      <c r="EP131" t="inlineStr"/>
+      <c r="EQ131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -23623,6 +24622,13 @@
       <c r="EH132" t="inlineStr"/>
       <c r="EI132" t="inlineStr"/>
       <c r="EJ132" t="inlineStr"/>
+      <c r="EK132" t="inlineStr"/>
+      <c r="EL132" t="inlineStr"/>
+      <c r="EM132" t="inlineStr"/>
+      <c r="EN132" t="inlineStr"/>
+      <c r="EO132" t="inlineStr"/>
+      <c r="EP132" t="inlineStr"/>
+      <c r="EQ132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -23789,6 +24795,13 @@
       <c r="EH133" t="inlineStr"/>
       <c r="EI133" t="inlineStr"/>
       <c r="EJ133" t="inlineStr"/>
+      <c r="EK133" t="inlineStr"/>
+      <c r="EL133" t="inlineStr"/>
+      <c r="EM133" t="inlineStr"/>
+      <c r="EN133" t="inlineStr"/>
+      <c r="EO133" t="inlineStr"/>
+      <c r="EP133" t="inlineStr"/>
+      <c r="EQ133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -23947,6 +24960,13 @@
       <c r="EH134" t="inlineStr"/>
       <c r="EI134" t="inlineStr"/>
       <c r="EJ134" t="inlineStr"/>
+      <c r="EK134" t="inlineStr"/>
+      <c r="EL134" t="inlineStr"/>
+      <c r="EM134" t="inlineStr"/>
+      <c r="EN134" t="inlineStr"/>
+      <c r="EO134" t="inlineStr"/>
+      <c r="EP134" t="inlineStr"/>
+      <c r="EQ134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -24105,6 +25125,13 @@
       <c r="EH135" t="inlineStr"/>
       <c r="EI135" t="inlineStr"/>
       <c r="EJ135" t="inlineStr"/>
+      <c r="EK135" t="inlineStr"/>
+      <c r="EL135" t="inlineStr"/>
+      <c r="EM135" t="inlineStr"/>
+      <c r="EN135" t="inlineStr"/>
+      <c r="EO135" t="inlineStr"/>
+      <c r="EP135" t="inlineStr"/>
+      <c r="EQ135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -24263,6 +25290,13 @@
       <c r="EH136" t="inlineStr"/>
       <c r="EI136" t="inlineStr"/>
       <c r="EJ136" t="inlineStr"/>
+      <c r="EK136" t="inlineStr"/>
+      <c r="EL136" t="inlineStr"/>
+      <c r="EM136" t="inlineStr"/>
+      <c r="EN136" t="inlineStr"/>
+      <c r="EO136" t="inlineStr"/>
+      <c r="EP136" t="inlineStr"/>
+      <c r="EQ136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -24425,6 +25459,13 @@
       <c r="EH137" t="inlineStr"/>
       <c r="EI137" t="inlineStr"/>
       <c r="EJ137" t="inlineStr"/>
+      <c r="EK137" t="inlineStr"/>
+      <c r="EL137" t="inlineStr"/>
+      <c r="EM137" t="inlineStr"/>
+      <c r="EN137" t="inlineStr"/>
+      <c r="EO137" t="inlineStr"/>
+      <c r="EP137" t="inlineStr"/>
+      <c r="EQ137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -24639,6 +25680,13 @@
       <c r="EH138" t="inlineStr"/>
       <c r="EI138" t="inlineStr"/>
       <c r="EJ138" t="inlineStr"/>
+      <c r="EK138" t="inlineStr"/>
+      <c r="EL138" t="inlineStr"/>
+      <c r="EM138" t="inlineStr"/>
+      <c r="EN138" t="inlineStr"/>
+      <c r="EO138" t="inlineStr"/>
+      <c r="EP138" t="inlineStr"/>
+      <c r="EQ138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -24797,6 +25845,13 @@
       <c r="EH139" t="inlineStr"/>
       <c r="EI139" t="inlineStr"/>
       <c r="EJ139" t="inlineStr"/>
+      <c r="EK139" t="inlineStr"/>
+      <c r="EL139" t="inlineStr"/>
+      <c r="EM139" t="inlineStr"/>
+      <c r="EN139" t="inlineStr"/>
+      <c r="EO139" t="inlineStr"/>
+      <c r="EP139" t="inlineStr"/>
+      <c r="EQ139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -24952,61 +26007,68 @@
       <c r="DO140" t="inlineStr"/>
       <c r="DP140" t="inlineStr"/>
       <c r="DQ140" t="inlineStr"/>
-      <c r="DR140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="DR140" t="inlineStr"/>
       <c r="DS140" t="inlineStr"/>
       <c r="DT140" t="inlineStr"/>
-      <c r="DU140" t="inlineStr"/>
+      <c r="DU140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DV140" t="inlineStr"/>
       <c r="DW140" t="inlineStr"/>
       <c r="DX140" t="inlineStr"/>
       <c r="DY140" t="inlineStr"/>
       <c r="DZ140" t="inlineStr"/>
       <c r="EA140" t="inlineStr"/>
-      <c r="EB140" t="inlineStr">
+      <c r="EB140" t="inlineStr"/>
+      <c r="EC140" t="inlineStr"/>
+      <c r="ED140" t="inlineStr"/>
+      <c r="EE140" t="inlineStr"/>
+      <c r="EF140" t="inlineStr"/>
+      <c r="EG140" t="inlineStr"/>
+      <c r="EH140" t="inlineStr"/>
+      <c r="EI140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC140" t="inlineStr">
+      <c r="EJ140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED140" t="inlineStr">
+      <c r="EK140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE140" t="inlineStr">
+      <c r="EL140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF140" t="inlineStr">
+      <c r="EM140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG140" t="inlineStr">
+      <c r="EN140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH140" t="inlineStr">
+      <c r="EO140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI140" t="inlineStr">
+      <c r="EP140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ140" t="inlineStr">
+      <c r="EQ140" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -25169,6 +26231,13 @@
       <c r="EH141" t="inlineStr"/>
       <c r="EI141" t="inlineStr"/>
       <c r="EJ141" t="inlineStr"/>
+      <c r="EK141" t="inlineStr"/>
+      <c r="EL141" t="inlineStr"/>
+      <c r="EM141" t="inlineStr"/>
+      <c r="EN141" t="inlineStr"/>
+      <c r="EO141" t="inlineStr"/>
+      <c r="EP141" t="inlineStr"/>
+      <c r="EQ141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -25327,6 +26396,13 @@
       <c r="EH142" t="inlineStr"/>
       <c r="EI142" t="inlineStr"/>
       <c r="EJ142" t="inlineStr"/>
+      <c r="EK142" t="inlineStr"/>
+      <c r="EL142" t="inlineStr"/>
+      <c r="EM142" t="inlineStr"/>
+      <c r="EN142" t="inlineStr"/>
+      <c r="EO142" t="inlineStr"/>
+      <c r="EP142" t="inlineStr"/>
+      <c r="EQ142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -25481,6 +26557,13 @@
       <c r="EH143" t="inlineStr"/>
       <c r="EI143" t="inlineStr"/>
       <c r="EJ143" t="inlineStr"/>
+      <c r="EK143" t="inlineStr"/>
+      <c r="EL143" t="inlineStr"/>
+      <c r="EM143" t="inlineStr"/>
+      <c r="EN143" t="inlineStr"/>
+      <c r="EO143" t="inlineStr"/>
+      <c r="EP143" t="inlineStr"/>
+      <c r="EQ143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -25675,6 +26758,13 @@
       <c r="EH144" t="inlineStr"/>
       <c r="EI144" t="inlineStr"/>
       <c r="EJ144" t="inlineStr"/>
+      <c r="EK144" t="inlineStr"/>
+      <c r="EL144" t="inlineStr"/>
+      <c r="EM144" t="inlineStr"/>
+      <c r="EN144" t="inlineStr"/>
+      <c r="EO144" t="inlineStr"/>
+      <c r="EP144" t="inlineStr"/>
+      <c r="EQ144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -25827,36 +26917,43 @@
       <c r="DT145" t="inlineStr"/>
       <c r="DU145" t="inlineStr"/>
       <c r="DV145" t="inlineStr"/>
-      <c r="DW145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW145" t="inlineStr"/>
       <c r="DX145" t="inlineStr"/>
       <c r="DY145" t="inlineStr"/>
-      <c r="DZ145" t="inlineStr"/>
+      <c r="DZ145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA145" t="inlineStr"/>
       <c r="EB145" t="inlineStr"/>
       <c r="EC145" t="inlineStr"/>
       <c r="ED145" t="inlineStr"/>
       <c r="EE145" t="inlineStr"/>
       <c r="EF145" t="inlineStr"/>
-      <c r="EG145" t="inlineStr">
+      <c r="EG145" t="inlineStr"/>
+      <c r="EH145" t="inlineStr"/>
+      <c r="EI145" t="inlineStr"/>
+      <c r="EJ145" t="inlineStr"/>
+      <c r="EK145" t="inlineStr"/>
+      <c r="EL145" t="inlineStr"/>
+      <c r="EM145" t="inlineStr"/>
+      <c r="EN145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH145" t="inlineStr">
+      <c r="EO145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI145" t="inlineStr">
+      <c r="EP145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ145" t="inlineStr">
+      <c r="EQ145" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -26027,6 +27124,13 @@
       <c r="EH146" t="inlineStr"/>
       <c r="EI146" t="inlineStr"/>
       <c r="EJ146" t="inlineStr"/>
+      <c r="EK146" t="inlineStr"/>
+      <c r="EL146" t="inlineStr"/>
+      <c r="EM146" t="inlineStr"/>
+      <c r="EN146" t="inlineStr"/>
+      <c r="EO146" t="inlineStr"/>
+      <c r="EP146" t="inlineStr"/>
+      <c r="EQ146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -26185,6 +27289,13 @@
       <c r="EH147" t="inlineStr"/>
       <c r="EI147" t="inlineStr"/>
       <c r="EJ147" t="inlineStr"/>
+      <c r="EK147" t="inlineStr"/>
+      <c r="EL147" t="inlineStr"/>
+      <c r="EM147" t="inlineStr"/>
+      <c r="EN147" t="inlineStr"/>
+      <c r="EO147" t="inlineStr"/>
+      <c r="EP147" t="inlineStr"/>
+      <c r="EQ147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -26343,6 +27454,13 @@
       <c r="EH148" t="inlineStr"/>
       <c r="EI148" t="inlineStr"/>
       <c r="EJ148" t="inlineStr"/>
+      <c r="EK148" t="inlineStr"/>
+      <c r="EL148" t="inlineStr"/>
+      <c r="EM148" t="inlineStr"/>
+      <c r="EN148" t="inlineStr"/>
+      <c r="EO148" t="inlineStr"/>
+      <c r="EP148" t="inlineStr"/>
+      <c r="EQ148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -26523,14 +27641,14 @@
       <c r="DT149" t="inlineStr"/>
       <c r="DU149" t="inlineStr"/>
       <c r="DV149" t="inlineStr"/>
-      <c r="DW149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW149" t="inlineStr"/>
       <c r="DX149" t="inlineStr"/>
       <c r="DY149" t="inlineStr"/>
-      <c r="DZ149" t="inlineStr"/>
+      <c r="DZ149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA149" t="inlineStr"/>
       <c r="EB149" t="inlineStr"/>
       <c r="EC149" t="inlineStr"/>
@@ -26541,6 +27659,13 @@
       <c r="EH149" t="inlineStr"/>
       <c r="EI149" t="inlineStr"/>
       <c r="EJ149" t="inlineStr"/>
+      <c r="EK149" t="inlineStr"/>
+      <c r="EL149" t="inlineStr"/>
+      <c r="EM149" t="inlineStr"/>
+      <c r="EN149" t="inlineStr"/>
+      <c r="EO149" t="inlineStr"/>
+      <c r="EP149" t="inlineStr"/>
+      <c r="EQ149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -26707,6 +27832,13 @@
       <c r="EH150" t="inlineStr"/>
       <c r="EI150" t="inlineStr"/>
       <c r="EJ150" t="inlineStr"/>
+      <c r="EK150" t="inlineStr"/>
+      <c r="EL150" t="inlineStr"/>
+      <c r="EM150" t="inlineStr"/>
+      <c r="EN150" t="inlineStr"/>
+      <c r="EO150" t="inlineStr"/>
+      <c r="EP150" t="inlineStr"/>
+      <c r="EQ150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -26865,6 +27997,13 @@
       <c r="EH151" t="inlineStr"/>
       <c r="EI151" t="inlineStr"/>
       <c r="EJ151" t="inlineStr"/>
+      <c r="EK151" t="inlineStr"/>
+      <c r="EL151" t="inlineStr"/>
+      <c r="EM151" t="inlineStr"/>
+      <c r="EN151" t="inlineStr"/>
+      <c r="EO151" t="inlineStr"/>
+      <c r="EP151" t="inlineStr"/>
+      <c r="EQ151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -27023,6 +28162,13 @@
       <c r="EH152" t="inlineStr"/>
       <c r="EI152" t="inlineStr"/>
       <c r="EJ152" t="inlineStr"/>
+      <c r="EK152" t="inlineStr"/>
+      <c r="EL152" t="inlineStr"/>
+      <c r="EM152" t="inlineStr"/>
+      <c r="EN152" t="inlineStr"/>
+      <c r="EO152" t="inlineStr"/>
+      <c r="EP152" t="inlineStr"/>
+      <c r="EQ152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -27189,6 +28335,13 @@
       <c r="EH153" t="inlineStr"/>
       <c r="EI153" t="inlineStr"/>
       <c r="EJ153" t="inlineStr"/>
+      <c r="EK153" t="inlineStr"/>
+      <c r="EL153" t="inlineStr"/>
+      <c r="EM153" t="inlineStr"/>
+      <c r="EN153" t="inlineStr"/>
+      <c r="EO153" t="inlineStr"/>
+      <c r="EP153" t="inlineStr"/>
+      <c r="EQ153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -27347,6 +28500,13 @@
       <c r="EH154" t="inlineStr"/>
       <c r="EI154" t="inlineStr"/>
       <c r="EJ154" t="inlineStr"/>
+      <c r="EK154" t="inlineStr"/>
+      <c r="EL154" t="inlineStr"/>
+      <c r="EM154" t="inlineStr"/>
+      <c r="EN154" t="inlineStr"/>
+      <c r="EO154" t="inlineStr"/>
+      <c r="EP154" t="inlineStr"/>
+      <c r="EQ154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -27509,6 +28669,13 @@
       <c r="EH155" t="inlineStr"/>
       <c r="EI155" t="inlineStr"/>
       <c r="EJ155" t="inlineStr"/>
+      <c r="EK155" t="inlineStr"/>
+      <c r="EL155" t="inlineStr"/>
+      <c r="EM155" t="inlineStr"/>
+      <c r="EN155" t="inlineStr"/>
+      <c r="EO155" t="inlineStr"/>
+      <c r="EP155" t="inlineStr"/>
+      <c r="EQ155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -27667,6 +28834,13 @@
       <c r="EH156" t="inlineStr"/>
       <c r="EI156" t="inlineStr"/>
       <c r="EJ156" t="inlineStr"/>
+      <c r="EK156" t="inlineStr"/>
+      <c r="EL156" t="inlineStr"/>
+      <c r="EM156" t="inlineStr"/>
+      <c r="EN156" t="inlineStr"/>
+      <c r="EO156" t="inlineStr"/>
+      <c r="EP156" t="inlineStr"/>
+      <c r="EQ156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -27825,6 +28999,13 @@
       <c r="EH157" t="inlineStr"/>
       <c r="EI157" t="inlineStr"/>
       <c r="EJ157" t="inlineStr"/>
+      <c r="EK157" t="inlineStr"/>
+      <c r="EL157" t="inlineStr"/>
+      <c r="EM157" t="inlineStr"/>
+      <c r="EN157" t="inlineStr"/>
+      <c r="EO157" t="inlineStr"/>
+      <c r="EP157" t="inlineStr"/>
+      <c r="EQ157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -27983,6 +29164,13 @@
       <c r="EH158" t="inlineStr"/>
       <c r="EI158" t="inlineStr"/>
       <c r="EJ158" t="inlineStr"/>
+      <c r="EK158" t="inlineStr"/>
+      <c r="EL158" t="inlineStr"/>
+      <c r="EM158" t="inlineStr"/>
+      <c r="EN158" t="inlineStr"/>
+      <c r="EO158" t="inlineStr"/>
+      <c r="EP158" t="inlineStr"/>
+      <c r="EQ158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -28141,6 +29329,13 @@
       <c r="EH159" t="inlineStr"/>
       <c r="EI159" t="inlineStr"/>
       <c r="EJ159" t="inlineStr"/>
+      <c r="EK159" t="inlineStr"/>
+      <c r="EL159" t="inlineStr"/>
+      <c r="EM159" t="inlineStr"/>
+      <c r="EN159" t="inlineStr"/>
+      <c r="EO159" t="inlineStr"/>
+      <c r="EP159" t="inlineStr"/>
+      <c r="EQ159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -28299,6 +29494,13 @@
       <c r="EH160" t="inlineStr"/>
       <c r="EI160" t="inlineStr"/>
       <c r="EJ160" t="inlineStr"/>
+      <c r="EK160" t="inlineStr"/>
+      <c r="EL160" t="inlineStr"/>
+      <c r="EM160" t="inlineStr"/>
+      <c r="EN160" t="inlineStr"/>
+      <c r="EO160" t="inlineStr"/>
+      <c r="EP160" t="inlineStr"/>
+      <c r="EQ160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -28457,6 +29659,13 @@
       <c r="EH161" t="inlineStr"/>
       <c r="EI161" t="inlineStr"/>
       <c r="EJ161" t="inlineStr"/>
+      <c r="EK161" t="inlineStr"/>
+      <c r="EL161" t="inlineStr"/>
+      <c r="EM161" t="inlineStr"/>
+      <c r="EN161" t="inlineStr"/>
+      <c r="EO161" t="inlineStr"/>
+      <c r="EP161" t="inlineStr"/>
+      <c r="EQ161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -28611,6 +29820,13 @@
       <c r="EH162" t="inlineStr"/>
       <c r="EI162" t="inlineStr"/>
       <c r="EJ162" t="inlineStr"/>
+      <c r="EK162" t="inlineStr"/>
+      <c r="EL162" t="inlineStr"/>
+      <c r="EM162" t="inlineStr"/>
+      <c r="EN162" t="inlineStr"/>
+      <c r="EO162" t="inlineStr"/>
+      <c r="EP162" t="inlineStr"/>
+      <c r="EQ162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -28769,6 +29985,13 @@
       <c r="EH163" t="inlineStr"/>
       <c r="EI163" t="inlineStr"/>
       <c r="EJ163" t="inlineStr"/>
+      <c r="EK163" t="inlineStr"/>
+      <c r="EL163" t="inlineStr"/>
+      <c r="EM163" t="inlineStr"/>
+      <c r="EN163" t="inlineStr"/>
+      <c r="EO163" t="inlineStr"/>
+      <c r="EP163" t="inlineStr"/>
+      <c r="EQ163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -28927,6 +30150,13 @@
       <c r="EH164" t="inlineStr"/>
       <c r="EI164" t="inlineStr"/>
       <c r="EJ164" t="inlineStr"/>
+      <c r="EK164" t="inlineStr"/>
+      <c r="EL164" t="inlineStr"/>
+      <c r="EM164" t="inlineStr"/>
+      <c r="EN164" t="inlineStr"/>
+      <c r="EO164" t="inlineStr"/>
+      <c r="EP164" t="inlineStr"/>
+      <c r="EQ164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -29081,6 +30311,13 @@
       <c r="EH165" t="inlineStr"/>
       <c r="EI165" t="inlineStr"/>
       <c r="EJ165" t="inlineStr"/>
+      <c r="EK165" t="inlineStr"/>
+      <c r="EL165" t="inlineStr"/>
+      <c r="EM165" t="inlineStr"/>
+      <c r="EN165" t="inlineStr"/>
+      <c r="EO165" t="inlineStr"/>
+      <c r="EP165" t="inlineStr"/>
+      <c r="EQ165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -29235,6 +30472,13 @@
       <c r="EH166" t="inlineStr"/>
       <c r="EI166" t="inlineStr"/>
       <c r="EJ166" t="inlineStr"/>
+      <c r="EK166" t="inlineStr"/>
+      <c r="EL166" t="inlineStr"/>
+      <c r="EM166" t="inlineStr"/>
+      <c r="EN166" t="inlineStr"/>
+      <c r="EO166" t="inlineStr"/>
+      <c r="EP166" t="inlineStr"/>
+      <c r="EQ166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -29249,7 +30493,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>58,6</t>
+          <t>63,6</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -29453,7 +30697,11 @@
       </c>
       <c r="DC167" t="inlineStr"/>
       <c r="DD167" t="inlineStr"/>
-      <c r="DE167" t="inlineStr"/>
+      <c r="DE167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DF167" t="inlineStr"/>
       <c r="DG167" t="inlineStr"/>
       <c r="DH167" t="inlineStr"/>
@@ -29469,25 +30717,29 @@
       <c r="DN167" t="inlineStr"/>
       <c r="DO167" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DP167" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DP167" t="inlineStr">
+      <c r="DQ167" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DQ167" t="inlineStr"/>
-      <c r="DR167" t="inlineStr">
+      <c r="DR167" t="inlineStr"/>
+      <c r="DS167" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DS167" t="inlineStr"/>
       <c r="DT167" t="inlineStr"/>
       <c r="DU167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="DV167" t="inlineStr"/>
@@ -29499,9 +30751,17 @@
       </c>
       <c r="DY167" t="inlineStr"/>
       <c r="DZ167" t="inlineStr"/>
-      <c r="EA167" t="inlineStr"/>
+      <c r="EA167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB167" t="inlineStr"/>
-      <c r="EC167" t="inlineStr"/>
+      <c r="EC167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="ED167" t="inlineStr"/>
       <c r="EE167" t="inlineStr"/>
       <c r="EF167" t="inlineStr"/>
@@ -29509,6 +30769,13 @@
       <c r="EH167" t="inlineStr"/>
       <c r="EI167" t="inlineStr"/>
       <c r="EJ167" t="inlineStr"/>
+      <c r="EK167" t="inlineStr"/>
+      <c r="EL167" t="inlineStr"/>
+      <c r="EM167" t="inlineStr"/>
+      <c r="EN167" t="inlineStr"/>
+      <c r="EO167" t="inlineStr"/>
+      <c r="EP167" t="inlineStr"/>
+      <c r="EQ167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -29671,6 +30938,13 @@
       <c r="EH168" t="inlineStr"/>
       <c r="EI168" t="inlineStr"/>
       <c r="EJ168" t="inlineStr"/>
+      <c r="EK168" t="inlineStr"/>
+      <c r="EL168" t="inlineStr"/>
+      <c r="EM168" t="inlineStr"/>
+      <c r="EN168" t="inlineStr"/>
+      <c r="EO168" t="inlineStr"/>
+      <c r="EP168" t="inlineStr"/>
+      <c r="EQ168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -29681,7 +30955,7 @@
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12,6</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -29812,11 +31086,7 @@
       <c r="DU169" t="inlineStr"/>
       <c r="DV169" t="inlineStr"/>
       <c r="DW169" t="inlineStr"/>
-      <c r="DX169" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DX169" t="inlineStr"/>
       <c r="DY169" t="inlineStr"/>
       <c r="DZ169" t="inlineStr"/>
       <c r="EA169" t="inlineStr"/>
@@ -29829,6 +31099,13 @@
       <c r="EH169" t="inlineStr"/>
       <c r="EI169" t="inlineStr"/>
       <c r="EJ169" t="inlineStr"/>
+      <c r="EK169" t="inlineStr"/>
+      <c r="EL169" t="inlineStr"/>
+      <c r="EM169" t="inlineStr"/>
+      <c r="EN169" t="inlineStr"/>
+      <c r="EO169" t="inlineStr"/>
+      <c r="EP169" t="inlineStr"/>
+      <c r="EQ169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -29843,7 +31120,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>56,6</t>
+          <t>63,6</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -30049,33 +31326,49 @@
         </is>
       </c>
       <c r="DN170" t="inlineStr"/>
-      <c r="DO170" t="inlineStr"/>
+      <c r="DO170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DP170" t="inlineStr"/>
-      <c r="DQ170" t="inlineStr">
+      <c r="DQ170" t="inlineStr"/>
+      <c r="DR170" t="inlineStr"/>
+      <c r="DS170" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DR170" t="inlineStr"/>
-      <c r="DS170" t="inlineStr"/>
       <c r="DT170" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DU170" t="inlineStr"/>
+      <c r="DV170" t="inlineStr"/>
+      <c r="DW170" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DU170" t="inlineStr">
+      <c r="DX170" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DV170" t="inlineStr"/>
-      <c r="DW170" t="inlineStr"/>
-      <c r="DX170" t="inlineStr"/>
       <c r="DY170" t="inlineStr"/>
       <c r="DZ170" t="inlineStr"/>
-      <c r="EA170" t="inlineStr"/>
+      <c r="EA170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="EB170" t="inlineStr"/>
-      <c r="EC170" t="inlineStr"/>
+      <c r="EC170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="ED170" t="inlineStr"/>
       <c r="EE170" t="inlineStr"/>
       <c r="EF170" t="inlineStr"/>
@@ -30083,6 +31376,13 @@
       <c r="EH170" t="inlineStr"/>
       <c r="EI170" t="inlineStr"/>
       <c r="EJ170" t="inlineStr"/>
+      <c r="EK170" t="inlineStr"/>
+      <c r="EL170" t="inlineStr"/>
+      <c r="EM170" t="inlineStr"/>
+      <c r="EN170" t="inlineStr"/>
+      <c r="EO170" t="inlineStr"/>
+      <c r="EP170" t="inlineStr"/>
+      <c r="EQ170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -30239,20 +31539,27 @@
       <c r="DX171" t="inlineStr"/>
       <c r="DY171" t="inlineStr"/>
       <c r="DZ171" t="inlineStr"/>
-      <c r="EA171" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="EA171" t="inlineStr"/>
       <c r="EB171" t="inlineStr"/>
       <c r="EC171" t="inlineStr"/>
       <c r="ED171" t="inlineStr"/>
       <c r="EE171" t="inlineStr"/>
       <c r="EF171" t="inlineStr"/>
       <c r="EG171" t="inlineStr"/>
-      <c r="EH171" t="inlineStr"/>
+      <c r="EH171" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="EI171" t="inlineStr"/>
       <c r="EJ171" t="inlineStr"/>
+      <c r="EK171" t="inlineStr"/>
+      <c r="EL171" t="inlineStr"/>
+      <c r="EM171" t="inlineStr"/>
+      <c r="EN171" t="inlineStr"/>
+      <c r="EO171" t="inlineStr"/>
+      <c r="EP171" t="inlineStr"/>
+      <c r="EQ171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -30409,20 +31716,27 @@
       <c r="DX172" t="inlineStr"/>
       <c r="DY172" t="inlineStr"/>
       <c r="DZ172" t="inlineStr"/>
-      <c r="EA172" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="EA172" t="inlineStr"/>
       <c r="EB172" t="inlineStr"/>
       <c r="EC172" t="inlineStr"/>
       <c r="ED172" t="inlineStr"/>
       <c r="EE172" t="inlineStr"/>
       <c r="EF172" t="inlineStr"/>
       <c r="EG172" t="inlineStr"/>
-      <c r="EH172" t="inlineStr"/>
+      <c r="EH172" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="EI172" t="inlineStr"/>
       <c r="EJ172" t="inlineStr"/>
+      <c r="EK172" t="inlineStr"/>
+      <c r="EL172" t="inlineStr"/>
+      <c r="EM172" t="inlineStr"/>
+      <c r="EN172" t="inlineStr"/>
+      <c r="EO172" t="inlineStr"/>
+      <c r="EP172" t="inlineStr"/>
+      <c r="EQ172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -30595,28 +31909,35 @@
       <c r="DT173" t="inlineStr"/>
       <c r="DU173" t="inlineStr"/>
       <c r="DV173" t="inlineStr"/>
-      <c r="DW173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW173" t="inlineStr"/>
       <c r="DX173" t="inlineStr"/>
       <c r="DY173" t="inlineStr"/>
-      <c r="DZ173" t="inlineStr"/>
-      <c r="EA173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="DZ173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EA173" t="inlineStr"/>
       <c r="EB173" t="inlineStr"/>
       <c r="EC173" t="inlineStr"/>
       <c r="ED173" t="inlineStr"/>
       <c r="EE173" t="inlineStr"/>
       <c r="EF173" t="inlineStr"/>
       <c r="EG173" t="inlineStr"/>
-      <c r="EH173" t="inlineStr"/>
+      <c r="EH173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="EI173" t="inlineStr"/>
       <c r="EJ173" t="inlineStr"/>
+      <c r="EK173" t="inlineStr"/>
+      <c r="EL173" t="inlineStr"/>
+      <c r="EM173" t="inlineStr"/>
+      <c r="EN173" t="inlineStr"/>
+      <c r="EO173" t="inlineStr"/>
+      <c r="EP173" t="inlineStr"/>
+      <c r="EQ173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -30765,20 +32086,27 @@
       <c r="DX174" t="inlineStr"/>
       <c r="DY174" t="inlineStr"/>
       <c r="DZ174" t="inlineStr"/>
-      <c r="EA174" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="EA174" t="inlineStr"/>
       <c r="EB174" t="inlineStr"/>
       <c r="EC174" t="inlineStr"/>
       <c r="ED174" t="inlineStr"/>
       <c r="EE174" t="inlineStr"/>
       <c r="EF174" t="inlineStr"/>
       <c r="EG174" t="inlineStr"/>
-      <c r="EH174" t="inlineStr"/>
+      <c r="EH174" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="EI174" t="inlineStr"/>
       <c r="EJ174" t="inlineStr"/>
+      <c r="EK174" t="inlineStr"/>
+      <c r="EL174" t="inlineStr"/>
+      <c r="EM174" t="inlineStr"/>
+      <c r="EN174" t="inlineStr"/>
+      <c r="EO174" t="inlineStr"/>
+      <c r="EP174" t="inlineStr"/>
+      <c r="EQ174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -30939,14 +32267,14 @@
       <c r="DT175" t="inlineStr"/>
       <c r="DU175" t="inlineStr"/>
       <c r="DV175" t="inlineStr"/>
-      <c r="DW175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW175" t="inlineStr"/>
       <c r="DX175" t="inlineStr"/>
       <c r="DY175" t="inlineStr"/>
-      <c r="DZ175" t="inlineStr"/>
+      <c r="DZ175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA175" t="inlineStr"/>
       <c r="EB175" t="inlineStr"/>
       <c r="EC175" t="inlineStr"/>
@@ -30957,6 +32285,13 @@
       <c r="EH175" t="inlineStr"/>
       <c r="EI175" t="inlineStr"/>
       <c r="EJ175" t="inlineStr"/>
+      <c r="EK175" t="inlineStr"/>
+      <c r="EL175" t="inlineStr"/>
+      <c r="EM175" t="inlineStr"/>
+      <c r="EN175" t="inlineStr"/>
+      <c r="EO175" t="inlineStr"/>
+      <c r="EP175" t="inlineStr"/>
+      <c r="EQ175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -31123,6 +32458,13 @@
       <c r="EH176" t="inlineStr"/>
       <c r="EI176" t="inlineStr"/>
       <c r="EJ176" t="inlineStr"/>
+      <c r="EK176" t="inlineStr"/>
+      <c r="EL176" t="inlineStr"/>
+      <c r="EM176" t="inlineStr"/>
+      <c r="EN176" t="inlineStr"/>
+      <c r="EO176" t="inlineStr"/>
+      <c r="EP176" t="inlineStr"/>
+      <c r="EQ176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -31313,6 +32655,13 @@
       <c r="EH177" t="inlineStr"/>
       <c r="EI177" t="inlineStr"/>
       <c r="EJ177" t="inlineStr"/>
+      <c r="EK177" t="inlineStr"/>
+      <c r="EL177" t="inlineStr"/>
+      <c r="EM177" t="inlineStr"/>
+      <c r="EN177" t="inlineStr"/>
+      <c r="EO177" t="inlineStr"/>
+      <c r="EP177" t="inlineStr"/>
+      <c r="EQ177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -31471,6 +32820,13 @@
       <c r="EH178" t="inlineStr"/>
       <c r="EI178" t="inlineStr"/>
       <c r="EJ178" t="inlineStr"/>
+      <c r="EK178" t="inlineStr"/>
+      <c r="EL178" t="inlineStr"/>
+      <c r="EM178" t="inlineStr"/>
+      <c r="EN178" t="inlineStr"/>
+      <c r="EO178" t="inlineStr"/>
+      <c r="EP178" t="inlineStr"/>
+      <c r="EQ178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -31645,6 +33001,13 @@
       <c r="EH179" t="inlineStr"/>
       <c r="EI179" t="inlineStr"/>
       <c r="EJ179" t="inlineStr"/>
+      <c r="EK179" t="inlineStr"/>
+      <c r="EL179" t="inlineStr"/>
+      <c r="EM179" t="inlineStr"/>
+      <c r="EN179" t="inlineStr"/>
+      <c r="EO179" t="inlineStr"/>
+      <c r="EP179" t="inlineStr"/>
+      <c r="EQ179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -31811,6 +33174,13 @@
       <c r="EH180" t="inlineStr"/>
       <c r="EI180" t="inlineStr"/>
       <c r="EJ180" t="inlineStr"/>
+      <c r="EK180" t="inlineStr"/>
+      <c r="EL180" t="inlineStr"/>
+      <c r="EM180" t="inlineStr"/>
+      <c r="EN180" t="inlineStr"/>
+      <c r="EO180" t="inlineStr"/>
+      <c r="EP180" t="inlineStr"/>
+      <c r="EQ180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -31981,6 +33351,13 @@
       <c r="EH181" t="inlineStr"/>
       <c r="EI181" t="inlineStr"/>
       <c r="EJ181" t="inlineStr"/>
+      <c r="EK181" t="inlineStr"/>
+      <c r="EL181" t="inlineStr"/>
+      <c r="EM181" t="inlineStr"/>
+      <c r="EN181" t="inlineStr"/>
+      <c r="EO181" t="inlineStr"/>
+      <c r="EP181" t="inlineStr"/>
+      <c r="EQ181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -32137,20 +33514,27 @@
       <c r="DX182" t="inlineStr"/>
       <c r="DY182" t="inlineStr"/>
       <c r="DZ182" t="inlineStr"/>
-      <c r="EA182" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="EA182" t="inlineStr"/>
       <c r="EB182" t="inlineStr"/>
       <c r="EC182" t="inlineStr"/>
       <c r="ED182" t="inlineStr"/>
       <c r="EE182" t="inlineStr"/>
       <c r="EF182" t="inlineStr"/>
       <c r="EG182" t="inlineStr"/>
-      <c r="EH182" t="inlineStr"/>
+      <c r="EH182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="EI182" t="inlineStr"/>
       <c r="EJ182" t="inlineStr"/>
+      <c r="EK182" t="inlineStr"/>
+      <c r="EL182" t="inlineStr"/>
+      <c r="EM182" t="inlineStr"/>
+      <c r="EN182" t="inlineStr"/>
+      <c r="EO182" t="inlineStr"/>
+      <c r="EP182" t="inlineStr"/>
+      <c r="EQ182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -32305,6 +33689,13 @@
       <c r="EH183" t="inlineStr"/>
       <c r="EI183" t="inlineStr"/>
       <c r="EJ183" t="inlineStr"/>
+      <c r="EK183" t="inlineStr"/>
+      <c r="EL183" t="inlineStr"/>
+      <c r="EM183" t="inlineStr"/>
+      <c r="EN183" t="inlineStr"/>
+      <c r="EO183" t="inlineStr"/>
+      <c r="EP183" t="inlineStr"/>
+      <c r="EQ183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -32471,6 +33862,13 @@
       <c r="EH184" t="inlineStr"/>
       <c r="EI184" t="inlineStr"/>
       <c r="EJ184" t="inlineStr"/>
+      <c r="EK184" t="inlineStr"/>
+      <c r="EL184" t="inlineStr"/>
+      <c r="EM184" t="inlineStr"/>
+      <c r="EN184" t="inlineStr"/>
+      <c r="EO184" t="inlineStr"/>
+      <c r="EP184" t="inlineStr"/>
+      <c r="EQ184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -32615,14 +34013,14 @@
       <c r="DP185" t="inlineStr"/>
       <c r="DQ185" t="inlineStr"/>
       <c r="DR185" t="inlineStr"/>
-      <c r="DS185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DS185" t="inlineStr"/>
       <c r="DT185" t="inlineStr"/>
       <c r="DU185" t="inlineStr"/>
-      <c r="DV185" t="inlineStr"/>
+      <c r="DV185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DW185" t="inlineStr"/>
       <c r="DX185" t="inlineStr"/>
       <c r="DY185" t="inlineStr"/>
@@ -32637,6 +34035,13 @@
       <c r="EH185" t="inlineStr"/>
       <c r="EI185" t="inlineStr"/>
       <c r="EJ185" t="inlineStr"/>
+      <c r="EK185" t="inlineStr"/>
+      <c r="EL185" t="inlineStr"/>
+      <c r="EM185" t="inlineStr"/>
+      <c r="EN185" t="inlineStr"/>
+      <c r="EO185" t="inlineStr"/>
+      <c r="EP185" t="inlineStr"/>
+      <c r="EQ185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -32803,6 +34208,13 @@
       <c r="EH186" t="inlineStr"/>
       <c r="EI186" t="inlineStr"/>
       <c r="EJ186" t="inlineStr"/>
+      <c r="EK186" t="inlineStr"/>
+      <c r="EL186" t="inlineStr"/>
+      <c r="EM186" t="inlineStr"/>
+      <c r="EN186" t="inlineStr"/>
+      <c r="EO186" t="inlineStr"/>
+      <c r="EP186" t="inlineStr"/>
+      <c r="EQ186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -32957,24 +34369,20 @@
       <c r="DN187" t="inlineStr"/>
       <c r="DO187" t="inlineStr"/>
       <c r="DP187" t="inlineStr"/>
-      <c r="DQ187" t="inlineStr">
+      <c r="DQ187" t="inlineStr"/>
+      <c r="DR187" t="inlineStr"/>
+      <c r="DS187" t="inlineStr"/>
+      <c r="DT187" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DR187" t="inlineStr"/>
-      <c r="DS187" t="inlineStr">
+      <c r="DU187" t="inlineStr"/>
+      <c r="DV187" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DT187" t="inlineStr"/>
-      <c r="DU187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="DV187" t="inlineStr"/>
       <c r="DW187" t="inlineStr"/>
       <c r="DX187" t="inlineStr">
         <is>
@@ -32983,7 +34391,11 @@
       </c>
       <c r="DY187" t="inlineStr"/>
       <c r="DZ187" t="inlineStr"/>
-      <c r="EA187" t="inlineStr"/>
+      <c r="EA187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB187" t="inlineStr"/>
       <c r="EC187" t="inlineStr"/>
       <c r="ED187" t="inlineStr"/>
@@ -32993,6 +34405,13 @@
       <c r="EH187" t="inlineStr"/>
       <c r="EI187" t="inlineStr"/>
       <c r="EJ187" t="inlineStr"/>
+      <c r="EK187" t="inlineStr"/>
+      <c r="EL187" t="inlineStr"/>
+      <c r="EM187" t="inlineStr"/>
+      <c r="EN187" t="inlineStr"/>
+      <c r="EO187" t="inlineStr"/>
+      <c r="EP187" t="inlineStr"/>
+      <c r="EQ187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -33151,6 +34570,13 @@
       <c r="EH188" t="inlineStr"/>
       <c r="EI188" t="inlineStr"/>
       <c r="EJ188" t="inlineStr"/>
+      <c r="EK188" t="inlineStr"/>
+      <c r="EL188" t="inlineStr"/>
+      <c r="EM188" t="inlineStr"/>
+      <c r="EN188" t="inlineStr"/>
+      <c r="EO188" t="inlineStr"/>
+      <c r="EP188" t="inlineStr"/>
+      <c r="EQ188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -33309,6 +34735,13 @@
       <c r="EH189" t="inlineStr"/>
       <c r="EI189" t="inlineStr"/>
       <c r="EJ189" t="inlineStr"/>
+      <c r="EK189" t="inlineStr"/>
+      <c r="EL189" t="inlineStr"/>
+      <c r="EM189" t="inlineStr"/>
+      <c r="EN189" t="inlineStr"/>
+      <c r="EO189" t="inlineStr"/>
+      <c r="EP189" t="inlineStr"/>
+      <c r="EQ189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -33467,6 +34900,13 @@
       <c r="EH190" t="inlineStr"/>
       <c r="EI190" t="inlineStr"/>
       <c r="EJ190" t="inlineStr"/>
+      <c r="EK190" t="inlineStr"/>
+      <c r="EL190" t="inlineStr"/>
+      <c r="EM190" t="inlineStr"/>
+      <c r="EN190" t="inlineStr"/>
+      <c r="EO190" t="inlineStr"/>
+      <c r="EP190" t="inlineStr"/>
+      <c r="EQ190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -33629,6 +35069,13 @@
       <c r="EH191" t="inlineStr"/>
       <c r="EI191" t="inlineStr"/>
       <c r="EJ191" t="inlineStr"/>
+      <c r="EK191" t="inlineStr"/>
+      <c r="EL191" t="inlineStr"/>
+      <c r="EM191" t="inlineStr"/>
+      <c r="EN191" t="inlineStr"/>
+      <c r="EO191" t="inlineStr"/>
+      <c r="EP191" t="inlineStr"/>
+      <c r="EQ191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -33643,7 +35090,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>31,2</t>
+          <t>32,2</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -33780,7 +35227,11 @@
       <c r="DO192" t="inlineStr"/>
       <c r="DP192" t="inlineStr"/>
       <c r="DQ192" t="inlineStr"/>
-      <c r="DR192" t="inlineStr"/>
+      <c r="DR192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DS192" t="inlineStr"/>
       <c r="DT192" t="inlineStr"/>
       <c r="DU192" t="inlineStr"/>
@@ -33799,6 +35250,13 @@
       <c r="EH192" t="inlineStr"/>
       <c r="EI192" t="inlineStr"/>
       <c r="EJ192" t="inlineStr"/>
+      <c r="EK192" t="inlineStr"/>
+      <c r="EL192" t="inlineStr"/>
+      <c r="EM192" t="inlineStr"/>
+      <c r="EN192" t="inlineStr"/>
+      <c r="EO192" t="inlineStr"/>
+      <c r="EP192" t="inlineStr"/>
+      <c r="EQ192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -33957,6 +35415,13 @@
       <c r="EH193" t="inlineStr"/>
       <c r="EI193" t="inlineStr"/>
       <c r="EJ193" t="inlineStr"/>
+      <c r="EK193" t="inlineStr"/>
+      <c r="EL193" t="inlineStr"/>
+      <c r="EM193" t="inlineStr"/>
+      <c r="EN193" t="inlineStr"/>
+      <c r="EO193" t="inlineStr"/>
+      <c r="EP193" t="inlineStr"/>
+      <c r="EQ193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -33971,7 +35436,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>44,2</t>
+          <t>46,2</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -34134,23 +35599,38 @@
       <c r="DU194" t="inlineStr"/>
       <c r="DV194" t="inlineStr"/>
       <c r="DW194" t="inlineStr"/>
-      <c r="DX194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DX194" t="inlineStr"/>
       <c r="DY194" t="inlineStr"/>
       <c r="DZ194" t="inlineStr"/>
-      <c r="EA194" t="inlineStr"/>
-      <c r="EB194" t="inlineStr"/>
+      <c r="EA194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EB194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EC194" t="inlineStr"/>
-      <c r="ED194" t="inlineStr"/>
+      <c r="ED194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EE194" t="inlineStr"/>
       <c r="EF194" t="inlineStr"/>
       <c r="EG194" t="inlineStr"/>
       <c r="EH194" t="inlineStr"/>
       <c r="EI194" t="inlineStr"/>
       <c r="EJ194" t="inlineStr"/>
+      <c r="EK194" t="inlineStr"/>
+      <c r="EL194" t="inlineStr"/>
+      <c r="EM194" t="inlineStr"/>
+      <c r="EN194" t="inlineStr"/>
+      <c r="EO194" t="inlineStr"/>
+      <c r="EP194" t="inlineStr"/>
+      <c r="EQ194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -34317,6 +35797,13 @@
       <c r="EH195" t="inlineStr"/>
       <c r="EI195" t="inlineStr"/>
       <c r="EJ195" t="inlineStr"/>
+      <c r="EK195" t="inlineStr"/>
+      <c r="EL195" t="inlineStr"/>
+      <c r="EM195" t="inlineStr"/>
+      <c r="EN195" t="inlineStr"/>
+      <c r="EO195" t="inlineStr"/>
+      <c r="EP195" t="inlineStr"/>
+      <c r="EQ195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -34499,6 +35986,13 @@
       <c r="EH196" t="inlineStr"/>
       <c r="EI196" t="inlineStr"/>
       <c r="EJ196" t="inlineStr"/>
+      <c r="EK196" t="inlineStr"/>
+      <c r="EL196" t="inlineStr"/>
+      <c r="EM196" t="inlineStr"/>
+      <c r="EN196" t="inlineStr"/>
+      <c r="EO196" t="inlineStr"/>
+      <c r="EP196" t="inlineStr"/>
+      <c r="EQ196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -34669,6 +36163,13 @@
       <c r="EH197" t="inlineStr"/>
       <c r="EI197" t="inlineStr"/>
       <c r="EJ197" t="inlineStr"/>
+      <c r="EK197" t="inlineStr"/>
+      <c r="EL197" t="inlineStr"/>
+      <c r="EM197" t="inlineStr"/>
+      <c r="EN197" t="inlineStr"/>
+      <c r="EO197" t="inlineStr"/>
+      <c r="EP197" t="inlineStr"/>
+      <c r="EQ197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -34827,6 +36328,13 @@
       <c r="EH198" t="inlineStr"/>
       <c r="EI198" t="inlineStr"/>
       <c r="EJ198" t="inlineStr"/>
+      <c r="EK198" t="inlineStr"/>
+      <c r="EL198" t="inlineStr"/>
+      <c r="EM198" t="inlineStr"/>
+      <c r="EN198" t="inlineStr"/>
+      <c r="EO198" t="inlineStr"/>
+      <c r="EP198" t="inlineStr"/>
+      <c r="EQ198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -34995,25 +36503,21 @@
       <c r="DL199" t="inlineStr"/>
       <c r="DM199" t="inlineStr"/>
       <c r="DN199" t="inlineStr"/>
-      <c r="DO199" t="inlineStr">
+      <c r="DO199" t="inlineStr"/>
+      <c r="DP199" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DP199" t="inlineStr"/>
-      <c r="DQ199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="DQ199" t="inlineStr"/>
       <c r="DR199" t="inlineStr"/>
       <c r="DS199" t="inlineStr"/>
-      <c r="DT199" t="inlineStr"/>
-      <c r="DU199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DT199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DU199" t="inlineStr"/>
       <c r="DV199" t="inlineStr"/>
       <c r="DW199" t="inlineStr"/>
       <c r="DX199" t="inlineStr">
@@ -35023,7 +36527,11 @@
       </c>
       <c r="DY199" t="inlineStr"/>
       <c r="DZ199" t="inlineStr"/>
-      <c r="EA199" t="inlineStr"/>
+      <c r="EA199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB199" t="inlineStr"/>
       <c r="EC199" t="inlineStr"/>
       <c r="ED199" t="inlineStr"/>
@@ -35033,6 +36541,13 @@
       <c r="EH199" t="inlineStr"/>
       <c r="EI199" t="inlineStr"/>
       <c r="EJ199" t="inlineStr"/>
+      <c r="EK199" t="inlineStr"/>
+      <c r="EL199" t="inlineStr"/>
+      <c r="EM199" t="inlineStr"/>
+      <c r="EN199" t="inlineStr"/>
+      <c r="EO199" t="inlineStr"/>
+      <c r="EP199" t="inlineStr"/>
+      <c r="EQ199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -35203,50 +36718,57 @@
       <c r="DN200" t="inlineStr"/>
       <c r="DO200" t="inlineStr"/>
       <c r="DP200" t="inlineStr"/>
-      <c r="DQ200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DQ200" t="inlineStr"/>
       <c r="DR200" t="inlineStr"/>
       <c r="DS200" t="inlineStr"/>
-      <c r="DT200" t="inlineStr"/>
+      <c r="DT200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DU200" t="inlineStr"/>
       <c r="DV200" t="inlineStr"/>
-      <c r="DW200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW200" t="inlineStr"/>
       <c r="DX200" t="inlineStr"/>
       <c r="DY200" t="inlineStr"/>
-      <c r="DZ200" t="inlineStr"/>
+      <c r="DZ200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA200" t="inlineStr"/>
-      <c r="EB200" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EC200" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="ED200" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="EE200" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="EB200" t="inlineStr"/>
+      <c r="EC200" t="inlineStr"/>
+      <c r="ED200" t="inlineStr"/>
+      <c r="EE200" t="inlineStr"/>
       <c r="EF200" t="inlineStr"/>
       <c r="EG200" t="inlineStr"/>
       <c r="EH200" t="inlineStr"/>
-      <c r="EI200" t="inlineStr"/>
-      <c r="EJ200" t="inlineStr"/>
+      <c r="EI200" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EJ200" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="EK200" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EL200" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="EM200" t="inlineStr"/>
+      <c r="EN200" t="inlineStr"/>
+      <c r="EO200" t="inlineStr"/>
+      <c r="EP200" t="inlineStr"/>
+      <c r="EQ200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -35453,20 +36975,20 @@
       <c r="DN201" t="inlineStr"/>
       <c r="DO201" t="inlineStr"/>
       <c r="DP201" t="inlineStr"/>
-      <c r="DQ201" t="inlineStr">
+      <c r="DQ201" t="inlineStr"/>
+      <c r="DR201" t="inlineStr"/>
+      <c r="DS201" t="inlineStr"/>
+      <c r="DT201" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DR201" t="inlineStr"/>
-      <c r="DS201" t="inlineStr">
+      <c r="DU201" t="inlineStr"/>
+      <c r="DV201" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DT201" t="inlineStr"/>
-      <c r="DU201" t="inlineStr"/>
-      <c r="DV201" t="inlineStr"/>
       <c r="DW201" t="inlineStr"/>
       <c r="DX201" t="inlineStr"/>
       <c r="DY201" t="inlineStr"/>
@@ -35481,6 +37003,13 @@
       <c r="EH201" t="inlineStr"/>
       <c r="EI201" t="inlineStr"/>
       <c r="EJ201" t="inlineStr"/>
+      <c r="EK201" t="inlineStr"/>
+      <c r="EL201" t="inlineStr"/>
+      <c r="EM201" t="inlineStr"/>
+      <c r="EN201" t="inlineStr"/>
+      <c r="EO201" t="inlineStr"/>
+      <c r="EP201" t="inlineStr"/>
+      <c r="EQ201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -35646,47 +37175,54 @@
       <c r="DY202" t="inlineStr"/>
       <c r="DZ202" t="inlineStr"/>
       <c r="EA202" t="inlineStr"/>
-      <c r="EB202" t="inlineStr">
+      <c r="EB202" t="inlineStr"/>
+      <c r="EC202" t="inlineStr"/>
+      <c r="ED202" t="inlineStr"/>
+      <c r="EE202" t="inlineStr"/>
+      <c r="EF202" t="inlineStr"/>
+      <c r="EG202" t="inlineStr"/>
+      <c r="EH202" t="inlineStr"/>
+      <c r="EI202" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC202" t="inlineStr">
+      <c r="EJ202" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="ED202" t="inlineStr">
+      <c r="EK202" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE202" t="inlineStr">
+      <c r="EL202" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="EF202" t="inlineStr">
+      <c r="EM202" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EG202" t="inlineStr">
+      <c r="EN202" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EH202" t="inlineStr">
+      <c r="EO202" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EI202" t="inlineStr">
+      <c r="EP202" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="EJ202" t="inlineStr">
+      <c r="EQ202" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -35857,6 +37393,13 @@
       <c r="EH203" t="inlineStr"/>
       <c r="EI203" t="inlineStr"/>
       <c r="EJ203" t="inlineStr"/>
+      <c r="EK203" t="inlineStr"/>
+      <c r="EL203" t="inlineStr"/>
+      <c r="EM203" t="inlineStr"/>
+      <c r="EN203" t="inlineStr"/>
+      <c r="EO203" t="inlineStr"/>
+      <c r="EP203" t="inlineStr"/>
+      <c r="EQ203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -36019,6 +37562,13 @@
       <c r="EH204" t="inlineStr"/>
       <c r="EI204" t="inlineStr"/>
       <c r="EJ204" t="inlineStr"/>
+      <c r="EK204" t="inlineStr"/>
+      <c r="EL204" t="inlineStr"/>
+      <c r="EM204" t="inlineStr"/>
+      <c r="EN204" t="inlineStr"/>
+      <c r="EO204" t="inlineStr"/>
+      <c r="EP204" t="inlineStr"/>
+      <c r="EQ204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -36175,20 +37725,27 @@
       <c r="DX205" t="inlineStr"/>
       <c r="DY205" t="inlineStr"/>
       <c r="DZ205" t="inlineStr"/>
-      <c r="EA205" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+      <c r="EA205" t="inlineStr"/>
       <c r="EB205" t="inlineStr"/>
       <c r="EC205" t="inlineStr"/>
       <c r="ED205" t="inlineStr"/>
       <c r="EE205" t="inlineStr"/>
       <c r="EF205" t="inlineStr"/>
       <c r="EG205" t="inlineStr"/>
-      <c r="EH205" t="inlineStr"/>
+      <c r="EH205" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="EI205" t="inlineStr"/>
       <c r="EJ205" t="inlineStr"/>
+      <c r="EK205" t="inlineStr"/>
+      <c r="EL205" t="inlineStr"/>
+      <c r="EM205" t="inlineStr"/>
+      <c r="EN205" t="inlineStr"/>
+      <c r="EO205" t="inlineStr"/>
+      <c r="EP205" t="inlineStr"/>
+      <c r="EQ205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -36203,14 +37760,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>21,6</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>14,60</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -36359,6 +37916,13 @@
       <c r="EH206" t="inlineStr"/>
       <c r="EI206" t="inlineStr"/>
       <c r="EJ206" t="inlineStr"/>
+      <c r="EK206" t="inlineStr"/>
+      <c r="EL206" t="inlineStr"/>
+      <c r="EM206" t="inlineStr"/>
+      <c r="EN206" t="inlineStr"/>
+      <c r="EO206" t="inlineStr"/>
+      <c r="EP206" t="inlineStr"/>
+      <c r="EQ206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -36373,14 +37937,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>15,2</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>14,60</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -36517,6 +38081,13 @@
       <c r="EH207" t="inlineStr"/>
       <c r="EI207" t="inlineStr"/>
       <c r="EJ207" t="inlineStr"/>
+      <c r="EK207" t="inlineStr"/>
+      <c r="EL207" t="inlineStr"/>
+      <c r="EM207" t="inlineStr"/>
+      <c r="EN207" t="inlineStr"/>
+      <c r="EO207" t="inlineStr"/>
+      <c r="EP207" t="inlineStr"/>
+      <c r="EQ207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -36531,14 +38102,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>17,6</t>
+          <t>18,2</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>14,60</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -36674,7 +38245,14 @@
       <c r="EG208" t="inlineStr"/>
       <c r="EH208" t="inlineStr"/>
       <c r="EI208" t="inlineStr"/>
-      <c r="EJ208" t="inlineStr">
+      <c r="EJ208" t="inlineStr"/>
+      <c r="EK208" t="inlineStr"/>
+      <c r="EL208" t="inlineStr"/>
+      <c r="EM208" t="inlineStr"/>
+      <c r="EN208" t="inlineStr"/>
+      <c r="EO208" t="inlineStr"/>
+      <c r="EP208" t="inlineStr"/>
+      <c r="EQ208" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -36689,14 +38267,14 @@
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>15,2</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>14,60</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -36833,6 +38411,13 @@
       <c r="EH209" t="inlineStr"/>
       <c r="EI209" t="inlineStr"/>
       <c r="EJ209" t="inlineStr"/>
+      <c r="EK209" t="inlineStr"/>
+      <c r="EL209" t="inlineStr"/>
+      <c r="EM209" t="inlineStr"/>
+      <c r="EN209" t="inlineStr"/>
+      <c r="EO209" t="inlineStr"/>
+      <c r="EP209" t="inlineStr"/>
+      <c r="EQ209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -36847,14 +38432,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,60</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -36991,6 +38576,13 @@
       <c r="EH210" t="inlineStr"/>
       <c r="EI210" t="inlineStr"/>
       <c r="EJ210" t="inlineStr"/>
+      <c r="EK210" t="inlineStr"/>
+      <c r="EL210" t="inlineStr"/>
+      <c r="EM210" t="inlineStr"/>
+      <c r="EN210" t="inlineStr"/>
+      <c r="EO210" t="inlineStr"/>
+      <c r="EP210" t="inlineStr"/>
+      <c r="EQ210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -37005,14 +38597,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,60</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -37153,6 +38745,13 @@
       <c r="EH211" t="inlineStr"/>
       <c r="EI211" t="inlineStr"/>
       <c r="EJ211" t="inlineStr"/>
+      <c r="EK211" t="inlineStr"/>
+      <c r="EL211" t="inlineStr"/>
+      <c r="EM211" t="inlineStr"/>
+      <c r="EN211" t="inlineStr"/>
+      <c r="EO211" t="inlineStr"/>
+      <c r="EP211" t="inlineStr"/>
+      <c r="EQ211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -37167,14 +38766,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,60</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -37311,6 +38910,13 @@
       <c r="EH212" t="inlineStr"/>
       <c r="EI212" t="inlineStr"/>
       <c r="EJ212" t="inlineStr"/>
+      <c r="EK212" t="inlineStr"/>
+      <c r="EL212" t="inlineStr"/>
+      <c r="EM212" t="inlineStr"/>
+      <c r="EN212" t="inlineStr"/>
+      <c r="EO212" t="inlineStr"/>
+      <c r="EP212" t="inlineStr"/>
+      <c r="EQ212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -37325,14 +38931,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,60</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -37469,6 +39075,13 @@
       <c r="EH213" t="inlineStr"/>
       <c r="EI213" t="inlineStr"/>
       <c r="EJ213" t="inlineStr"/>
+      <c r="EK213" t="inlineStr"/>
+      <c r="EL213" t="inlineStr"/>
+      <c r="EM213" t="inlineStr"/>
+      <c r="EN213" t="inlineStr"/>
+      <c r="EO213" t="inlineStr"/>
+      <c r="EP213" t="inlineStr"/>
+      <c r="EQ213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -37631,6 +39244,13 @@
       <c r="EH214" t="inlineStr"/>
       <c r="EI214" t="inlineStr"/>
       <c r="EJ214" t="inlineStr"/>
+      <c r="EK214" t="inlineStr"/>
+      <c r="EL214" t="inlineStr"/>
+      <c r="EM214" t="inlineStr"/>
+      <c r="EN214" t="inlineStr"/>
+      <c r="EO214" t="inlineStr"/>
+      <c r="EP214" t="inlineStr"/>
+      <c r="EQ214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -37789,6 +39409,13 @@
       <c r="EH215" t="inlineStr"/>
       <c r="EI215" t="inlineStr"/>
       <c r="EJ215" t="inlineStr"/>
+      <c r="EK215" t="inlineStr"/>
+      <c r="EL215" t="inlineStr"/>
+      <c r="EM215" t="inlineStr"/>
+      <c r="EN215" t="inlineStr"/>
+      <c r="EO215" t="inlineStr"/>
+      <c r="EP215" t="inlineStr"/>
+      <c r="EQ215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -37947,6 +39574,13 @@
       <c r="EH216" t="inlineStr"/>
       <c r="EI216" t="inlineStr"/>
       <c r="EJ216" t="inlineStr"/>
+      <c r="EK216" t="inlineStr"/>
+      <c r="EL216" t="inlineStr"/>
+      <c r="EM216" t="inlineStr"/>
+      <c r="EN216" t="inlineStr"/>
+      <c r="EO216" t="inlineStr"/>
+      <c r="EP216" t="inlineStr"/>
+      <c r="EQ216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -38105,6 +39739,13 @@
       <c r="EH217" t="inlineStr"/>
       <c r="EI217" t="inlineStr"/>
       <c r="EJ217" t="inlineStr"/>
+      <c r="EK217" t="inlineStr"/>
+      <c r="EL217" t="inlineStr"/>
+      <c r="EM217" t="inlineStr"/>
+      <c r="EN217" t="inlineStr"/>
+      <c r="EO217" t="inlineStr"/>
+      <c r="EP217" t="inlineStr"/>
+      <c r="EQ217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -38119,14 +39760,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>15,80</t>
+          <t>16,40</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -38263,6 +39904,13 @@
       <c r="EH218" t="inlineStr"/>
       <c r="EI218" t="inlineStr"/>
       <c r="EJ218" t="inlineStr"/>
+      <c r="EK218" t="inlineStr"/>
+      <c r="EL218" t="inlineStr"/>
+      <c r="EM218" t="inlineStr"/>
+      <c r="EN218" t="inlineStr"/>
+      <c r="EO218" t="inlineStr"/>
+      <c r="EP218" t="inlineStr"/>
+      <c r="EQ218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -38277,14 +39925,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>15,80</t>
+          <t>16,40</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -38421,6 +40069,13 @@
       <c r="EH219" t="inlineStr"/>
       <c r="EI219" t="inlineStr"/>
       <c r="EJ219" t="inlineStr"/>
+      <c r="EK219" t="inlineStr"/>
+      <c r="EL219" t="inlineStr"/>
+      <c r="EM219" t="inlineStr"/>
+      <c r="EN219" t="inlineStr"/>
+      <c r="EO219" t="inlineStr"/>
+      <c r="EP219" t="inlineStr"/>
+      <c r="EQ219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -38435,14 +40090,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>15,80</t>
+          <t>16,40</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -38583,6 +40238,13 @@
       <c r="EH220" t="inlineStr"/>
       <c r="EI220" t="inlineStr"/>
       <c r="EJ220" t="inlineStr"/>
+      <c r="EK220" t="inlineStr"/>
+      <c r="EL220" t="inlineStr"/>
+      <c r="EM220" t="inlineStr"/>
+      <c r="EN220" t="inlineStr"/>
+      <c r="EO220" t="inlineStr"/>
+      <c r="EP220" t="inlineStr"/>
+      <c r="EQ220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -38597,14 +40259,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>29,2</t>
+          <t>30,2</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>29,20</t>
+          <t>30,20</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -38741,6 +40403,13 @@
       <c r="EH221" t="inlineStr"/>
       <c r="EI221" t="inlineStr"/>
       <c r="EJ221" t="inlineStr"/>
+      <c r="EK221" t="inlineStr"/>
+      <c r="EL221" t="inlineStr"/>
+      <c r="EM221" t="inlineStr"/>
+      <c r="EN221" t="inlineStr"/>
+      <c r="EO221" t="inlineStr"/>
+      <c r="EP221" t="inlineStr"/>
+      <c r="EQ221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -38755,14 +40424,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>30,2</t>
+          <t>31,2</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>29,20</t>
+          <t>30,20</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -38903,6 +40572,13 @@
       <c r="EH222" t="inlineStr"/>
       <c r="EI222" t="inlineStr"/>
       <c r="EJ222" t="inlineStr"/>
+      <c r="EK222" t="inlineStr"/>
+      <c r="EL222" t="inlineStr"/>
+      <c r="EM222" t="inlineStr"/>
+      <c r="EN222" t="inlineStr"/>
+      <c r="EO222" t="inlineStr"/>
+      <c r="EP222" t="inlineStr"/>
+      <c r="EQ222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -38917,14 +40593,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>49,2</t>
+          <t>50,2</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>29,20</t>
+          <t>30,20</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -39065,24 +40741,24 @@
       <c r="DN223" t="inlineStr"/>
       <c r="DO223" t="inlineStr"/>
       <c r="DP223" t="inlineStr"/>
-      <c r="DQ223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="DQ223" t="inlineStr"/>
       <c r="DR223" t="inlineStr"/>
       <c r="DS223" t="inlineStr"/>
-      <c r="DT223" t="inlineStr"/>
+      <c r="DT223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="DU223" t="inlineStr"/>
       <c r="DV223" t="inlineStr"/>
-      <c r="DW223" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DW223" t="inlineStr"/>
       <c r="DX223" t="inlineStr"/>
       <c r="DY223" t="inlineStr"/>
-      <c r="DZ223" t="inlineStr"/>
+      <c r="DZ223" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="EA223" t="inlineStr"/>
       <c r="EB223" t="inlineStr"/>
       <c r="EC223" t="inlineStr"/>
@@ -39093,6 +40769,13 @@
       <c r="EH223" t="inlineStr"/>
       <c r="EI223" t="inlineStr"/>
       <c r="EJ223" t="inlineStr"/>
+      <c r="EK223" t="inlineStr"/>
+      <c r="EL223" t="inlineStr"/>
+      <c r="EM223" t="inlineStr"/>
+      <c r="EN223" t="inlineStr"/>
+      <c r="EO223" t="inlineStr"/>
+      <c r="EP223" t="inlineStr"/>
+      <c r="EQ223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -39247,6 +40930,13 @@
       <c r="EH224" t="inlineStr"/>
       <c r="EI224" t="inlineStr"/>
       <c r="EJ224" t="inlineStr"/>
+      <c r="EK224" t="inlineStr"/>
+      <c r="EL224" t="inlineStr"/>
+      <c r="EM224" t="inlineStr"/>
+      <c r="EN224" t="inlineStr"/>
+      <c r="EO224" t="inlineStr"/>
+      <c r="EP224" t="inlineStr"/>
+      <c r="EQ224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -39401,6 +41091,13 @@
       <c r="EH225" t="inlineStr"/>
       <c r="EI225" t="inlineStr"/>
       <c r="EJ225" t="inlineStr"/>
+      <c r="EK225" t="inlineStr"/>
+      <c r="EL225" t="inlineStr"/>
+      <c r="EM225" t="inlineStr"/>
+      <c r="EN225" t="inlineStr"/>
+      <c r="EO225" t="inlineStr"/>
+      <c r="EP225" t="inlineStr"/>
+      <c r="EQ225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -39555,6 +41252,13 @@
       <c r="EH226" t="inlineStr"/>
       <c r="EI226" t="inlineStr"/>
       <c r="EJ226" t="inlineStr"/>
+      <c r="EK226" t="inlineStr"/>
+      <c r="EL226" t="inlineStr"/>
+      <c r="EM226" t="inlineStr"/>
+      <c r="EN226" t="inlineStr"/>
+      <c r="EO226" t="inlineStr"/>
+      <c r="EP226" t="inlineStr"/>
+      <c r="EQ226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -39709,6 +41413,13 @@
       <c r="EH227" t="inlineStr"/>
       <c r="EI227" t="inlineStr"/>
       <c r="EJ227" t="inlineStr"/>
+      <c r="EK227" t="inlineStr"/>
+      <c r="EL227" t="inlineStr"/>
+      <c r="EM227" t="inlineStr"/>
+      <c r="EN227" t="inlineStr"/>
+      <c r="EO227" t="inlineStr"/>
+      <c r="EP227" t="inlineStr"/>
+      <c r="EQ227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -39863,6 +41574,13 @@
       <c r="EH228" t="inlineStr"/>
       <c r="EI228" t="inlineStr"/>
       <c r="EJ228" t="inlineStr"/>
+      <c r="EK228" t="inlineStr"/>
+      <c r="EL228" t="inlineStr"/>
+      <c r="EM228" t="inlineStr"/>
+      <c r="EN228" t="inlineStr"/>
+      <c r="EO228" t="inlineStr"/>
+      <c r="EP228" t="inlineStr"/>
+      <c r="EQ228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -40029,6 +41747,13 @@
       <c r="EH229" t="inlineStr"/>
       <c r="EI229" t="inlineStr"/>
       <c r="EJ229" t="inlineStr"/>
+      <c r="EK229" t="inlineStr"/>
+      <c r="EL229" t="inlineStr"/>
+      <c r="EM229" t="inlineStr"/>
+      <c r="EN229" t="inlineStr"/>
+      <c r="EO229" t="inlineStr"/>
+      <c r="EP229" t="inlineStr"/>
+      <c r="EQ229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -40187,6 +41912,13 @@
       <c r="EH230" t="inlineStr"/>
       <c r="EI230" t="inlineStr"/>
       <c r="EJ230" t="inlineStr"/>
+      <c r="EK230" t="inlineStr"/>
+      <c r="EL230" t="inlineStr"/>
+      <c r="EM230" t="inlineStr"/>
+      <c r="EN230" t="inlineStr"/>
+      <c r="EO230" t="inlineStr"/>
+      <c r="EP230" t="inlineStr"/>
+      <c r="EQ230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -40345,6 +42077,13 @@
       <c r="EH231" t="inlineStr"/>
       <c r="EI231" t="inlineStr"/>
       <c r="EJ231" t="inlineStr"/>
+      <c r="EK231" t="inlineStr"/>
+      <c r="EL231" t="inlineStr"/>
+      <c r="EM231" t="inlineStr"/>
+      <c r="EN231" t="inlineStr"/>
+      <c r="EO231" t="inlineStr"/>
+      <c r="EP231" t="inlineStr"/>
+      <c r="EQ231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -40359,14 +42098,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>21,20</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -40503,6 +42242,13 @@
       <c r="EH232" t="inlineStr"/>
       <c r="EI232" t="inlineStr"/>
       <c r="EJ232" t="inlineStr"/>
+      <c r="EK232" t="inlineStr"/>
+      <c r="EL232" t="inlineStr"/>
+      <c r="EM232" t="inlineStr"/>
+      <c r="EN232" t="inlineStr"/>
+      <c r="EO232" t="inlineStr"/>
+      <c r="EP232" t="inlineStr"/>
+      <c r="EQ232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -40517,14 +42263,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>21,20</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
@@ -40661,6 +42407,13 @@
       <c r="EH233" t="inlineStr"/>
       <c r="EI233" t="inlineStr"/>
       <c r="EJ233" t="inlineStr"/>
+      <c r="EK233" t="inlineStr"/>
+      <c r="EL233" t="inlineStr"/>
+      <c r="EM233" t="inlineStr"/>
+      <c r="EN233" t="inlineStr"/>
+      <c r="EO233" t="inlineStr"/>
+      <c r="EP233" t="inlineStr"/>
+      <c r="EQ233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -40675,14 +42428,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>21,20</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -40819,6 +42572,13 @@
       <c r="EH234" t="inlineStr"/>
       <c r="EI234" t="inlineStr"/>
       <c r="EJ234" t="inlineStr"/>
+      <c r="EK234" t="inlineStr"/>
+      <c r="EL234" t="inlineStr"/>
+      <c r="EM234" t="inlineStr"/>
+      <c r="EN234" t="inlineStr"/>
+      <c r="EO234" t="inlineStr"/>
+      <c r="EP234" t="inlineStr"/>
+      <c r="EQ234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -40833,14 +42593,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>21,20</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -40977,6 +42737,13 @@
       <c r="EH235" t="inlineStr"/>
       <c r="EI235" t="inlineStr"/>
       <c r="EJ235" t="inlineStr"/>
+      <c r="EK235" t="inlineStr"/>
+      <c r="EL235" t="inlineStr"/>
+      <c r="EM235" t="inlineStr"/>
+      <c r="EN235" t="inlineStr"/>
+      <c r="EO235" t="inlineStr"/>
+      <c r="EP235" t="inlineStr"/>
+      <c r="EQ235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -40991,14 +42758,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>19,60</t>
+          <t>20,60</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -41135,6 +42902,13 @@
       <c r="EH236" t="inlineStr"/>
       <c r="EI236" t="inlineStr"/>
       <c r="EJ236" t="inlineStr"/>
+      <c r="EK236" t="inlineStr"/>
+      <c r="EL236" t="inlineStr"/>
+      <c r="EM236" t="inlineStr"/>
+      <c r="EN236" t="inlineStr"/>
+      <c r="EO236" t="inlineStr"/>
+      <c r="EP236" t="inlineStr"/>
+      <c r="EQ236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -41149,14 +42923,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>37,6</t>
+          <t>38,6</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>19,60</t>
+          <t>20,60</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -41304,14 +43078,14 @@
       <c r="DU237" t="inlineStr"/>
       <c r="DV237" t="inlineStr"/>
       <c r="DW237" t="inlineStr"/>
-      <c r="DX237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="DX237" t="inlineStr"/>
       <c r="DY237" t="inlineStr"/>
       <c r="DZ237" t="inlineStr"/>
-      <c r="EA237" t="inlineStr"/>
+      <c r="EA237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="EB237" t="inlineStr"/>
       <c r="EC237" t="inlineStr"/>
       <c r="ED237" t="inlineStr"/>
@@ -41321,6 +43095,13 @@
       <c r="EH237" t="inlineStr"/>
       <c r="EI237" t="inlineStr"/>
       <c r="EJ237" t="inlineStr"/>
+      <c r="EK237" t="inlineStr"/>
+      <c r="EL237" t="inlineStr"/>
+      <c r="EM237" t="inlineStr"/>
+      <c r="EN237" t="inlineStr"/>
+      <c r="EO237" t="inlineStr"/>
+      <c r="EP237" t="inlineStr"/>
+      <c r="EQ237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -41335,14 +43116,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>37,1</t>
+          <t>38,1</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>19,60</t>
+          <t>20,60</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -41507,6 +43288,13 @@
       <c r="EH238" t="inlineStr"/>
       <c r="EI238" t="inlineStr"/>
       <c r="EJ238" t="inlineStr"/>
+      <c r="EK238" t="inlineStr"/>
+      <c r="EL238" t="inlineStr"/>
+      <c r="EM238" t="inlineStr"/>
+      <c r="EN238" t="inlineStr"/>
+      <c r="EO238" t="inlineStr"/>
+      <c r="EP238" t="inlineStr"/>
+      <c r="EQ238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -41521,14 +43309,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>24,6</t>
+          <t>25,6</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>19,60</t>
+          <t>20,60</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
@@ -41677,6 +43465,13 @@
       <c r="EH239" t="inlineStr"/>
       <c r="EI239" t="inlineStr"/>
       <c r="EJ239" t="inlineStr"/>
+      <c r="EK239" t="inlineStr"/>
+      <c r="EL239" t="inlineStr"/>
+      <c r="EM239" t="inlineStr"/>
+      <c r="EN239" t="inlineStr"/>
+      <c r="EO239" t="inlineStr"/>
+      <c r="EP239" t="inlineStr"/>
+      <c r="EQ239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -41691,14 +43486,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -41835,6 +43630,13 @@
       <c r="EH240" t="inlineStr"/>
       <c r="EI240" t="inlineStr"/>
       <c r="EJ240" t="inlineStr"/>
+      <c r="EK240" t="inlineStr"/>
+      <c r="EL240" t="inlineStr"/>
+      <c r="EM240" t="inlineStr"/>
+      <c r="EN240" t="inlineStr"/>
+      <c r="EO240" t="inlineStr"/>
+      <c r="EP240" t="inlineStr"/>
+      <c r="EQ240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -41845,14 +43647,14 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -41989,6 +43791,13 @@
       <c r="EH241" t="inlineStr"/>
       <c r="EI241" t="inlineStr"/>
       <c r="EJ241" t="inlineStr"/>
+      <c r="EK241" t="inlineStr"/>
+      <c r="EL241" t="inlineStr"/>
+      <c r="EM241" t="inlineStr"/>
+      <c r="EN241" t="inlineStr"/>
+      <c r="EO241" t="inlineStr"/>
+      <c r="EP241" t="inlineStr"/>
+      <c r="EQ241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -41999,14 +43808,14 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -42143,6 +43952,13 @@
       <c r="EH242" t="inlineStr"/>
       <c r="EI242" t="inlineStr"/>
       <c r="EJ242" t="inlineStr"/>
+      <c r="EK242" t="inlineStr"/>
+      <c r="EL242" t="inlineStr"/>
+      <c r="EM242" t="inlineStr"/>
+      <c r="EN242" t="inlineStr"/>
+      <c r="EO242" t="inlineStr"/>
+      <c r="EP242" t="inlineStr"/>
+      <c r="EQ242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -42153,14 +43969,14 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -42297,6 +44113,13 @@
       <c r="EH243" t="inlineStr"/>
       <c r="EI243" t="inlineStr"/>
       <c r="EJ243" t="inlineStr"/>
+      <c r="EK243" t="inlineStr"/>
+      <c r="EL243" t="inlineStr"/>
+      <c r="EM243" t="inlineStr"/>
+      <c r="EN243" t="inlineStr"/>
+      <c r="EO243" t="inlineStr"/>
+      <c r="EP243" t="inlineStr"/>
+      <c r="EQ243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -42311,14 +44134,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>32,6</t>
+          <t>33,6</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>27,60</t>
+          <t>28,60</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
@@ -42459,6 +44282,13 @@
       <c r="EH244" t="inlineStr"/>
       <c r="EI244" t="inlineStr"/>
       <c r="EJ244" t="inlineStr"/>
+      <c r="EK244" t="inlineStr"/>
+      <c r="EL244" t="inlineStr"/>
+      <c r="EM244" t="inlineStr"/>
+      <c r="EN244" t="inlineStr"/>
+      <c r="EO244" t="inlineStr"/>
+      <c r="EP244" t="inlineStr"/>
+      <c r="EQ244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -42473,14 +44303,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>129,6</t>
+          <t>130,6</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>27,60</t>
+          <t>28,60</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
@@ -42605,14 +44435,14 @@
       <c r="DN245" t="inlineStr"/>
       <c r="DO245" t="inlineStr"/>
       <c r="DP245" t="inlineStr"/>
-      <c r="DQ245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="DQ245" t="inlineStr"/>
       <c r="DR245" t="inlineStr"/>
       <c r="DS245" t="inlineStr"/>
-      <c r="DT245" t="inlineStr"/>
+      <c r="DT245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="DU245" t="inlineStr"/>
       <c r="DV245" t="inlineStr"/>
       <c r="DW245" t="inlineStr"/>
@@ -42620,47 +44450,54 @@
       <c r="DY245" t="inlineStr"/>
       <c r="DZ245" t="inlineStr"/>
       <c r="EA245" t="inlineStr"/>
-      <c r="EB245" t="inlineStr">
+      <c r="EB245" t="inlineStr"/>
+      <c r="EC245" t="inlineStr"/>
+      <c r="ED245" t="inlineStr"/>
+      <c r="EE245" t="inlineStr"/>
+      <c r="EF245" t="inlineStr"/>
+      <c r="EG245" t="inlineStr"/>
+      <c r="EH245" t="inlineStr"/>
+      <c r="EI245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EC245" t="inlineStr">
+      <c r="EJ245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="ED245" t="inlineStr">
+      <c r="EK245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EE245" t="inlineStr">
+      <c r="EL245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EF245" t="inlineStr">
+      <c r="EM245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EG245" t="inlineStr">
+      <c r="EN245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EH245" t="inlineStr">
+      <c r="EO245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EI245" t="inlineStr">
+      <c r="EP245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="EJ245" t="inlineStr">
+      <c r="EQ245" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -42823,6 +44660,13 @@
       <c r="EH246" t="inlineStr"/>
       <c r="EI246" t="inlineStr"/>
       <c r="EJ246" t="inlineStr"/>
+      <c r="EK246" t="inlineStr"/>
+      <c r="EL246" t="inlineStr"/>
+      <c r="EM246" t="inlineStr"/>
+      <c r="EN246" t="inlineStr"/>
+      <c r="EO246" t="inlineStr"/>
+      <c r="EP246" t="inlineStr"/>
+      <c r="EQ246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -42981,6 +44825,13 @@
       <c r="EH247" t="inlineStr"/>
       <c r="EI247" t="inlineStr"/>
       <c r="EJ247" t="inlineStr"/>
+      <c r="EK247" t="inlineStr"/>
+      <c r="EL247" t="inlineStr"/>
+      <c r="EM247" t="inlineStr"/>
+      <c r="EN247" t="inlineStr"/>
+      <c r="EO247" t="inlineStr"/>
+      <c r="EP247" t="inlineStr"/>
+      <c r="EQ247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -43139,6 +44990,13 @@
       <c r="EH248" t="inlineStr"/>
       <c r="EI248" t="inlineStr"/>
       <c r="EJ248" t="inlineStr"/>
+      <c r="EK248" t="inlineStr"/>
+      <c r="EL248" t="inlineStr"/>
+      <c r="EM248" t="inlineStr"/>
+      <c r="EN248" t="inlineStr"/>
+      <c r="EO248" t="inlineStr"/>
+      <c r="EP248" t="inlineStr"/>
+      <c r="EQ248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -43153,14 +45011,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20,4</t>
+          <t>21,2</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>20,40</t>
+          <t>21,20</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -43297,6 +45155,13 @@
       <c r="EH249" t="inlineStr"/>
       <c r="EI249" t="inlineStr"/>
       <c r="EJ249" t="inlineStr"/>
+      <c r="EK249" t="inlineStr"/>
+      <c r="EL249" t="inlineStr"/>
+      <c r="EM249" t="inlineStr"/>
+      <c r="EN249" t="inlineStr"/>
+      <c r="EO249" t="inlineStr"/>
+      <c r="EP249" t="inlineStr"/>
+      <c r="EQ249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -43311,14 +45176,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20,4</t>
+          <t>21,2</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>20,40</t>
+          <t>21,20</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -43455,6 +45320,13 @@
       <c r="EH250" t="inlineStr"/>
       <c r="EI250" t="inlineStr"/>
       <c r="EJ250" t="inlineStr"/>
+      <c r="EK250" t="inlineStr"/>
+      <c r="EL250" t="inlineStr"/>
+      <c r="EM250" t="inlineStr"/>
+      <c r="EN250" t="inlineStr"/>
+      <c r="EO250" t="inlineStr"/>
+      <c r="EP250" t="inlineStr"/>
+      <c r="EQ250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -43469,14 +45341,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>20,4</t>
+          <t>21,2</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>20,40</t>
+          <t>21,20</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
@@ -43613,6 +45485,13 @@
       <c r="EH251" t="inlineStr"/>
       <c r="EI251" t="inlineStr"/>
       <c r="EJ251" t="inlineStr"/>
+      <c r="EK251" t="inlineStr"/>
+      <c r="EL251" t="inlineStr"/>
+      <c r="EM251" t="inlineStr"/>
+      <c r="EN251" t="inlineStr"/>
+      <c r="EO251" t="inlineStr"/>
+      <c r="EP251" t="inlineStr"/>
+      <c r="EQ251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -43627,14 +45506,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>23,2</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>20,40</t>
+          <t>21,20</t>
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
@@ -43779,6 +45658,13 @@
       <c r="EH252" t="inlineStr"/>
       <c r="EI252" t="inlineStr"/>
       <c r="EJ252" t="inlineStr"/>
+      <c r="EK252" t="inlineStr"/>
+      <c r="EL252" t="inlineStr"/>
+      <c r="EM252" t="inlineStr"/>
+      <c r="EN252" t="inlineStr"/>
+      <c r="EO252" t="inlineStr"/>
+      <c r="EP252" t="inlineStr"/>
+      <c r="EQ252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -43793,14 +45679,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>15,2</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>14,40</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -43937,6 +45823,13 @@
       <c r="EH253" t="inlineStr"/>
       <c r="EI253" t="inlineStr"/>
       <c r="EJ253" t="inlineStr"/>
+      <c r="EK253" t="inlineStr"/>
+      <c r="EL253" t="inlineStr"/>
+      <c r="EM253" t="inlineStr"/>
+      <c r="EN253" t="inlineStr"/>
+      <c r="EO253" t="inlineStr"/>
+      <c r="EP253" t="inlineStr"/>
+      <c r="EQ253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -43951,14 +45844,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>39,4</t>
+          <t>40,2</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>14,40</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
@@ -44097,39 +45990,39 @@
       <c r="DL254" t="inlineStr"/>
       <c r="DM254" t="inlineStr"/>
       <c r="DN254" t="inlineStr"/>
-      <c r="DO254" t="inlineStr">
+      <c r="DO254" t="inlineStr"/>
+      <c r="DP254" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DP254" t="inlineStr"/>
-      <c r="DQ254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DQ254" t="inlineStr"/>
       <c r="DR254" t="inlineStr"/>
       <c r="DS254" t="inlineStr"/>
-      <c r="DT254" t="inlineStr"/>
-      <c r="DU254" t="inlineStr">
+      <c r="DT254" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DV254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DU254" t="inlineStr"/>
+      <c r="DV254" t="inlineStr"/>
       <c r="DW254" t="inlineStr"/>
       <c r="DX254" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DY254" t="inlineStr"/>
+      <c r="DY254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DZ254" t="inlineStr"/>
-      <c r="EA254" t="inlineStr"/>
+      <c r="EA254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB254" t="inlineStr"/>
       <c r="EC254" t="inlineStr"/>
       <c r="ED254" t="inlineStr"/>
@@ -44139,6 +46032,13 @@
       <c r="EH254" t="inlineStr"/>
       <c r="EI254" t="inlineStr"/>
       <c r="EJ254" t="inlineStr"/>
+      <c r="EK254" t="inlineStr"/>
+      <c r="EL254" t="inlineStr"/>
+      <c r="EM254" t="inlineStr"/>
+      <c r="EN254" t="inlineStr"/>
+      <c r="EO254" t="inlineStr"/>
+      <c r="EP254" t="inlineStr"/>
+      <c r="EQ254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -44153,14 +46053,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>52,4</t>
+          <t>53,2</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>14,40</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -44327,26 +46227,26 @@
       <c r="DL255" t="inlineStr"/>
       <c r="DM255" t="inlineStr"/>
       <c r="DN255" t="inlineStr"/>
-      <c r="DO255" t="inlineStr">
+      <c r="DO255" t="inlineStr"/>
+      <c r="DP255" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DP255" t="inlineStr"/>
       <c r="DQ255" t="inlineStr"/>
       <c r="DR255" t="inlineStr"/>
       <c r="DS255" t="inlineStr"/>
       <c r="DT255" t="inlineStr"/>
       <c r="DU255" t="inlineStr"/>
       <c r="DV255" t="inlineStr"/>
-      <c r="DW255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW255" t="inlineStr"/>
       <c r="DX255" t="inlineStr"/>
       <c r="DY255" t="inlineStr"/>
-      <c r="DZ255" t="inlineStr"/>
+      <c r="DZ255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA255" t="inlineStr"/>
       <c r="EB255" t="inlineStr"/>
       <c r="EC255" t="inlineStr"/>
@@ -44357,6 +46257,13 @@
       <c r="EH255" t="inlineStr"/>
       <c r="EI255" t="inlineStr"/>
       <c r="EJ255" t="inlineStr"/>
+      <c r="EK255" t="inlineStr"/>
+      <c r="EL255" t="inlineStr"/>
+      <c r="EM255" t="inlineStr"/>
+      <c r="EN255" t="inlineStr"/>
+      <c r="EO255" t="inlineStr"/>
+      <c r="EP255" t="inlineStr"/>
+      <c r="EQ255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -44371,14 +46278,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>79,4</t>
+          <t>82,2</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>14,40</t>
+          <t>15,20</t>
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
@@ -44610,30 +46517,30 @@
       </c>
       <c r="DN256" t="inlineStr"/>
       <c r="DO256" t="inlineStr"/>
-      <c r="DP256" t="inlineStr">
+      <c r="DP256" t="inlineStr"/>
+      <c r="DQ256" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DQ256" t="inlineStr">
+      <c r="DR256" t="inlineStr"/>
+      <c r="DS256" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DR256" t="inlineStr"/>
-      <c r="DS256" t="inlineStr"/>
       <c r="DT256" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DU256" t="inlineStr"/>
+      <c r="DV256" t="inlineStr"/>
+      <c r="DW256" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DU256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="DV256" t="inlineStr"/>
-      <c r="DW256" t="inlineStr"/>
       <c r="DX256" t="inlineStr">
         <is>
           <t>2</t>
@@ -44641,9 +46548,17 @@
       </c>
       <c r="DY256" t="inlineStr"/>
       <c r="DZ256" t="inlineStr"/>
-      <c r="EA256" t="inlineStr"/>
+      <c r="EA256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB256" t="inlineStr"/>
-      <c r="EC256" t="inlineStr"/>
+      <c r="EC256" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="ED256" t="inlineStr"/>
       <c r="EE256" t="inlineStr"/>
       <c r="EF256" t="inlineStr"/>
@@ -44651,6 +46566,13 @@
       <c r="EH256" t="inlineStr"/>
       <c r="EI256" t="inlineStr"/>
       <c r="EJ256" t="inlineStr"/>
+      <c r="EK256" t="inlineStr"/>
+      <c r="EL256" t="inlineStr"/>
+      <c r="EM256" t="inlineStr"/>
+      <c r="EN256" t="inlineStr"/>
+      <c r="EO256" t="inlineStr"/>
+      <c r="EP256" t="inlineStr"/>
+      <c r="EQ256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -44665,14 +46587,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>31,00</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -44825,6 +46747,13 @@
       <c r="EH257" t="inlineStr"/>
       <c r="EI257" t="inlineStr"/>
       <c r="EJ257" t="inlineStr"/>
+      <c r="EK257" t="inlineStr"/>
+      <c r="EL257" t="inlineStr"/>
+      <c r="EM257" t="inlineStr"/>
+      <c r="EN257" t="inlineStr"/>
+      <c r="EO257" t="inlineStr"/>
+      <c r="EP257" t="inlineStr"/>
+      <c r="EQ257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -44839,14 +46768,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>31,00</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
@@ -44979,14 +46908,14 @@
       <c r="DR258" t="inlineStr"/>
       <c r="DS258" t="inlineStr"/>
       <c r="DT258" t="inlineStr"/>
-      <c r="DU258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DU258" t="inlineStr"/>
       <c r="DV258" t="inlineStr"/>
       <c r="DW258" t="inlineStr"/>
-      <c r="DX258" t="inlineStr"/>
+      <c r="DX258" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="DY258" t="inlineStr"/>
       <c r="DZ258" t="inlineStr"/>
       <c r="EA258" t="inlineStr"/>
@@ -44999,6 +46928,13 @@
       <c r="EH258" t="inlineStr"/>
       <c r="EI258" t="inlineStr"/>
       <c r="EJ258" t="inlineStr"/>
+      <c r="EK258" t="inlineStr"/>
+      <c r="EL258" t="inlineStr"/>
+      <c r="EM258" t="inlineStr"/>
+      <c r="EN258" t="inlineStr"/>
+      <c r="EO258" t="inlineStr"/>
+      <c r="EP258" t="inlineStr"/>
+      <c r="EQ258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -45013,14 +46949,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>31,00</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -45157,6 +47093,13 @@
       <c r="EH259" t="inlineStr"/>
       <c r="EI259" t="inlineStr"/>
       <c r="EJ259" t="inlineStr"/>
+      <c r="EK259" t="inlineStr"/>
+      <c r="EL259" t="inlineStr"/>
+      <c r="EM259" t="inlineStr"/>
+      <c r="EN259" t="inlineStr"/>
+      <c r="EO259" t="inlineStr"/>
+      <c r="EP259" t="inlineStr"/>
+      <c r="EQ259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -45171,14 +47114,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>31,00</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -45319,6 +47262,13 @@
       <c r="EH260" t="inlineStr"/>
       <c r="EI260" t="inlineStr"/>
       <c r="EJ260" t="inlineStr"/>
+      <c r="EK260" t="inlineStr"/>
+      <c r="EL260" t="inlineStr"/>
+      <c r="EM260" t="inlineStr"/>
+      <c r="EN260" t="inlineStr"/>
+      <c r="EO260" t="inlineStr"/>
+      <c r="EP260" t="inlineStr"/>
+      <c r="EQ260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -45333,14 +47283,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>23,2</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>22,20</t>
+          <t>23,20</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
@@ -45477,6 +47427,13 @@
       <c r="EH261" t="inlineStr"/>
       <c r="EI261" t="inlineStr"/>
       <c r="EJ261" t="inlineStr"/>
+      <c r="EK261" t="inlineStr"/>
+      <c r="EL261" t="inlineStr"/>
+      <c r="EM261" t="inlineStr"/>
+      <c r="EN261" t="inlineStr"/>
+      <c r="EO261" t="inlineStr"/>
+      <c r="EP261" t="inlineStr"/>
+      <c r="EQ261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -45487,14 +47444,14 @@
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>23,2</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>22,20</t>
+          <t>23,20</t>
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
@@ -45631,6 +47588,13 @@
       <c r="EH262" t="inlineStr"/>
       <c r="EI262" t="inlineStr"/>
       <c r="EJ262" t="inlineStr"/>
+      <c r="EK262" t="inlineStr"/>
+      <c r="EL262" t="inlineStr"/>
+      <c r="EM262" t="inlineStr"/>
+      <c r="EN262" t="inlineStr"/>
+      <c r="EO262" t="inlineStr"/>
+      <c r="EP262" t="inlineStr"/>
+      <c r="EQ262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -45645,14 +47609,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>23,2</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>22,20</t>
+          <t>23,20</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
@@ -45789,6 +47753,13 @@
       <c r="EH263" t="inlineStr"/>
       <c r="EI263" t="inlineStr"/>
       <c r="EJ263" t="inlineStr"/>
+      <c r="EK263" t="inlineStr"/>
+      <c r="EL263" t="inlineStr"/>
+      <c r="EM263" t="inlineStr"/>
+      <c r="EN263" t="inlineStr"/>
+      <c r="EO263" t="inlineStr"/>
+      <c r="EP263" t="inlineStr"/>
+      <c r="EQ263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -45803,14 +47774,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>112,2</t>
+          <t>115,2</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>22,20</t>
+          <t>23,20</t>
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
@@ -46061,52 +48032,67 @@
       <c r="DL264" t="inlineStr"/>
       <c r="DM264" t="inlineStr"/>
       <c r="DN264" t="inlineStr"/>
-      <c r="DO264" t="inlineStr">
+      <c r="DO264" t="inlineStr"/>
+      <c r="DP264" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="DP264" t="inlineStr"/>
       <c r="DQ264" t="inlineStr"/>
-      <c r="DR264" t="inlineStr">
+      <c r="DR264" t="inlineStr"/>
+      <c r="DS264" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DS264" t="inlineStr"/>
-      <c r="DT264" t="inlineStr">
+      <c r="DT264" t="inlineStr"/>
+      <c r="DU264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DV264" t="inlineStr"/>
+      <c r="DW264" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DU264" t="inlineStr">
+      <c r="DX264" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DV264" t="inlineStr">
+      <c r="DY264" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DW264" t="inlineStr"/>
-      <c r="DX264" t="inlineStr">
+      <c r="DZ264" t="inlineStr"/>
+      <c r="EA264" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DY264" t="inlineStr"/>
-      <c r="DZ264" t="inlineStr"/>
-      <c r="EA264" t="inlineStr"/>
       <c r="EB264" t="inlineStr"/>
       <c r="EC264" t="inlineStr"/>
-      <c r="ED264" t="inlineStr"/>
+      <c r="ED264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EE264" t="inlineStr"/>
       <c r="EF264" t="inlineStr"/>
       <c r="EG264" t="inlineStr"/>
       <c r="EH264" t="inlineStr"/>
       <c r="EI264" t="inlineStr"/>
       <c r="EJ264" t="inlineStr"/>
+      <c r="EK264" t="inlineStr"/>
+      <c r="EL264" t="inlineStr"/>
+      <c r="EM264" t="inlineStr"/>
+      <c r="EN264" t="inlineStr"/>
+      <c r="EO264" t="inlineStr"/>
+      <c r="EP264" t="inlineStr"/>
+      <c r="EQ264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -46261,6 +48247,13 @@
       <c r="EH265" t="inlineStr"/>
       <c r="EI265" t="inlineStr"/>
       <c r="EJ265" t="inlineStr"/>
+      <c r="EK265" t="inlineStr"/>
+      <c r="EL265" t="inlineStr"/>
+      <c r="EM265" t="inlineStr"/>
+      <c r="EN265" t="inlineStr"/>
+      <c r="EO265" t="inlineStr"/>
+      <c r="EP265" t="inlineStr"/>
+      <c r="EQ265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -46415,6 +48408,13 @@
       <c r="EH266" t="inlineStr"/>
       <c r="EI266" t="inlineStr"/>
       <c r="EJ266" t="inlineStr"/>
+      <c r="EK266" t="inlineStr"/>
+      <c r="EL266" t="inlineStr"/>
+      <c r="EM266" t="inlineStr"/>
+      <c r="EN266" t="inlineStr"/>
+      <c r="EO266" t="inlineStr"/>
+      <c r="EP266" t="inlineStr"/>
+      <c r="EQ266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -46569,6 +48569,13 @@
       <c r="EH267" t="inlineStr"/>
       <c r="EI267" t="inlineStr"/>
       <c r="EJ267" t="inlineStr"/>
+      <c r="EK267" t="inlineStr"/>
+      <c r="EL267" t="inlineStr"/>
+      <c r="EM267" t="inlineStr"/>
+      <c r="EN267" t="inlineStr"/>
+      <c r="EO267" t="inlineStr"/>
+      <c r="EP267" t="inlineStr"/>
+      <c r="EQ267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -46723,6 +48730,13 @@
       <c r="EH268" t="inlineStr"/>
       <c r="EI268" t="inlineStr"/>
       <c r="EJ268" t="inlineStr"/>
+      <c r="EK268" t="inlineStr"/>
+      <c r="EL268" t="inlineStr"/>
+      <c r="EM268" t="inlineStr"/>
+      <c r="EN268" t="inlineStr"/>
+      <c r="EO268" t="inlineStr"/>
+      <c r="EP268" t="inlineStr"/>
+      <c r="EQ268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -46877,6 +48891,13 @@
       <c r="EH269" t="inlineStr"/>
       <c r="EI269" t="inlineStr"/>
       <c r="EJ269" t="inlineStr"/>
+      <c r="EK269" t="inlineStr"/>
+      <c r="EL269" t="inlineStr"/>
+      <c r="EM269" t="inlineStr"/>
+      <c r="EN269" t="inlineStr"/>
+      <c r="EO269" t="inlineStr"/>
+      <c r="EP269" t="inlineStr"/>
+      <c r="EQ269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -47031,6 +49052,13 @@
       <c r="EH270" t="inlineStr"/>
       <c r="EI270" t="inlineStr"/>
       <c r="EJ270" t="inlineStr"/>
+      <c r="EK270" t="inlineStr"/>
+      <c r="EL270" t="inlineStr"/>
+      <c r="EM270" t="inlineStr"/>
+      <c r="EN270" t="inlineStr"/>
+      <c r="EO270" t="inlineStr"/>
+      <c r="EP270" t="inlineStr"/>
+      <c r="EQ270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -47185,6 +49213,13 @@
       <c r="EH271" t="inlineStr"/>
       <c r="EI271" t="inlineStr"/>
       <c r="EJ271" t="inlineStr"/>
+      <c r="EK271" t="inlineStr"/>
+      <c r="EL271" t="inlineStr"/>
+      <c r="EM271" t="inlineStr"/>
+      <c r="EN271" t="inlineStr"/>
+      <c r="EO271" t="inlineStr"/>
+      <c r="EP271" t="inlineStr"/>
+      <c r="EQ271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -47339,6 +49374,13 @@
       <c r="EH272" t="inlineStr"/>
       <c r="EI272" t="inlineStr"/>
       <c r="EJ272" t="inlineStr"/>
+      <c r="EK272" t="inlineStr"/>
+      <c r="EL272" t="inlineStr"/>
+      <c r="EM272" t="inlineStr"/>
+      <c r="EN272" t="inlineStr"/>
+      <c r="EO272" t="inlineStr"/>
+      <c r="EP272" t="inlineStr"/>
+      <c r="EQ272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -47353,14 +49395,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>49,4</t>
+          <t>50,4</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>26,40</t>
+          <t>27,40</t>
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
@@ -47512,12 +49554,12 @@
       <c r="DM273" t="inlineStr"/>
       <c r="DN273" t="inlineStr"/>
       <c r="DO273" t="inlineStr"/>
-      <c r="DP273" t="inlineStr">
+      <c r="DP273" t="inlineStr"/>
+      <c r="DQ273" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DQ273" t="inlineStr"/>
       <c r="DR273" t="inlineStr"/>
       <c r="DS273" t="inlineStr"/>
       <c r="DT273" t="inlineStr"/>
@@ -47537,6 +49579,13 @@
       <c r="EH273" t="inlineStr"/>
       <c r="EI273" t="inlineStr"/>
       <c r="EJ273" t="inlineStr"/>
+      <c r="EK273" t="inlineStr"/>
+      <c r="EL273" t="inlineStr"/>
+      <c r="EM273" t="inlineStr"/>
+      <c r="EN273" t="inlineStr"/>
+      <c r="EO273" t="inlineStr"/>
+      <c r="EP273" t="inlineStr"/>
+      <c r="EQ273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -47551,14 +49600,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>36,4</t>
+          <t>38,4</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>26,40</t>
+          <t>27,40</t>
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
@@ -47703,7 +49752,11 @@
       <c r="DZ274" t="inlineStr"/>
       <c r="EA274" t="inlineStr"/>
       <c r="EB274" t="inlineStr"/>
-      <c r="EC274" t="inlineStr"/>
+      <c r="EC274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="ED274" t="inlineStr"/>
       <c r="EE274" t="inlineStr"/>
       <c r="EF274" t="inlineStr"/>
@@ -47711,6 +49764,13 @@
       <c r="EH274" t="inlineStr"/>
       <c r="EI274" t="inlineStr"/>
       <c r="EJ274" t="inlineStr"/>
+      <c r="EK274" t="inlineStr"/>
+      <c r="EL274" t="inlineStr"/>
+      <c r="EM274" t="inlineStr"/>
+      <c r="EN274" t="inlineStr"/>
+      <c r="EO274" t="inlineStr"/>
+      <c r="EP274" t="inlineStr"/>
+      <c r="EQ274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -47725,14 +49785,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>54,4</t>
+          <t>55,4</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>26,40</t>
+          <t>27,40</t>
         </is>
       </c>
       <c r="G275" t="inlineStr"/>
@@ -47883,20 +49943,27 @@
       <c r="DX275" t="inlineStr"/>
       <c r="DY275" t="inlineStr"/>
       <c r="DZ275" t="inlineStr"/>
-      <c r="EA275" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="EA275" t="inlineStr"/>
       <c r="EB275" t="inlineStr"/>
       <c r="EC275" t="inlineStr"/>
       <c r="ED275" t="inlineStr"/>
       <c r="EE275" t="inlineStr"/>
       <c r="EF275" t="inlineStr"/>
       <c r="EG275" t="inlineStr"/>
-      <c r="EH275" t="inlineStr"/>
+      <c r="EH275" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="EI275" t="inlineStr"/>
       <c r="EJ275" t="inlineStr"/>
+      <c r="EK275" t="inlineStr"/>
+      <c r="EL275" t="inlineStr"/>
+      <c r="EM275" t="inlineStr"/>
+      <c r="EN275" t="inlineStr"/>
+      <c r="EO275" t="inlineStr"/>
+      <c r="EP275" t="inlineStr"/>
+      <c r="EQ275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -47911,14 +49978,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>23,4</t>
+          <t>24,4</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -48055,6 +50122,13 @@
       <c r="EH276" t="inlineStr"/>
       <c r="EI276" t="inlineStr"/>
       <c r="EJ276" t="inlineStr"/>
+      <c r="EK276" t="inlineStr"/>
+      <c r="EL276" t="inlineStr"/>
+      <c r="EM276" t="inlineStr"/>
+      <c r="EN276" t="inlineStr"/>
+      <c r="EO276" t="inlineStr"/>
+      <c r="EP276" t="inlineStr"/>
+      <c r="EQ276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -48069,14 +50143,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>24,9</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
@@ -48217,6 +50291,13 @@
       <c r="EH277" t="inlineStr"/>
       <c r="EI277" t="inlineStr"/>
       <c r="EJ277" t="inlineStr"/>
+      <c r="EK277" t="inlineStr"/>
+      <c r="EL277" t="inlineStr"/>
+      <c r="EM277" t="inlineStr"/>
+      <c r="EN277" t="inlineStr"/>
+      <c r="EO277" t="inlineStr"/>
+      <c r="EP277" t="inlineStr"/>
+      <c r="EQ277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -48231,14 +50312,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>65,4</t>
+          <t>66,4</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>23,40</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
@@ -48409,14 +50490,14 @@
       <c r="DT278" t="inlineStr"/>
       <c r="DU278" t="inlineStr"/>
       <c r="DV278" t="inlineStr"/>
-      <c r="DW278" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DW278" t="inlineStr"/>
       <c r="DX278" t="inlineStr"/>
       <c r="DY278" t="inlineStr"/>
-      <c r="DZ278" t="inlineStr"/>
+      <c r="DZ278" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="EA278" t="inlineStr"/>
       <c r="EB278" t="inlineStr"/>
       <c r="EC278" t="inlineStr"/>
@@ -48427,6 +50508,13 @@
       <c r="EH278" t="inlineStr"/>
       <c r="EI278" t="inlineStr"/>
       <c r="EJ278" t="inlineStr"/>
+      <c r="EK278" t="inlineStr"/>
+      <c r="EL278" t="inlineStr"/>
+      <c r="EM278" t="inlineStr"/>
+      <c r="EN278" t="inlineStr"/>
+      <c r="EO278" t="inlineStr"/>
+      <c r="EP278" t="inlineStr"/>
+      <c r="EQ278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -48589,6 +50677,13 @@
       <c r="EH279" t="inlineStr"/>
       <c r="EI279" t="inlineStr"/>
       <c r="EJ279" t="inlineStr"/>
+      <c r="EK279" t="inlineStr"/>
+      <c r="EL279" t="inlineStr"/>
+      <c r="EM279" t="inlineStr"/>
+      <c r="EN279" t="inlineStr"/>
+      <c r="EO279" t="inlineStr"/>
+      <c r="EP279" t="inlineStr"/>
+      <c r="EQ279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -48749,21 +50844,21 @@
       <c r="DL280" t="inlineStr"/>
       <c r="DM280" t="inlineStr"/>
       <c r="DN280" t="inlineStr"/>
-      <c r="DO280" t="inlineStr">
+      <c r="DO280" t="inlineStr"/>
+      <c r="DP280" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="DP280" t="inlineStr"/>
       <c r="DQ280" t="inlineStr"/>
-      <c r="DR280" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="DR280" t="inlineStr"/>
       <c r="DS280" t="inlineStr"/>
       <c r="DT280" t="inlineStr"/>
-      <c r="DU280" t="inlineStr"/>
+      <c r="DU280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DV280" t="inlineStr"/>
       <c r="DW280" t="inlineStr"/>
       <c r="DX280" t="inlineStr"/>
@@ -48779,6 +50874,13 @@
       <c r="EH280" t="inlineStr"/>
       <c r="EI280" t="inlineStr"/>
       <c r="EJ280" t="inlineStr"/>
+      <c r="EK280" t="inlineStr"/>
+      <c r="EL280" t="inlineStr"/>
+      <c r="EM280" t="inlineStr"/>
+      <c r="EN280" t="inlineStr"/>
+      <c r="EO280" t="inlineStr"/>
+      <c r="EP280" t="inlineStr"/>
+      <c r="EQ280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -48961,6 +51063,13 @@
       <c r="EH281" t="inlineStr"/>
       <c r="EI281" t="inlineStr"/>
       <c r="EJ281" t="inlineStr"/>
+      <c r="EK281" t="inlineStr"/>
+      <c r="EL281" t="inlineStr"/>
+      <c r="EM281" t="inlineStr"/>
+      <c r="EN281" t="inlineStr"/>
+      <c r="EO281" t="inlineStr"/>
+      <c r="EP281" t="inlineStr"/>
+      <c r="EQ281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -49119,6 +51228,13 @@
       <c r="EH282" t="inlineStr"/>
       <c r="EI282" t="inlineStr"/>
       <c r="EJ282" t="inlineStr"/>
+      <c r="EK282" t="inlineStr"/>
+      <c r="EL282" t="inlineStr"/>
+      <c r="EM282" t="inlineStr"/>
+      <c r="EN282" t="inlineStr"/>
+      <c r="EO282" t="inlineStr"/>
+      <c r="EP282" t="inlineStr"/>
+      <c r="EQ282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -49301,6 +51417,13 @@
       <c r="EH283" t="inlineStr"/>
       <c r="EI283" t="inlineStr"/>
       <c r="EJ283" t="inlineStr"/>
+      <c r="EK283" t="inlineStr"/>
+      <c r="EL283" t="inlineStr"/>
+      <c r="EM283" t="inlineStr"/>
+      <c r="EN283" t="inlineStr"/>
+      <c r="EO283" t="inlineStr"/>
+      <c r="EP283" t="inlineStr"/>
+      <c r="EQ283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -49459,6 +51582,13 @@
       <c r="EH284" t="inlineStr"/>
       <c r="EI284" t="inlineStr"/>
       <c r="EJ284" t="inlineStr"/>
+      <c r="EK284" t="inlineStr"/>
+      <c r="EL284" t="inlineStr"/>
+      <c r="EM284" t="inlineStr"/>
+      <c r="EN284" t="inlineStr"/>
+      <c r="EO284" t="inlineStr"/>
+      <c r="EP284" t="inlineStr"/>
+      <c r="EQ284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -49647,20 +51777,27 @@
       <c r="DX285" t="inlineStr"/>
       <c r="DY285" t="inlineStr"/>
       <c r="DZ285" t="inlineStr"/>
-      <c r="EA285" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+      <c r="EA285" t="inlineStr"/>
       <c r="EB285" t="inlineStr"/>
       <c r="EC285" t="inlineStr"/>
       <c r="ED285" t="inlineStr"/>
       <c r="EE285" t="inlineStr"/>
       <c r="EF285" t="inlineStr"/>
       <c r="EG285" t="inlineStr"/>
-      <c r="EH285" t="inlineStr"/>
+      <c r="EH285" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="EI285" t="inlineStr"/>
       <c r="EJ285" t="inlineStr"/>
+      <c r="EK285" t="inlineStr"/>
+      <c r="EL285" t="inlineStr"/>
+      <c r="EM285" t="inlineStr"/>
+      <c r="EN285" t="inlineStr"/>
+      <c r="EO285" t="inlineStr"/>
+      <c r="EP285" t="inlineStr"/>
+      <c r="EQ285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -49819,6 +51956,13 @@
       <c r="EH286" t="inlineStr"/>
       <c r="EI286" t="inlineStr"/>
       <c r="EJ286" t="inlineStr"/>
+      <c r="EK286" t="inlineStr"/>
+      <c r="EL286" t="inlineStr"/>
+      <c r="EM286" t="inlineStr"/>
+      <c r="EN286" t="inlineStr"/>
+      <c r="EO286" t="inlineStr"/>
+      <c r="EP286" t="inlineStr"/>
+      <c r="EQ286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -49977,6 +52121,13 @@
       <c r="EH287" t="inlineStr"/>
       <c r="EI287" t="inlineStr"/>
       <c r="EJ287" t="inlineStr"/>
+      <c r="EK287" t="inlineStr"/>
+      <c r="EL287" t="inlineStr"/>
+      <c r="EM287" t="inlineStr"/>
+      <c r="EN287" t="inlineStr"/>
+      <c r="EO287" t="inlineStr"/>
+      <c r="EP287" t="inlineStr"/>
+      <c r="EQ287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -50193,14 +52344,14 @@
       <c r="DT288" t="inlineStr"/>
       <c r="DU288" t="inlineStr"/>
       <c r="DV288" t="inlineStr"/>
-      <c r="DW288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW288" t="inlineStr"/>
       <c r="DX288" t="inlineStr"/>
       <c r="DY288" t="inlineStr"/>
-      <c r="DZ288" t="inlineStr"/>
+      <c r="DZ288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EA288" t="inlineStr"/>
       <c r="EB288" t="inlineStr"/>
       <c r="EC288" t="inlineStr"/>
@@ -50211,6 +52362,13 @@
       <c r="EH288" t="inlineStr"/>
       <c r="EI288" t="inlineStr"/>
       <c r="EJ288" t="inlineStr"/>
+      <c r="EK288" t="inlineStr"/>
+      <c r="EL288" t="inlineStr"/>
+      <c r="EM288" t="inlineStr"/>
+      <c r="EN288" t="inlineStr"/>
+      <c r="EO288" t="inlineStr"/>
+      <c r="EP288" t="inlineStr"/>
+      <c r="EQ288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -50365,6 +52523,13 @@
       <c r="EH289" t="inlineStr"/>
       <c r="EI289" t="inlineStr"/>
       <c r="EJ289" t="inlineStr"/>
+      <c r="EK289" t="inlineStr"/>
+      <c r="EL289" t="inlineStr"/>
+      <c r="EM289" t="inlineStr"/>
+      <c r="EN289" t="inlineStr"/>
+      <c r="EO289" t="inlineStr"/>
+      <c r="EP289" t="inlineStr"/>
+      <c r="EQ289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -50559,6 +52724,13 @@
       <c r="EH290" t="inlineStr"/>
       <c r="EI290" t="inlineStr"/>
       <c r="EJ290" t="inlineStr"/>
+      <c r="EK290" t="inlineStr"/>
+      <c r="EL290" t="inlineStr"/>
+      <c r="EM290" t="inlineStr"/>
+      <c r="EN290" t="inlineStr"/>
+      <c r="EO290" t="inlineStr"/>
+      <c r="EP290" t="inlineStr"/>
+      <c r="EQ290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -50761,6 +52933,13 @@
       <c r="EH291" t="inlineStr"/>
       <c r="EI291" t="inlineStr"/>
       <c r="EJ291" t="inlineStr"/>
+      <c r="EK291" t="inlineStr"/>
+      <c r="EL291" t="inlineStr"/>
+      <c r="EM291" t="inlineStr"/>
+      <c r="EN291" t="inlineStr"/>
+      <c r="EO291" t="inlineStr"/>
+      <c r="EP291" t="inlineStr"/>
+      <c r="EQ291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -50987,6 +53166,13 @@
       <c r="EH292" t="inlineStr"/>
       <c r="EI292" t="inlineStr"/>
       <c r="EJ292" t="inlineStr"/>
+      <c r="EK292" t="inlineStr"/>
+      <c r="EL292" t="inlineStr"/>
+      <c r="EM292" t="inlineStr"/>
+      <c r="EN292" t="inlineStr"/>
+      <c r="EO292" t="inlineStr"/>
+      <c r="EP292" t="inlineStr"/>
+      <c r="EQ292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -51185,22 +53371,22 @@
       <c r="DN293" t="inlineStr"/>
       <c r="DO293" t="inlineStr"/>
       <c r="DP293" t="inlineStr"/>
-      <c r="DQ293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DQ293" t="inlineStr"/>
       <c r="DR293" t="inlineStr"/>
       <c r="DS293" t="inlineStr"/>
-      <c r="DT293" t="inlineStr"/>
-      <c r="DU293" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DT293" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DU293" t="inlineStr"/>
       <c r="DV293" t="inlineStr"/>
       <c r="DW293" t="inlineStr"/>
-      <c r="DX293" t="inlineStr"/>
+      <c r="DX293" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="DY293" t="inlineStr"/>
       <c r="DZ293" t="inlineStr"/>
       <c r="EA293" t="inlineStr"/>
@@ -51213,6 +53399,13 @@
       <c r="EH293" t="inlineStr"/>
       <c r="EI293" t="inlineStr"/>
       <c r="EJ293" t="inlineStr"/>
+      <c r="EK293" t="inlineStr"/>
+      <c r="EL293" t="inlineStr"/>
+      <c r="EM293" t="inlineStr"/>
+      <c r="EN293" t="inlineStr"/>
+      <c r="EO293" t="inlineStr"/>
+      <c r="EP293" t="inlineStr"/>
+      <c r="EQ293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -51446,19 +53639,19 @@
       </c>
       <c r="DN294" t="inlineStr"/>
       <c r="DO294" t="inlineStr"/>
-      <c r="DP294" t="inlineStr">
+      <c r="DP294" t="inlineStr"/>
+      <c r="DQ294" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="DQ294" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="DR294" t="inlineStr"/>
       <c r="DS294" t="inlineStr"/>
-      <c r="DT294" t="inlineStr"/>
+      <c r="DT294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="DU294" t="inlineStr"/>
       <c r="DV294" t="inlineStr"/>
       <c r="DW294" t="inlineStr"/>
@@ -51475,6 +53668,13 @@
       <c r="EH294" t="inlineStr"/>
       <c r="EI294" t="inlineStr"/>
       <c r="EJ294" t="inlineStr"/>
+      <c r="EK294" t="inlineStr"/>
+      <c r="EL294" t="inlineStr"/>
+      <c r="EM294" t="inlineStr"/>
+      <c r="EN294" t="inlineStr"/>
+      <c r="EO294" t="inlineStr"/>
+      <c r="EP294" t="inlineStr"/>
+      <c r="EQ294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -51732,19 +53932,19 @@
       </c>
       <c r="DN295" t="inlineStr"/>
       <c r="DO295" t="inlineStr"/>
-      <c r="DP295" t="inlineStr">
+      <c r="DP295" t="inlineStr"/>
+      <c r="DQ295" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="DQ295" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="DR295" t="inlineStr"/>
       <c r="DS295" t="inlineStr"/>
-      <c r="DT295" t="inlineStr"/>
+      <c r="DT295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="DU295" t="inlineStr"/>
       <c r="DV295" t="inlineStr"/>
       <c r="DW295" t="inlineStr"/>
@@ -51761,6 +53961,13 @@
       <c r="EH295" t="inlineStr"/>
       <c r="EI295" t="inlineStr"/>
       <c r="EJ295" t="inlineStr"/>
+      <c r="EK295" t="inlineStr"/>
+      <c r="EL295" t="inlineStr"/>
+      <c r="EM295" t="inlineStr"/>
+      <c r="EN295" t="inlineStr"/>
+      <c r="EO295" t="inlineStr"/>
+      <c r="EP295" t="inlineStr"/>
+      <c r="EQ295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -51995,6 +54202,13 @@
       <c r="EH296" t="inlineStr"/>
       <c r="EI296" t="inlineStr"/>
       <c r="EJ296" t="inlineStr"/>
+      <c r="EK296" t="inlineStr"/>
+      <c r="EL296" t="inlineStr"/>
+      <c r="EM296" t="inlineStr"/>
+      <c r="EN296" t="inlineStr"/>
+      <c r="EO296" t="inlineStr"/>
+      <c r="EP296" t="inlineStr"/>
+      <c r="EQ296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -52171,14 +54385,14 @@
       <c r="DT297" t="inlineStr"/>
       <c r="DU297" t="inlineStr"/>
       <c r="DV297" t="inlineStr"/>
-      <c r="DW297" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="DW297" t="inlineStr"/>
       <c r="DX297" t="inlineStr"/>
       <c r="DY297" t="inlineStr"/>
-      <c r="DZ297" t="inlineStr"/>
+      <c r="DZ297" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="EA297" t="inlineStr"/>
       <c r="EB297" t="inlineStr"/>
       <c r="EC297" t="inlineStr"/>
@@ -52189,6 +54403,13 @@
       <c r="EH297" t="inlineStr"/>
       <c r="EI297" t="inlineStr"/>
       <c r="EJ297" t="inlineStr"/>
+      <c r="EK297" t="inlineStr"/>
+      <c r="EL297" t="inlineStr"/>
+      <c r="EM297" t="inlineStr"/>
+      <c r="EN297" t="inlineStr"/>
+      <c r="EO297" t="inlineStr"/>
+      <c r="EP297" t="inlineStr"/>
+      <c r="EQ297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -52203,7 +54424,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
@@ -52328,21 +54549,25 @@
       <c r="DO298" t="inlineStr"/>
       <c r="DP298" t="inlineStr"/>
       <c r="DQ298" t="inlineStr"/>
-      <c r="DR298" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="DR298" t="inlineStr"/>
       <c r="DS298" t="inlineStr"/>
       <c r="DT298" t="inlineStr"/>
-      <c r="DU298" t="inlineStr"/>
+      <c r="DU298" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DV298" t="inlineStr"/>
       <c r="DW298" t="inlineStr"/>
       <c r="DX298" t="inlineStr"/>
       <c r="DY298" t="inlineStr"/>
       <c r="DZ298" t="inlineStr"/>
       <c r="EA298" t="inlineStr"/>
-      <c r="EB298" t="inlineStr"/>
+      <c r="EB298" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EC298" t="inlineStr"/>
       <c r="ED298" t="inlineStr"/>
       <c r="EE298" t="inlineStr"/>
@@ -52351,6 +54576,13 @@
       <c r="EH298" t="inlineStr"/>
       <c r="EI298" t="inlineStr"/>
       <c r="EJ298" t="inlineStr"/>
+      <c r="EK298" t="inlineStr"/>
+      <c r="EL298" t="inlineStr"/>
+      <c r="EM298" t="inlineStr"/>
+      <c r="EN298" t="inlineStr"/>
+      <c r="EO298" t="inlineStr"/>
+      <c r="EP298" t="inlineStr"/>
+      <c r="EQ298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -52365,7 +54597,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
@@ -52504,7 +54736,11 @@
       <c r="DY299" t="inlineStr"/>
       <c r="DZ299" t="inlineStr"/>
       <c r="EA299" t="inlineStr"/>
-      <c r="EB299" t="inlineStr"/>
+      <c r="EB299" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EC299" t="inlineStr"/>
       <c r="ED299" t="inlineStr"/>
       <c r="EE299" t="inlineStr"/>
@@ -52513,6 +54749,13 @@
       <c r="EH299" t="inlineStr"/>
       <c r="EI299" t="inlineStr"/>
       <c r="EJ299" t="inlineStr"/>
+      <c r="EK299" t="inlineStr"/>
+      <c r="EL299" t="inlineStr"/>
+      <c r="EM299" t="inlineStr"/>
+      <c r="EN299" t="inlineStr"/>
+      <c r="EO299" t="inlineStr"/>
+      <c r="EP299" t="inlineStr"/>
+      <c r="EQ299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -52675,6 +54918,13 @@
       <c r="EH300" t="inlineStr"/>
       <c r="EI300" t="inlineStr"/>
       <c r="EJ300" t="inlineStr"/>
+      <c r="EK300" t="inlineStr"/>
+      <c r="EL300" t="inlineStr"/>
+      <c r="EM300" t="inlineStr"/>
+      <c r="EN300" t="inlineStr"/>
+      <c r="EO300" t="inlineStr"/>
+      <c r="EP300" t="inlineStr"/>
+      <c r="EQ300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -52689,7 +54939,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
@@ -52827,17 +55077,25 @@
       <c r="DL301" t="inlineStr"/>
       <c r="DM301" t="inlineStr"/>
       <c r="DN301" t="inlineStr"/>
-      <c r="DO301" t="inlineStr"/>
+      <c r="DO301" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DP301" t="inlineStr"/>
       <c r="DQ301" t="inlineStr"/>
-      <c r="DR301" t="inlineStr">
+      <c r="DR301" t="inlineStr"/>
+      <c r="DS301" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DS301" t="inlineStr"/>
       <c r="DT301" t="inlineStr"/>
-      <c r="DU301" t="inlineStr"/>
+      <c r="DU301" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DV301" t="inlineStr"/>
       <c r="DW301" t="inlineStr"/>
       <c r="DX301" t="inlineStr"/>
@@ -52853,6 +55111,13 @@
       <c r="EH301" t="inlineStr"/>
       <c r="EI301" t="inlineStr"/>
       <c r="EJ301" t="inlineStr"/>
+      <c r="EK301" t="inlineStr"/>
+      <c r="EL301" t="inlineStr"/>
+      <c r="EM301" t="inlineStr"/>
+      <c r="EN301" t="inlineStr"/>
+      <c r="EO301" t="inlineStr"/>
+      <c r="EP301" t="inlineStr"/>
+      <c r="EQ301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -52867,7 +55132,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>60,2</t>
+          <t>62,2</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
@@ -53015,7 +55280,7 @@
       <c r="DJ302" t="inlineStr"/>
       <c r="DK302" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="DL302" t="inlineStr">
@@ -53030,19 +55295,19 @@
       </c>
       <c r="DN302" t="inlineStr"/>
       <c r="DO302" t="inlineStr"/>
-      <c r="DP302" t="inlineStr">
+      <c r="DP302" t="inlineStr"/>
+      <c r="DQ302" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="DQ302" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="DR302" t="inlineStr"/>
       <c r="DS302" t="inlineStr"/>
-      <c r="DT302" t="inlineStr"/>
+      <c r="DT302" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="DU302" t="inlineStr"/>
       <c r="DV302" t="inlineStr"/>
       <c r="DW302" t="inlineStr"/>
@@ -53059,6 +55324,13 @@
       <c r="EH302" t="inlineStr"/>
       <c r="EI302" t="inlineStr"/>
       <c r="EJ302" t="inlineStr"/>
+      <c r="EK302" t="inlineStr"/>
+      <c r="EL302" t="inlineStr"/>
+      <c r="EM302" t="inlineStr"/>
+      <c r="EN302" t="inlineStr"/>
+      <c r="EO302" t="inlineStr"/>
+      <c r="EP302" t="inlineStr"/>
+      <c r="EQ302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -53217,6 +55489,13 @@
       <c r="EH303" t="inlineStr"/>
       <c r="EI303" t="inlineStr"/>
       <c r="EJ303" t="inlineStr"/>
+      <c r="EK303" t="inlineStr"/>
+      <c r="EL303" t="inlineStr"/>
+      <c r="EM303" t="inlineStr"/>
+      <c r="EN303" t="inlineStr"/>
+      <c r="EO303" t="inlineStr"/>
+      <c r="EP303" t="inlineStr"/>
+      <c r="EQ303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -53375,6 +55654,13 @@
       <c r="EH304" t="inlineStr"/>
       <c r="EI304" t="inlineStr"/>
       <c r="EJ304" t="inlineStr"/>
+      <c r="EK304" t="inlineStr"/>
+      <c r="EL304" t="inlineStr"/>
+      <c r="EM304" t="inlineStr"/>
+      <c r="EN304" t="inlineStr"/>
+      <c r="EO304" t="inlineStr"/>
+      <c r="EP304" t="inlineStr"/>
+      <c r="EQ304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -53589,6 +55875,13 @@
       <c r="EH305" t="inlineStr"/>
       <c r="EI305" t="inlineStr"/>
       <c r="EJ305" t="inlineStr"/>
+      <c r="EK305" t="inlineStr"/>
+      <c r="EL305" t="inlineStr"/>
+      <c r="EM305" t="inlineStr"/>
+      <c r="EN305" t="inlineStr"/>
+      <c r="EO305" t="inlineStr"/>
+      <c r="EP305" t="inlineStr"/>
+      <c r="EQ305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -53747,6 +56040,13 @@
       <c r="EH306" t="inlineStr"/>
       <c r="EI306" t="inlineStr"/>
       <c r="EJ306" t="inlineStr"/>
+      <c r="EK306" t="inlineStr"/>
+      <c r="EL306" t="inlineStr"/>
+      <c r="EM306" t="inlineStr"/>
+      <c r="EN306" t="inlineStr"/>
+      <c r="EO306" t="inlineStr"/>
+      <c r="EP306" t="inlineStr"/>
+      <c r="EQ306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -53895,20 +56195,27 @@
       <c r="DX307" t="inlineStr"/>
       <c r="DY307" t="inlineStr"/>
       <c r="DZ307" t="inlineStr"/>
-      <c r="EA307" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="EA307" t="inlineStr"/>
       <c r="EB307" t="inlineStr"/>
       <c r="EC307" t="inlineStr"/>
       <c r="ED307" t="inlineStr"/>
       <c r="EE307" t="inlineStr"/>
       <c r="EF307" t="inlineStr"/>
       <c r="EG307" t="inlineStr"/>
-      <c r="EH307" t="inlineStr"/>
+      <c r="EH307" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="EI307" t="inlineStr"/>
       <c r="EJ307" t="inlineStr"/>
+      <c r="EK307" t="inlineStr"/>
+      <c r="EL307" t="inlineStr"/>
+      <c r="EM307" t="inlineStr"/>
+      <c r="EN307" t="inlineStr"/>
+      <c r="EO307" t="inlineStr"/>
+      <c r="EP307" t="inlineStr"/>
+      <c r="EQ307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -54063,6 +56370,13 @@
       <c r="EH308" t="inlineStr"/>
       <c r="EI308" t="inlineStr"/>
       <c r="EJ308" t="inlineStr"/>
+      <c r="EK308" t="inlineStr"/>
+      <c r="EL308" t="inlineStr"/>
+      <c r="EM308" t="inlineStr"/>
+      <c r="EN308" t="inlineStr"/>
+      <c r="EO308" t="inlineStr"/>
+      <c r="EP308" t="inlineStr"/>
+      <c r="EQ308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -54217,6 +56531,13 @@
       <c r="EH309" t="inlineStr"/>
       <c r="EI309" t="inlineStr"/>
       <c r="EJ309" t="inlineStr"/>
+      <c r="EK309" t="inlineStr"/>
+      <c r="EL309" t="inlineStr"/>
+      <c r="EM309" t="inlineStr"/>
+      <c r="EN309" t="inlineStr"/>
+      <c r="EO309" t="inlineStr"/>
+      <c r="EP309" t="inlineStr"/>
+      <c r="EQ309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -54378,7 +56699,14 @@
       <c r="EG310" t="inlineStr"/>
       <c r="EH310" t="inlineStr"/>
       <c r="EI310" t="inlineStr"/>
-      <c r="EJ310" t="inlineStr">
+      <c r="EJ310" t="inlineStr"/>
+      <c r="EK310" t="inlineStr"/>
+      <c r="EL310" t="inlineStr"/>
+      <c r="EM310" t="inlineStr"/>
+      <c r="EN310" t="inlineStr"/>
+      <c r="EO310" t="inlineStr"/>
+      <c r="EP310" t="inlineStr"/>
+      <c r="EQ310" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -54545,6 +56873,13 @@
       <c r="EH311" t="inlineStr"/>
       <c r="EI311" t="inlineStr"/>
       <c r="EJ311" t="inlineStr"/>
+      <c r="EK311" t="inlineStr"/>
+      <c r="EL311" t="inlineStr"/>
+      <c r="EM311" t="inlineStr"/>
+      <c r="EN311" t="inlineStr"/>
+      <c r="EO311" t="inlineStr"/>
+      <c r="EP311" t="inlineStr"/>
+      <c r="EQ311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -54699,6 +57034,13 @@
       <c r="EH312" t="inlineStr"/>
       <c r="EI312" t="inlineStr"/>
       <c r="EJ312" t="inlineStr"/>
+      <c r="EK312" t="inlineStr"/>
+      <c r="EL312" t="inlineStr"/>
+      <c r="EM312" t="inlineStr"/>
+      <c r="EN312" t="inlineStr"/>
+      <c r="EO312" t="inlineStr"/>
+      <c r="EP312" t="inlineStr"/>
+      <c r="EQ312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -54885,6 +57227,13 @@
       <c r="EH313" t="inlineStr"/>
       <c r="EI313" t="inlineStr"/>
       <c r="EJ313" t="inlineStr"/>
+      <c r="EK313" t="inlineStr"/>
+      <c r="EL313" t="inlineStr"/>
+      <c r="EM313" t="inlineStr"/>
+      <c r="EN313" t="inlineStr"/>
+      <c r="EO313" t="inlineStr"/>
+      <c r="EP313" t="inlineStr"/>
+      <c r="EQ313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -55067,6 +57416,13 @@
       <c r="EH314" t="inlineStr"/>
       <c r="EI314" t="inlineStr"/>
       <c r="EJ314" t="inlineStr"/>
+      <c r="EK314" t="inlineStr"/>
+      <c r="EL314" t="inlineStr"/>
+      <c r="EM314" t="inlineStr"/>
+      <c r="EN314" t="inlineStr"/>
+      <c r="EO314" t="inlineStr"/>
+      <c r="EP314" t="inlineStr"/>
+      <c r="EQ314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -55260,20 +57616,16 @@
       </c>
       <c r="DN315" t="inlineStr"/>
       <c r="DO315" t="inlineStr"/>
-      <c r="DP315" t="inlineStr">
+      <c r="DP315" t="inlineStr"/>
+      <c r="DQ315" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="DQ315" t="inlineStr"/>
       <c r="DR315" t="inlineStr"/>
       <c r="DS315" t="inlineStr"/>
       <c r="DT315" t="inlineStr"/>
-      <c r="DU315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DU315" t="inlineStr"/>
       <c r="DV315" t="inlineStr"/>
       <c r="DW315" t="inlineStr"/>
       <c r="DX315" t="inlineStr">
@@ -55283,7 +57635,11 @@
       </c>
       <c r="DY315" t="inlineStr"/>
       <c r="DZ315" t="inlineStr"/>
-      <c r="EA315" t="inlineStr"/>
+      <c r="EA315" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EB315" t="inlineStr"/>
       <c r="EC315" t="inlineStr"/>
       <c r="ED315" t="inlineStr"/>
@@ -55293,6 +57649,13 @@
       <c r="EH315" t="inlineStr"/>
       <c r="EI315" t="inlineStr"/>
       <c r="EJ315" t="inlineStr"/>
+      <c r="EK315" t="inlineStr"/>
+      <c r="EL315" t="inlineStr"/>
+      <c r="EM315" t="inlineStr"/>
+      <c r="EN315" t="inlineStr"/>
+      <c r="EO315" t="inlineStr"/>
+      <c r="EP315" t="inlineStr"/>
+      <c r="EQ315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -55473,32 +57836,39 @@
       <c r="DT316" t="inlineStr"/>
       <c r="DU316" t="inlineStr"/>
       <c r="DV316" t="inlineStr"/>
-      <c r="DW316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="DW316" t="inlineStr"/>
       <c r="DX316" t="inlineStr"/>
       <c r="DY316" t="inlineStr"/>
-      <c r="DZ316" t="inlineStr"/>
-      <c r="EA316" t="inlineStr">
+      <c r="DZ316" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
+      <c r="EA316" t="inlineStr"/>
       <c r="EB316" t="inlineStr"/>
       <c r="EC316" t="inlineStr"/>
-      <c r="ED316" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="ED316" t="inlineStr"/>
       <c r="EE316" t="inlineStr"/>
       <c r="EF316" t="inlineStr"/>
       <c r="EG316" t="inlineStr"/>
-      <c r="EH316" t="inlineStr"/>
+      <c r="EH316" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="EI316" t="inlineStr"/>
       <c r="EJ316" t="inlineStr"/>
+      <c r="EK316" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="EL316" t="inlineStr"/>
+      <c r="EM316" t="inlineStr"/>
+      <c r="EN316" t="inlineStr"/>
+      <c r="EO316" t="inlineStr"/>
+      <c r="EP316" t="inlineStr"/>
+      <c r="EQ316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
